--- a/participants/participant_21/participant_21_conditions.xlsx
+++ b/participants/participant_21/participant_21_conditions.xlsx
@@ -7,29 +7,29 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="go_stims-16498730682553802" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="GNG_stims-1649873068282383" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="go_stims-1649873068283382" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="GNG_stims-1649873068297416" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="ZB-match_3-16498730683074155" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="ZB-match_1-1649873068685096" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="ZB-match_5-16498730689860935" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="OB-164987306932113" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="OB-16498730697920947" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet name="OB-16498730699620948" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet name="TB-16498730704651265" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet name="TB-16498730713901281" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet name="TB-16498730716831307" sheetId="13" state="visible" r:id="rId13"/>
-    <sheet name="ZM_stims-16498730717110944" sheetId="14" state="visible" r:id="rId14"/>
-    <sheet name="MM_stims-164987307173413" sheetId="15" state="visible" r:id="rId15"/>
-    <sheet name="ZM_stims-16498730717350948" sheetId="16" state="visible" r:id="rId16"/>
-    <sheet name="MM_stims-16498730717501307" sheetId="17" state="visible" r:id="rId17"/>
-    <sheet name="ZM_stims-16498730717510934" sheetId="18" state="visible" r:id="rId18"/>
-    <sheet name="MM_stims-16498730717651339" sheetId="19" state="visible" r:id="rId19"/>
-    <sheet name="SAT_stims-1649873071769096" sheetId="20" state="visible" r:id="rId20"/>
-    <sheet name="SAT_stims-1649873071781102" sheetId="21" state="visible" r:id="rId21"/>
-    <sheet name="vSAT_stims-1649873071796131" sheetId="22" state="visible" r:id="rId22"/>
-    <sheet name="vSAT_stims-16498730718111296" sheetId="23" state="visible" r:id="rId23"/>
+    <sheet name="go_stims-16502911884996686" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="GNG_stims-16502911885196724" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="go_stims-16502911885216691" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="GNG_stims-16502911885356708" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="ZB-match_0-16502911886716685" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="ZB-match_2-16502911887646728" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="ZB-match_6-16502911891436703" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="OB-16502911893096697" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="OB-1650291189652669" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="OB-1650291190665151" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet name="TB-16502911909765978" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet name="TB-1650291191086608" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet name="TB-16502911914116008" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet name="ZM_stims-16502911914296005" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet name="MM_stims-1650291191440598" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet name="ZM_stims-16502911914425974" sheetId="16" state="visible" r:id="rId16"/>
+    <sheet name="MM_stims-16502911914715955" sheetId="17" state="visible" r:id="rId17"/>
+    <sheet name="ZM_stims-16502911914736" sheetId="18" state="visible" r:id="rId18"/>
+    <sheet name="MM_stims-16502911914876156" sheetId="19" state="visible" r:id="rId19"/>
+    <sheet name="SAT_stims-1650291191494636" sheetId="20" state="visible" r:id="rId20"/>
+    <sheet name="SAT_stims-16502911915216074" sheetId="21" state="visible" r:id="rId21"/>
+    <sheet name="vSAT_stims-1650291191537609" sheetId="22" state="visible" r:id="rId22"/>
+    <sheet name="vSAT_stims-16502911915675972" sheetId="23" state="visible" r:id="rId23"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -482,11 +482,11 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>5.5</v>
+        <v>4.5</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>affective_go_stimuli\puppy_15.jpeg</t>
+          <t>go_stimuli\puppy_25.jpeg</t>
         </is>
       </c>
       <c r="D2" t="n">
@@ -503,11 +503,11 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>5.5</v>
+        <v>4.5</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>affective_go_stimuli\puppy_7.jpg</t>
+          <t>go_stimuli\puppy_23.jpeg</t>
         </is>
       </c>
       <c r="D3" t="n">
@@ -528,7 +528,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>affective_go_stimuli\puppy_28.jpg</t>
+          <t>go_stimuli\puppy_16.jpeg</t>
         </is>
       </c>
       <c r="D4" t="n">
@@ -545,11 +545,11 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>5</v>
+        <v>6.5</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>affective_go_stimuli\puppy_8.jpg</t>
+          <t>go_stimuli\puppy_12.jpeg</t>
         </is>
       </c>
       <c r="D5" t="n">
@@ -566,11 +566,11 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>5.5</v>
+        <v>4</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>affective_go_stimuli\puppy_18.jpeg</t>
+          <t>go_stimuli\puppy_18.jpeg</t>
         </is>
       </c>
       <c r="D6" t="n">
@@ -591,7 +591,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>affective_go_stimuli\puppy_6.jpg</t>
+          <t>go_stimuli\puppy_17.jpeg</t>
         </is>
       </c>
       <c r="D7" t="n">
@@ -612,7 +612,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>affective_go_stimuli\puppy_25.jpeg</t>
+          <t>go_stimuli\puppy_22.jpeg</t>
         </is>
       </c>
       <c r="D8" t="n">
@@ -629,11 +629,11 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>4.5</v>
+        <v>6</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>affective_go_stimuli\puppy_3.jpg</t>
+          <t>go_stimuli\puppy_28.jpg</t>
         </is>
       </c>
       <c r="D9" t="n">
@@ -650,11 +650,11 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>affective_go_stimuli\puppy_26.jpeg</t>
+          <t>go_stimuli\puppy_5.jpg</t>
         </is>
       </c>
       <c r="D10" t="n">
@@ -671,11 +671,11 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>affective_go_stimuli\puppy_30.jpg</t>
+          <t>go_stimuli\puppy_3.jpg</t>
         </is>
       </c>
       <c r="D11" t="n">
@@ -692,11 +692,11 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>5.5</v>
+        <v>4</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>affective_go_stimuli\puppy_11.jpeg</t>
+          <t>go_stimuli\puppy_15.jpeg</t>
         </is>
       </c>
       <c r="D12" t="n">
@@ -713,11 +713,11 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>5.5</v>
+        <v>4</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>affective_go_stimuli\puppy_4.jpg</t>
+          <t>go_stimuli\puppy_30.jpg</t>
         </is>
       </c>
       <c r="D13" t="n">
@@ -734,11 +734,11 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>affective_go_stimuli\puppy_5.jpg</t>
+          <t>go_stimuli\puppy_10.jpg</t>
         </is>
       </c>
       <c r="D14" t="n">
@@ -755,11 +755,11 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>affective_go_stimuli\puppy_21.jpeg</t>
+          <t>go_stimuli\puppy_8.jpg</t>
         </is>
       </c>
       <c r="D15" t="n">
@@ -776,11 +776,11 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>6</v>
+        <v>4.5</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>affective_go_stimuli\puppy_9.jpg</t>
+          <t>go_stimuli\puppy_2.jpg</t>
         </is>
       </c>
       <c r="D16" t="n">
@@ -797,11 +797,11 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>4.5</v>
+        <v>6</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>affective_go_stimuli\puppy_13.jpg</t>
+          <t>go_stimuli\puppy_19.jpeg</t>
         </is>
       </c>
       <c r="D17" t="n">
@@ -822,7 +822,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>affective_go_stimuli\puppy_20.jpeg</t>
+          <t>go_stimuli\puppy_9.jpg</t>
         </is>
       </c>
       <c r="D18" t="n">
@@ -839,11 +839,11 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>affective_go_stimuli\puppy_16.jpeg</t>
+          <t>go_stimuli\puppy_7.jpg</t>
         </is>
       </c>
       <c r="D19" t="n">
@@ -860,11 +860,11 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>6.5</v>
+        <v>4</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>affective_go_stimuli\puppy_17.jpeg</t>
+          <t>go_stimuli\puppy_20.jpeg</t>
         </is>
       </c>
       <c r="D20" t="n">
@@ -881,11 +881,11 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>6</v>
+        <v>4.5</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>affective_go_stimuli\puppy_12.jpeg</t>
+          <t>go_stimuli\puppy_21.jpeg</t>
         </is>
       </c>
       <c r="D21" t="n">
@@ -938,7 +938,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -954,14 +954,14 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -970,14 +970,14 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -986,7 +986,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -1002,7 +1002,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -1018,7 +1018,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -1034,7 +1034,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -1050,14 +1050,14 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -1066,7 +1066,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C10" t="n">
         <v>1</v>
@@ -1082,14 +1082,14 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -1098,14 +1098,14 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -1117,11 +1117,11 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -1130,14 +1130,14 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -1146,14 +1146,14 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -1162,7 +1162,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C16" t="n">
         <v>1</v>
@@ -1178,7 +1178,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -1194,14 +1194,14 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -1210,14 +1210,14 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -1226,7 +1226,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -1242,7 +1242,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
@@ -1294,7 +1294,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -1310,7 +1310,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -1326,7 +1326,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -1342,7 +1342,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -1358,7 +1358,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -1377,11 +1377,11 @@
         <v>9</v>
       </c>
       <c r="C7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -1390,14 +1390,14 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -1406,7 +1406,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
@@ -1422,14 +1422,14 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -1438,14 +1438,14 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -1454,14 +1454,14 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -1470,7 +1470,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>1</v>
@@ -1486,7 +1486,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C14" t="n">
         <v>1</v>
@@ -1505,11 +1505,11 @@
         <v>1</v>
       </c>
       <c r="C15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -1518,14 +1518,14 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -1534,14 +1534,14 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -1550,14 +1550,14 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -1566,7 +1566,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -1598,14 +1598,14 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -1666,7 +1666,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -1682,7 +1682,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -1698,7 +1698,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -1714,14 +1714,14 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -1746,7 +1746,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -1762,14 +1762,14 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -1778,7 +1778,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>1</v>
@@ -1794,7 +1794,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -1810,14 +1810,14 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -1826,14 +1826,14 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -1842,7 +1842,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -1858,14 +1858,14 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -1874,7 +1874,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -1890,7 +1890,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C17" t="n">
         <v>1</v>
@@ -1906,14 +1906,14 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -1922,7 +1922,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C19" t="n">
         <v>1</v>
@@ -1938,14 +1938,14 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -1957,11 +1957,11 @@
         <v>9</v>
       </c>
       <c r="C21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -2006,7 +2006,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -2022,7 +2022,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -2038,7 +2038,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -2054,14 +2054,14 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -2086,14 +2086,14 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -2102,14 +2102,14 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -2118,7 +2118,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C9" t="n">
         <v>1</v>
@@ -2134,14 +2134,14 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -2153,11 +2153,11 @@
         <v>2</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -2166,7 +2166,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C12" t="n">
         <v>1</v>
@@ -2182,14 +2182,14 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -2198,14 +2198,14 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -2214,14 +2214,14 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -2230,7 +2230,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -2246,7 +2246,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -2262,7 +2262,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C18" t="n">
         <v>1</v>
@@ -2278,14 +2278,14 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -2294,14 +2294,14 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -2310,7 +2310,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
@@ -2363,7 +2363,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>zero_move_stimuli\zero_move_5.jpg</t>
+          <t>zero_move_stimuli\zero_move_4.jpg</t>
         </is>
       </c>
       <c r="C2" t="n">
@@ -2381,7 +2381,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>zero_move_stimuli\zero_move_1.jpg</t>
+          <t>zero_move_stimuli\zero_move_3.jpg</t>
         </is>
       </c>
       <c r="C3" t="n">
@@ -2399,7 +2399,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>zero_move_stimuli\zero_move_2.jpg</t>
+          <t>zero_move_stimuli\zero_move_5.jpg</t>
         </is>
       </c>
       <c r="C4" t="n">
@@ -2417,7 +2417,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>zero_move_stimuli\zero_move_4.jpg</t>
+          <t>zero_move_stimuli\zero_move_6.jpg</t>
         </is>
       </c>
       <c r="C5" t="n">
@@ -2435,7 +2435,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>zero_move_stimuli\zero_move_6.jpg</t>
+          <t>zero_move_stimuli\zero_move_2.jpg</t>
         </is>
       </c>
       <c r="C6" t="n">
@@ -2453,7 +2453,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>zero_move_stimuli\zero_move_3.jpg</t>
+          <t>zero_move_stimuli\zero_move_1.jpg</t>
         </is>
       </c>
       <c r="C7" t="n">
@@ -2507,15 +2507,15 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>multi_move_stimuli\stim_two_move\stim_two_move_2.jpg</t>
+          <t>multi_move_stimuli\stim_not_two_move\stim_not_two_move_1.jpg</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -2525,15 +2525,15 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>multi_move_stimuli\stim_two_move\stim_two_move_5.jpg</t>
+          <t>multi_move_stimuli\stim_not_two_move\stim_not_two_move_6.jpg</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -2543,7 +2543,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>multi_move_stimuli\stim_two_move\resting_state_task_order-16497937738825111.csv</t>
+          <t>multi_move_stimuli\stim_two_move\stim_two_move_3.jpg</t>
         </is>
       </c>
       <c r="C4" t="n">
@@ -2561,15 +2561,15 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>multi_move_stimuli\stim_two_move\stim_two_move_6.jpg</t>
+          <t>multi_move_stimuli\stim_not_two_move\stim_not_two_move_3.jpg</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -2579,7 +2579,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>multi_move_stimuli\stim_two_move\resting_state_task_order-16497934944917982.csv</t>
+          <t>multi_move_stimuli\stim_two_move\stim_two_move_1.jpg</t>
         </is>
       </c>
       <c r="C6" t="n">
@@ -2597,15 +2597,15 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>multi_move_stimuli\stim_not_two_move\stim_not_two_move_3.jpg</t>
+          <t>multi_move_stimuli\stim_two_move\stim_two_move_5.jpg</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -2651,7 +2651,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>zero_move_stimuli\zero_move_4.jpg</t>
+          <t>zero_move_stimuli\zero_move_5.jpg</t>
         </is>
       </c>
       <c r="C2" t="n">
@@ -2669,7 +2669,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>zero_move_stimuli\zero_move_1.jpg</t>
+          <t>zero_move_stimuli\zero_move_2.jpg</t>
         </is>
       </c>
       <c r="C3" t="n">
@@ -2705,7 +2705,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>zero_move_stimuli\zero_move_2.jpg</t>
+          <t>zero_move_stimuli\zero_move_1.jpg</t>
         </is>
       </c>
       <c r="C5" t="n">
@@ -2723,7 +2723,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>zero_move_stimuli\zero_move_5.jpg</t>
+          <t>zero_move_stimuli\zero_move_4.jpg</t>
         </is>
       </c>
       <c r="C6" t="n">
@@ -2795,7 +2795,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>multi_move_stimuli\stim_not_two_move\stim_not_two_move_1.jpg</t>
+          <t>multi_move_stimuli\stim_not_two_move\stim_not_two_move_3.jpg</t>
         </is>
       </c>
       <c r="C2" t="n">
@@ -2813,7 +2813,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>multi_move_stimuli\stim_not_two_move\stim_not_two_move_2.jpg</t>
+          <t>multi_move_stimuli\stim_not_two_move\stim_not_two_move_6.jpg</t>
         </is>
       </c>
       <c r="C3" t="n">
@@ -2831,7 +2831,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>multi_move_stimuli\stim_two_move\stim_two_move_3.jpg</t>
+          <t>multi_move_stimuli\stim_two_move\stim_two_move_1.jpg</t>
         </is>
       </c>
       <c r="C4" t="n">
@@ -2849,7 +2849,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>multi_move_stimuli\stim_two_move\resting_state_task_order-1649862502378852.csv</t>
+          <t>multi_move_stimuli\stim_two_move\stim_two_move_6.jpg</t>
         </is>
       </c>
       <c r="C5" t="n">
@@ -2867,7 +2867,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>multi_move_stimuli\stim_two_move\stim_two_move_4.jpg</t>
+          <t>multi_move_stimuli\stim_two_move\stim_two_move_3.jpg</t>
         </is>
       </c>
       <c r="C6" t="n">
@@ -2885,15 +2885,15 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>multi_move_stimuli\stim_two_move\stim_two_move_1.jpg</t>
+          <t>multi_move_stimuli\stim_not_two_move\stim_not_two_move_4.jpg</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -2939,7 +2939,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>zero_move_stimuli\zero_move_1.jpg</t>
+          <t>zero_move_stimuli\zero_move_4.jpg</t>
         </is>
       </c>
       <c r="C2" t="n">
@@ -2975,7 +2975,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>zero_move_stimuli\zero_move_2.jpg</t>
+          <t>zero_move_stimuli\zero_move_5.jpg</t>
         </is>
       </c>
       <c r="C4" t="n">
@@ -2993,7 +2993,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>zero_move_stimuli\zero_move_6.jpg</t>
+          <t>zero_move_stimuli\zero_move_2.jpg</t>
         </is>
       </c>
       <c r="C5" t="n">
@@ -3011,7 +3011,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>zero_move_stimuli\zero_move_4.jpg</t>
+          <t>zero_move_stimuli\zero_move_6.jpg</t>
         </is>
       </c>
       <c r="C6" t="n">
@@ -3029,7 +3029,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>zero_move_stimuli\zero_move_5.jpg</t>
+          <t>zero_move_stimuli\zero_move_1.jpg</t>
         </is>
       </c>
       <c r="C7" t="n">
@@ -3083,15 +3083,15 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>multi_move_stimuli\stim_two_move\stim_two_move_1.jpg</t>
+          <t>multi_move_stimuli\stim_not_two_move\stim_not_two_move_2.jpg</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -3101,7 +3101,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>multi_move_stimuli\stim_two_move\resting_state_task_order-16498622682547295.csv</t>
+          <t>multi_move_stimuli\stim_two_move\stim_two_move_4.jpg</t>
         </is>
       </c>
       <c r="C3" t="n">
@@ -3119,15 +3119,15 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>multi_move_stimuli\stim_not_two_move\stim_not_two_move_1.jpg</t>
+          <t>multi_move_stimuli\stim_two_move\stim_two_move_6.jpg</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -3137,15 +3137,15 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>multi_move_stimuli\stim_two_move\stim_two_move_3.jpg</t>
+          <t>multi_move_stimuli\stim_not_two_move\stim_not_two_move_6.jpg</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -3173,15 +3173,15 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>multi_move_stimuli\stim_two_move\resting_state_task_order-16497937708301866.csv</t>
+          <t>multi_move_stimuli\stim_not_two_move\stim_not_two_move_1.jpg</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -3231,19 +3231,19 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>affective_go_stimuli\puppy_23.jpeg</t>
+          <t>no_go_stimuli\spider_22.jpg</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>space</t>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -3252,11 +3252,11 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>affective_go_stimuli\puppy_7.jpg</t>
+          <t>go_stimuli\puppy_26.jpeg</t>
         </is>
       </c>
       <c r="D3" t="n">
@@ -3273,19 +3273,19 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>6.5</v>
+        <v>5.5</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>affective_no_go_stimuli\spider_2.jpeg</t>
+          <t>go_stimuli\puppy_29.jpg</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>space</t>
         </is>
       </c>
     </row>
@@ -3298,7 +3298,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>affective_no_go_stimuli\spider_24.jpeg</t>
+          <t>no_go_stimuli\spider_3.jpeg</t>
         </is>
       </c>
       <c r="D5" t="n">
@@ -3315,19 +3315,19 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>affective_no_go_stimuli\spider_21.jpg</t>
+          <t>go_stimuli\puppy_1.jpg</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>space</t>
         </is>
       </c>
     </row>
@@ -3340,15 +3340,15 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>affective_go_stimuli\puppy_20.jpeg</t>
+          <t>no_go_stimuli\spider_27.jpeg</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>space</t>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -3361,7 +3361,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>affective_go_stimuli\puppy_21.jpeg</t>
+          <t>go_stimuli\puppy_28.jpg</t>
         </is>
       </c>
       <c r="D8" t="n">
@@ -3378,19 +3378,19 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>affective_go_stimuli\puppy_5.jpg</t>
+          <t>no_go_stimuli\spider_10.jpeg</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>space</t>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -3399,11 +3399,11 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>6.5</v>
+        <v>4.5</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>affective_go_stimuli\puppy_28.jpg</t>
+          <t>go_stimuli\puppy_25.jpeg</t>
         </is>
       </c>
       <c r="D10" t="n">
@@ -3420,11 +3420,11 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>6.5</v>
+        <v>4</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>affective_go_stimuli\puppy_13.jpg</t>
+          <t>go_stimuli\puppy_18.jpeg</t>
         </is>
       </c>
       <c r="D11" t="n">
@@ -3441,19 +3441,19 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>affective_go_stimuli\puppy_4.jpg</t>
+          <t>no_go_stimuli\spider_18.jpg</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>space</t>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -3462,19 +3462,19 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>affective_no_go_stimuli\spider_12.jpeg</t>
+          <t>go_stimuli\puppy_19.jpeg</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>space</t>
         </is>
       </c>
     </row>
@@ -3483,11 +3483,11 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>5.5</v>
+        <v>4</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>affective_no_go_stimuli\spider_20.jpg</t>
+          <t>no_go_stimuli\spider_29.jpg</t>
         </is>
       </c>
       <c r="D14" t="n">
@@ -3504,19 +3504,19 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>6.5</v>
+        <v>5.5</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>affective_no_go_stimuli\spider_6.jpeg</t>
+          <t>go_stimuli\puppy_20.jpeg</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>space</t>
         </is>
       </c>
     </row>
@@ -3525,11 +3525,11 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>4.5</v>
+        <v>6</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>affective_no_go_stimuli\spider_1.jpeg</t>
+          <t>no_go_stimuli\spider_1.jpeg</t>
         </is>
       </c>
       <c r="D16" t="n">
@@ -3546,19 +3546,19 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>6.5</v>
+        <v>5.5</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>affective_go_stimuli\puppy_24.jpeg</t>
+          <t>no_go_stimuli\spider_30.jpg</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>space</t>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -3567,11 +3567,11 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>5</v>
+        <v>6.5</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>affective_no_go_stimuli\spider_8.jpeg</t>
+          <t>no_go_stimuli\spider_13.jpeg</t>
         </is>
       </c>
       <c r="D18" t="n">
@@ -3588,11 +3588,11 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>affective_go_stimuli\puppy_26.jpeg</t>
+          <t>go_stimuli\puppy_4.jpg</t>
         </is>
       </c>
       <c r="D19" t="n">
@@ -3609,11 +3609,11 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>affective_no_go_stimuli\spider_11.jpeg</t>
+          <t>no_go_stimuli\spider_20.jpg</t>
         </is>
       </c>
       <c r="D20" t="n">
@@ -3630,19 +3630,19 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>affective_no_go_stimuli\spider_19.jpg</t>
+          <t>go_stimuli\puppy_10.jpg</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>space</t>
         </is>
       </c>
     </row>
@@ -3702,10 +3702,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.05</v>
+        <v>0.017</v>
       </c>
       <c r="C2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -3714,11 +3714,11 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -3727,7 +3727,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0.029</v>
+        <v>0.017</v>
       </c>
       <c r="C3" t="n">
         <v>2</v>
@@ -3739,11 +3739,11 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -3752,10 +3752,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>0.05</v>
+        <v>0.017</v>
       </c>
       <c r="C4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -3764,11 +3764,11 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -3780,7 +3780,7 @@
         <v>0.017</v>
       </c>
       <c r="C5" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -3789,11 +3789,11 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -3802,7 +3802,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>0.017</v>
+        <v>0.05</v>
       </c>
       <c r="C6" t="n">
         <v>2</v>
@@ -3827,7 +3827,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>0.029</v>
+        <v>0.05</v>
       </c>
       <c r="C7" t="n">
         <v>2</v>
@@ -3839,11 +3839,11 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -3852,7 +3852,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>0.05</v>
+        <v>0.017</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
@@ -3877,10 +3877,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>0.017</v>
+        <v>0.05</v>
       </c>
       <c r="C9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
@@ -3905,7 +3905,7 @@
         <v>0.05</v>
       </c>
       <c r="C10" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -3927,10 +3927,10 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>0.05</v>
+        <v>0.029</v>
       </c>
       <c r="C11" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -3952,10 +3952,10 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>0.05</v>
+        <v>0.017</v>
       </c>
       <c r="C12" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
@@ -3964,11 +3964,11 @@
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -3977,10 +3977,10 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>0.05</v>
+        <v>0.029</v>
       </c>
       <c r="C13" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -4002,10 +4002,10 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>0.029</v>
+        <v>0.017</v>
       </c>
       <c r="C14" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -4027,10 +4027,10 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>0.017</v>
+        <v>0.029</v>
       </c>
       <c r="C15" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
@@ -4039,11 +4039,11 @@
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -4055,7 +4055,7 @@
         <v>0.017</v>
       </c>
       <c r="C16" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -4064,11 +4064,11 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -4080,7 +4080,7 @@
         <v>0.029</v>
       </c>
       <c r="C17" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -4102,7 +4102,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>0.05</v>
+        <v>0.029</v>
       </c>
       <c r="C18" t="n">
         <v>2</v>
@@ -4127,7 +4127,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>0.029</v>
+        <v>0.05</v>
       </c>
       <c r="C19" t="n">
         <v>2</v>
@@ -4152,7 +4152,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>0.05</v>
+        <v>0.017</v>
       </c>
       <c r="C20" t="n">
         <v>1</v>
@@ -4177,10 +4177,10 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>0.05</v>
+        <v>0.017</v>
       </c>
       <c r="C21" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
@@ -4205,7 +4205,7 @@
         <v>0.05</v>
       </c>
       <c r="C22" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -4230,7 +4230,7 @@
         <v>0.029</v>
       </c>
       <c r="C23" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
@@ -4239,11 +4239,11 @@
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -4252,7 +4252,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>0.029</v>
+        <v>0.05</v>
       </c>
       <c r="C24" t="n">
         <v>1</v>
@@ -4264,11 +4264,11 @@
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -4277,10 +4277,10 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>0.029</v>
+        <v>0.017</v>
       </c>
       <c r="C25" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -4289,11 +4289,11 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -4302,10 +4302,10 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>0.029</v>
+        <v>0.017</v>
       </c>
       <c r="C26" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -4314,11 +4314,11 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -4327,10 +4327,10 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>0.029</v>
+        <v>0.017</v>
       </c>
       <c r="C27" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D27" t="n">
         <v>0</v>
@@ -4339,11 +4339,11 @@
         <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -4355,7 +4355,7 @@
         <v>0.05</v>
       </c>
       <c r="C28" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -4377,10 +4377,10 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>0.05</v>
+        <v>0.017</v>
       </c>
       <c r="C29" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
@@ -4405,7 +4405,7 @@
         <v>0.017</v>
       </c>
       <c r="C30" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D30" t="n">
         <v>0</v>
@@ -4414,11 +4414,11 @@
         <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -4427,10 +4427,10 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>0.017</v>
+        <v>0.05</v>
       </c>
       <c r="C31" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -4439,11 +4439,11 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -4503,10 +4503,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.029</v>
+        <v>0.017</v>
       </c>
       <c r="C2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -4531,7 +4531,7 @@
         <v>0.029</v>
       </c>
       <c r="C3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -4553,7 +4553,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>0.029</v>
+        <v>0.05</v>
       </c>
       <c r="C4" t="n">
         <v>2</v>
@@ -4578,10 +4578,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>0.029</v>
+        <v>0.017</v>
       </c>
       <c r="C5" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -4590,11 +4590,11 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -4603,7 +4603,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>0.029</v>
+        <v>0.05</v>
       </c>
       <c r="C6" t="n">
         <v>3</v>
@@ -4615,11 +4615,11 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -4628,10 +4628,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>0.029</v>
+        <v>0.05</v>
       </c>
       <c r="C7" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -4640,11 +4640,11 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -4653,10 +4653,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>0.029</v>
+        <v>0.017</v>
       </c>
       <c r="C8" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -4665,11 +4665,11 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -4703,7 +4703,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>0.029</v>
+        <v>0.05</v>
       </c>
       <c r="C10" t="n">
         <v>1</v>
@@ -4715,11 +4715,11 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -4753,7 +4753,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>0.05</v>
+        <v>0.029</v>
       </c>
       <c r="C12" t="n">
         <v>3</v>
@@ -4765,11 +4765,11 @@
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -4778,10 +4778,10 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>0.029</v>
+        <v>0.017</v>
       </c>
       <c r="C13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -4803,10 +4803,10 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>0.029</v>
+        <v>0.05</v>
       </c>
       <c r="C14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -4828,7 +4828,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>0.017</v>
+        <v>0.029</v>
       </c>
       <c r="C15" t="n">
         <v>2</v>
@@ -4840,11 +4840,11 @@
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -4853,10 +4853,10 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>0.017</v>
+        <v>0.029</v>
       </c>
       <c r="C16" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -4878,7 +4878,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>0.017</v>
+        <v>0.05</v>
       </c>
       <c r="C17" t="n">
         <v>2</v>
@@ -4890,11 +4890,11 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -4903,7 +4903,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>0.029</v>
+        <v>0.017</v>
       </c>
       <c r="C18" t="n">
         <v>1</v>
@@ -4928,10 +4928,10 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>0.017</v>
+        <v>0.05</v>
       </c>
       <c r="C19" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -4940,11 +4940,11 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -4956,7 +4956,7 @@
         <v>0.017</v>
       </c>
       <c r="C20" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -4978,10 +4978,10 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>0.017</v>
+        <v>0.05</v>
       </c>
       <c r="C21" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
@@ -5006,7 +5006,7 @@
         <v>0.017</v>
       </c>
       <c r="C22" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -5015,11 +5015,11 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -5028,7 +5028,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>0.017</v>
+        <v>0.05</v>
       </c>
       <c r="C23" t="n">
         <v>3</v>
@@ -5040,11 +5040,11 @@
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -5053,10 +5053,10 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>0.05</v>
+        <v>0.017</v>
       </c>
       <c r="C24" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D24" t="n">
         <v>0</v>
@@ -5078,7 +5078,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>0.05</v>
+        <v>0.017</v>
       </c>
       <c r="C25" t="n">
         <v>2</v>
@@ -5090,11 +5090,11 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -5103,10 +5103,10 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>0.05</v>
+        <v>0.029</v>
       </c>
       <c r="C26" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -5131,7 +5131,7 @@
         <v>0.05</v>
       </c>
       <c r="C27" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D27" t="n">
         <v>0</v>
@@ -5140,11 +5140,11 @@
         <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -5153,10 +5153,10 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>0.05</v>
+        <v>0.017</v>
       </c>
       <c r="C28" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -5190,11 +5190,11 @@
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -5203,10 +5203,10 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>0.017</v>
+        <v>0.029</v>
       </c>
       <c r="C30" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D30" t="n">
         <v>0</v>
@@ -5215,11 +5215,11 @@
         <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -5228,10 +5228,10 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>0.05</v>
+        <v>0.029</v>
       </c>
       <c r="C31" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -5304,23 +5304,23 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.029</v>
+        <v>0.05</v>
       </c>
       <c r="C2" t="n">
         <v>2</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -5329,7 +5329,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0.029</v>
+        <v>0.05</v>
       </c>
       <c r="C3" t="n">
         <v>2</v>
@@ -5354,23 +5354,23 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>0.05</v>
+        <v>0.017</v>
       </c>
       <c r="C4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D4" t="n">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -5382,13 +5382,13 @@
         <v>0.017</v>
       </c>
       <c r="C5" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D5" t="n">
         <v>-0.25</v>
       </c>
       <c r="E5" t="n">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -5404,16 +5404,16 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>0.05</v>
+        <v>0.029</v>
       </c>
       <c r="C6" t="n">
         <v>2</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="F6" t="n">
         <v>1</v>
@@ -5429,16 +5429,16 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>0.029</v>
+        <v>0.017</v>
       </c>
       <c r="C7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D7" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>1</v>
@@ -5457,20 +5457,20 @@
         <v>0.05</v>
       </c>
       <c r="C8" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D8" t="n">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="E8" t="n">
         <v>0.25</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -5485,10 +5485,10 @@
         <v>2</v>
       </c>
       <c r="D9" t="n">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
@@ -5504,23 +5504,23 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>0.017</v>
+        <v>0.029</v>
       </c>
       <c r="C10" t="n">
         <v>1</v>
       </c>
       <c r="D10" t="n">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="F10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -5535,17 +5535,17 @@
         <v>2</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -5554,7 +5554,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>0.029</v>
+        <v>0.05</v>
       </c>
       <c r="C12" t="n">
         <v>2</v>
@@ -5579,23 +5579,23 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>0.05</v>
+        <v>0.029</v>
       </c>
       <c r="C13" t="n">
         <v>1</v>
       </c>
       <c r="D13" t="n">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="E13" t="n">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="F13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -5604,16 +5604,16 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>0.017</v>
+        <v>0.029</v>
       </c>
       <c r="C14" t="n">
         <v>1</v>
       </c>
       <c r="D14" t="n">
+        <v>-0.25</v>
+      </c>
+      <c r="E14" t="n">
         <v>0.25</v>
-      </c>
-      <c r="E14" t="n">
-        <v>-0.25</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -5629,23 +5629,23 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>0.029</v>
+        <v>0.017</v>
       </c>
       <c r="C15" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="F15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -5654,16 +5654,16 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>0.029</v>
+        <v>0.017</v>
       </c>
       <c r="C16" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D16" t="n">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>1</v>
@@ -5679,23 +5679,23 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>0.05</v>
+        <v>0.029</v>
       </c>
       <c r="C17" t="n">
         <v>1</v>
       </c>
       <c r="D17" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -5707,13 +5707,13 @@
         <v>0.05</v>
       </c>
       <c r="C18" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D18" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
         <v>1</v>
@@ -5732,13 +5732,13 @@
         <v>0.017</v>
       </c>
       <c r="C19" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D19" t="n">
         <v>-0.25</v>
       </c>
       <c r="E19" t="n">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -5754,7 +5754,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>0.017</v>
+        <v>0.05</v>
       </c>
       <c r="C20" t="n">
         <v>3</v>
@@ -5779,16 +5779,16 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>0.029</v>
+        <v>0.017</v>
       </c>
       <c r="C21" t="n">
         <v>1</v>
       </c>
       <c r="D21" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
         <v>1</v>
@@ -5810,7 +5810,7 @@
         <v>1</v>
       </c>
       <c r="D22" t="n">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="E22" t="n">
         <v>-0.25</v>
@@ -5832,13 +5832,13 @@
         <v>0.017</v>
       </c>
       <c r="C23" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D23" t="n">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="E23" t="n">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
@@ -5860,10 +5860,10 @@
         <v>2</v>
       </c>
       <c r="D24" t="n">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="E24" t="n">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="F24" t="n">
         <v>0</v>
@@ -5879,16 +5879,16 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>0.05</v>
+        <v>0.017</v>
       </c>
       <c r="C25" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D25" t="n">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -5904,23 +5904,23 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>0.05</v>
+        <v>0.017</v>
       </c>
       <c r="C26" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D26" t="n">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="E26" t="n">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="F26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -5929,10 +5929,10 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>0.029</v>
+        <v>0.017</v>
       </c>
       <c r="C27" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D27" t="n">
         <v>-0.25</v>
@@ -5954,16 +5954,16 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>0.017</v>
+        <v>0.029</v>
       </c>
       <c r="C28" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D28" t="n">
         <v>0.25</v>
       </c>
       <c r="E28" t="n">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -5979,16 +5979,16 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>0.017</v>
+        <v>0.029</v>
       </c>
       <c r="C29" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D29" t="n">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="E29" t="n">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="F29" t="n">
         <v>1</v>
@@ -6010,7 +6010,7 @@
         <v>1</v>
       </c>
       <c r="D30" t="n">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="E30" t="n">
         <v>-0.25</v>
@@ -6032,20 +6032,20 @@
         <v>0.05</v>
       </c>
       <c r="C31" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D31" t="n">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -6105,23 +6105,23 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.017</v>
+        <v>0.029</v>
       </c>
       <c r="C2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D2" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -6130,23 +6130,23 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0.029</v>
+        <v>0.05</v>
       </c>
       <c r="C3" t="n">
         <v>2</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="F3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -6155,23 +6155,23 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>0.017</v>
+        <v>0.05</v>
       </c>
       <c r="C4" t="n">
         <v>2</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -6183,7 +6183,7 @@
         <v>0.017</v>
       </c>
       <c r="C5" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -6192,11 +6192,11 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -6205,23 +6205,23 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>0.05</v>
+        <v>0.029</v>
       </c>
       <c r="C6" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D6" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="E6" t="n">
         <v>-0.25</v>
       </c>
-      <c r="E6" t="n">
-        <v>0.25</v>
-      </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -6230,23 +6230,23 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>0.017</v>
+        <v>0.029</v>
       </c>
       <c r="C7" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D7" t="n">
+        <v>-0.25</v>
+      </c>
+      <c r="E7" t="n">
         <v>0.25</v>
       </c>
-      <c r="E7" t="n">
-        <v>-0.25</v>
-      </c>
       <c r="F7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -6255,13 +6255,13 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>0.029</v>
+        <v>0.017</v>
       </c>
       <c r="C8" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D8" t="n">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="E8" t="n">
         <v>0.25</v>
@@ -6280,23 +6280,23 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>0.017</v>
+        <v>0.029</v>
       </c>
       <c r="C9" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D9" t="n">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="E9" t="n">
         <v>0.25</v>
       </c>
       <c r="F9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -6305,16 +6305,16 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>0.029</v>
+        <v>0.05</v>
       </c>
       <c r="C10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D10" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="E10" t="n">
         <v>-0.25</v>
-      </c>
-      <c r="E10" t="n">
-        <v>0.25</v>
       </c>
       <c r="F10" t="n">
         <v>1</v>
@@ -6330,23 +6330,23 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>0.029</v>
+        <v>0.017</v>
       </c>
       <c r="C11" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D11" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="E11" t="n">
         <v>-0.25</v>
       </c>
-      <c r="E11" t="n">
-        <v>0.25</v>
-      </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -6355,16 +6355,16 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>0.017</v>
+        <v>0.029</v>
       </c>
       <c r="C12" t="n">
         <v>2</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="F12" t="n">
         <v>1</v>
@@ -6383,10 +6383,10 @@
         <v>0.017</v>
       </c>
       <c r="C13" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D13" t="n">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="E13" t="n">
         <v>-0.25</v>
@@ -6408,13 +6408,13 @@
         <v>0.029</v>
       </c>
       <c r="C14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="F14" t="n">
         <v>1</v>
@@ -6430,16 +6430,16 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>0.029</v>
+        <v>0.017</v>
       </c>
       <c r="C15" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D15" t="n">
+        <v>-0.25</v>
+      </c>
+      <c r="E15" t="n">
         <v>0.25</v>
-      </c>
-      <c r="E15" t="n">
-        <v>-0.25</v>
       </c>
       <c r="F15" t="n">
         <v>1</v>
@@ -6455,10 +6455,10 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>0.017</v>
+        <v>0.029</v>
       </c>
       <c r="C16" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -6480,23 +6480,23 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>0.017</v>
+        <v>0.05</v>
       </c>
       <c r="C17" t="n">
         <v>3</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="F17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -6505,16 +6505,16 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>0.017</v>
+        <v>0.029</v>
       </c>
       <c r="C18" t="n">
         <v>3</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="F18" t="n">
         <v>1</v>
@@ -6530,23 +6530,23 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>0.029</v>
+        <v>0.017</v>
       </c>
       <c r="C19" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -6561,17 +6561,17 @@
         <v>3</v>
       </c>
       <c r="D20" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -6583,7 +6583,7 @@
         <v>0.05</v>
       </c>
       <c r="C21" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D21" t="n">
         <v>-0.25</v>
@@ -6605,10 +6605,10 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>0.029</v>
+        <v>0.05</v>
       </c>
       <c r="C22" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D22" t="n">
         <v>-0.25</v>
@@ -6617,11 +6617,11 @@
         <v>-0.25</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -6630,13 +6630,13 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>0.017</v>
+        <v>0.05</v>
       </c>
       <c r="C23" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D23" t="n">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="E23" t="n">
         <v>-0.25</v>
@@ -6655,23 +6655,23 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>0.017</v>
+        <v>0.029</v>
       </c>
       <c r="C24" t="n">
         <v>3</v>
       </c>
       <c r="D24" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -6683,13 +6683,13 @@
         <v>0.029</v>
       </c>
       <c r="C25" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="F25" t="n">
         <v>1</v>
@@ -6708,13 +6708,13 @@
         <v>0.017</v>
       </c>
       <c r="C26" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D26" t="n">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="E26" t="n">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="F26" t="n">
         <v>1</v>
@@ -6733,7 +6733,7 @@
         <v>0.017</v>
       </c>
       <c r="C27" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D27" t="n">
         <v>0.25</v>
@@ -6742,11 +6742,11 @@
         <v>0.25</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -6755,16 +6755,16 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>0.029</v>
+        <v>0.05</v>
       </c>
       <c r="C28" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="F28" t="n">
         <v>1</v>
@@ -6780,16 +6780,16 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>0.029</v>
+        <v>0.017</v>
       </c>
       <c r="C29" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D29" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
         <v>1</v>
@@ -6805,23 +6805,23 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>0.017</v>
+        <v>0.05</v>
       </c>
       <c r="C30" t="n">
         <v>3</v>
       </c>
       <c r="D30" t="n">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="E30" t="n">
         <v>-0.25</v>
       </c>
       <c r="F30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -6830,16 +6830,16 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>0.05</v>
+        <v>0.029</v>
       </c>
       <c r="C31" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D31" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>1</v>
@@ -6896,11 +6896,11 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>5.5</v>
+        <v>4.5</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>affective_go_stimuli\puppy_3.jpg</t>
+          <t>go_stimuli\puppy_13.jpg</t>
         </is>
       </c>
       <c r="D2" t="n">
@@ -6917,11 +6917,11 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>affective_go_stimuli\puppy_25.jpeg</t>
+          <t>go_stimuli\puppy_23.jpeg</t>
         </is>
       </c>
       <c r="D3" t="n">
@@ -6938,11 +6938,11 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>affective_go_stimuli\puppy_11.jpeg</t>
+          <t>go_stimuli\puppy_2.jpg</t>
         </is>
       </c>
       <c r="D4" t="n">
@@ -6959,11 +6959,11 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>6.5</v>
+        <v>5</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>affective_go_stimuli\puppy_14.jpeg</t>
+          <t>go_stimuli\puppy_14.jpeg</t>
         </is>
       </c>
       <c r="D5" t="n">
@@ -6980,11 +6980,11 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>6</v>
+        <v>4.5</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>affective_go_stimuli\puppy_16.jpeg</t>
+          <t>go_stimuli\puppy_10.jpg</t>
         </is>
       </c>
       <c r="D6" t="n">
@@ -7001,11 +7001,11 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>affective_go_stimuli\puppy_23.jpeg</t>
+          <t>go_stimuli\puppy_24.jpeg</t>
         </is>
       </c>
       <c r="D7" t="n">
@@ -7026,7 +7026,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>affective_go_stimuli\puppy_26.jpeg</t>
+          <t>go_stimuli\puppy_18.jpeg</t>
         </is>
       </c>
       <c r="D8" t="n">
@@ -7043,11 +7043,11 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>5.5</v>
+        <v>4</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>affective_go_stimuli\puppy_1.jpg</t>
+          <t>go_stimuli\puppy_30.jpg</t>
         </is>
       </c>
       <c r="D9" t="n">
@@ -7064,11 +7064,11 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>affective_go_stimuli\puppy_8.jpg</t>
+          <t>go_stimuli\puppy_9.jpg</t>
         </is>
       </c>
       <c r="D10" t="n">
@@ -7085,11 +7085,11 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>affective_go_stimuli\puppy_10.jpg</t>
+          <t>go_stimuli\puppy_4.jpg</t>
         </is>
       </c>
       <c r="D11" t="n">
@@ -7106,11 +7106,11 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>affective_go_stimuli\puppy_24.jpeg</t>
+          <t>go_stimuli\puppy_11.jpeg</t>
         </is>
       </c>
       <c r="D12" t="n">
@@ -7127,11 +7127,11 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>affective_go_stimuli\puppy_30.jpg</t>
+          <t>go_stimuli\puppy_19.jpeg</t>
         </is>
       </c>
       <c r="D13" t="n">
@@ -7152,7 +7152,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>affective_go_stimuli\puppy_4.jpg</t>
+          <t>go_stimuli\puppy_1.jpg</t>
         </is>
       </c>
       <c r="D14" t="n">
@@ -7169,11 +7169,11 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>affective_go_stimuli\puppy_28.jpg</t>
+          <t>go_stimuli\puppy_12.jpeg</t>
         </is>
       </c>
       <c r="D15" t="n">
@@ -7190,11 +7190,11 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>affective_go_stimuli\puppy_12.jpeg</t>
+          <t>go_stimuli\puppy_8.jpg</t>
         </is>
       </c>
       <c r="D16" t="n">
@@ -7215,7 +7215,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>affective_go_stimuli\puppy_15.jpeg</t>
+          <t>go_stimuli\puppy_29.jpg</t>
         </is>
       </c>
       <c r="D17" t="n">
@@ -7232,11 +7232,11 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>6.5</v>
+        <v>4.5</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>affective_go_stimuli\puppy_18.jpeg</t>
+          <t>go_stimuli\puppy_17.jpeg</t>
         </is>
       </c>
       <c r="D18" t="n">
@@ -7253,11 +7253,11 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>6.5</v>
+        <v>4</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>affective_go_stimuli\puppy_19.jpeg</t>
+          <t>go_stimuli\puppy_6.jpg</t>
         </is>
       </c>
       <c r="D19" t="n">
@@ -7278,7 +7278,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>affective_go_stimuli\puppy_6.jpg</t>
+          <t>go_stimuli\puppy_28.jpg</t>
         </is>
       </c>
       <c r="D20" t="n">
@@ -7295,11 +7295,11 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>4.5</v>
+        <v>5.5</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>affective_go_stimuli\puppy_2.jpg</t>
+          <t>go_stimuli\puppy_22.jpeg</t>
         </is>
       </c>
       <c r="D21" t="n">
@@ -7361,7 +7361,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>affective_go_stimuli\puppy_30.jpg</t>
+          <t>go_stimuli\puppy_10.jpg</t>
         </is>
       </c>
       <c r="D2" t="n">
@@ -7378,19 +7378,19 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>affective_no_go_stimuli\spider_8.jpeg</t>
+          <t>go_stimuli\puppy_20.jpeg</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>space</t>
         </is>
       </c>
     </row>
@@ -7399,19 +7399,19 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>4.5</v>
+        <v>6</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>affective_go_stimuli\puppy_16.jpeg</t>
+          <t>no_go_stimuli\spider_15.jpeg</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>space</t>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -7420,19 +7420,19 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>affective_go_stimuli\puppy_2.jpg</t>
+          <t>no_go_stimuli\spider_18.jpg</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>space</t>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -7441,11 +7441,11 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>4.5</v>
+        <v>6.5</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>affective_no_go_stimuli\spider_2.jpeg</t>
+          <t>no_go_stimuli\spider_8.jpeg</t>
         </is>
       </c>
       <c r="D6" t="n">
@@ -7466,15 +7466,15 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>affective_go_stimuli\puppy_22.jpeg</t>
+          <t>no_go_stimuli\spider_21.jpg</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>space</t>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -7483,11 +7483,11 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>4.5</v>
+        <v>5.5</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>affective_no_go_stimuli\spider_3.jpeg</t>
+          <t>no_go_stimuli\spider_26.jpg</t>
         </is>
       </c>
       <c r="D8" t="n">
@@ -7504,11 +7504,11 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>affective_go_stimuli\puppy_8.jpg</t>
+          <t>go_stimuli\puppy_23.jpeg</t>
         </is>
       </c>
       <c r="D9" t="n">
@@ -7525,11 +7525,11 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>4.5</v>
+        <v>6.5</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>affective_no_go_stimuli\spider_27.jpeg</t>
+          <t>no_go_stimuli\spider_7.jpeg</t>
         </is>
       </c>
       <c r="D10" t="n">
@@ -7546,11 +7546,11 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>6.5</v>
+        <v>5</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>affective_go_stimuli\puppy_28.jpg</t>
+          <t>go_stimuli\puppy_7.jpg</t>
         </is>
       </c>
       <c r="D11" t="n">
@@ -7567,11 +7567,11 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>affective_no_go_stimuli\spider_17.jpeg</t>
+          <t>no_go_stimuli\spider_10.jpeg</t>
         </is>
       </c>
       <c r="D12" t="n">
@@ -7588,11 +7588,11 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>affective_go_stimuli\puppy_18.jpeg</t>
+          <t>go_stimuli\puppy_13.jpg</t>
         </is>
       </c>
       <c r="D13" t="n">
@@ -7609,19 +7609,19 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>affective_go_stimuli\puppy_6.jpg</t>
+          <t>no_go_stimuli\spider_2.jpeg</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>space</t>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -7630,19 +7630,19 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>affective_no_go_stimuli\spider_23.jpg</t>
+          <t>go_stimuli\puppy_12.jpeg</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>space</t>
         </is>
       </c>
     </row>
@@ -7651,11 +7651,11 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>affective_go_stimuli\puppy_24.jpeg</t>
+          <t>go_stimuli\puppy_19.jpeg</t>
         </is>
       </c>
       <c r="D16" t="n">
@@ -7676,7 +7676,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>affective_go_stimuli\puppy_3.jpg</t>
+          <t>go_stimuli\puppy_28.jpg</t>
         </is>
       </c>
       <c r="D17" t="n">
@@ -7693,11 +7693,11 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>6</v>
+        <v>4.5</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>affective_no_go_stimuli\spider_16.jpeg</t>
+          <t>no_go_stimuli\spider_17.jpeg</t>
         </is>
       </c>
       <c r="D18" t="n">
@@ -7714,19 +7714,19 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>affective_no_go_stimuli\spider_19.jpg</t>
+          <t>go_stimuli\puppy_30.jpg</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>space</t>
         </is>
       </c>
     </row>
@@ -7735,19 +7735,19 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>affective_no_go_stimuli\spider_25.jpg</t>
+          <t>go_stimuli\puppy_24.jpeg</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>space</t>
         </is>
       </c>
     </row>
@@ -7756,11 +7756,11 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>4</v>
+        <v>5.5</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>affective_no_go_stimuli\spider_22.jpg</t>
+          <t>no_go_stimuli\spider_3.jpeg</t>
         </is>
       </c>
       <c r="D21" t="n">
@@ -7818,17 +7818,17 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -7837,10 +7837,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -7856,10 +7856,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C4" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -7875,10 +7875,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>1</v>
@@ -7894,10 +7894,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
         <v>1</v>
@@ -7913,10 +7913,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -7932,17 +7932,17 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -7954,14 +7954,14 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -7970,17 +7970,17 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -7989,10 +7989,10 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>1</v>
@@ -8008,17 +8008,17 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C12" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -8027,10 +8027,10 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C13" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -8046,10 +8046,10 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>1</v>
@@ -8065,17 +8065,17 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="C15" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -8087,14 +8087,14 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -8103,10 +8103,10 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C17" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -8122,10 +8122,10 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
         <v>0</v>
@@ -8141,10 +8141,10 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C19" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -8160,17 +8160,17 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C20" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -8179,10 +8179,10 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C21" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
@@ -8239,17 +8239,17 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -8258,10 +8258,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -8277,17 +8277,17 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -8296,10 +8296,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D5" t="n">
         <v>1</v>
@@ -8315,17 +8315,17 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -8337,14 +8337,14 @@
         <v>2</v>
       </c>
       <c r="C7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -8356,14 +8356,14 @@
         <v>1</v>
       </c>
       <c r="C8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -8372,17 +8372,17 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -8391,17 +8391,17 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -8410,17 +8410,17 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C11" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -8429,10 +8429,10 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C12" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
@@ -8448,17 +8448,17 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -8467,10 +8467,10 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -8486,10 +8486,10 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C15" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D15" t="n">
         <v>1</v>
@@ -8505,10 +8505,10 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C16" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -8524,10 +8524,10 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C17" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -8543,17 +8543,17 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C18" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -8562,17 +8562,17 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C19" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -8581,17 +8581,17 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C20" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -8600,10 +8600,10 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C21" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
@@ -8660,10 +8660,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C2" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D2" t="n">
         <v>1</v>
@@ -8679,17 +8679,17 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C3" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -8698,10 +8698,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C4" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D4" t="n">
         <v>1</v>
@@ -8717,10 +8717,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C5" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D5" t="n">
         <v>1</v>
@@ -8736,17 +8736,17 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C6" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -8755,10 +8755,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -8774,10 +8774,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C8" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -8796,14 +8796,14 @@
         <v>5</v>
       </c>
       <c r="C9" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -8812,17 +8812,17 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C10" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -8831,10 +8831,10 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -8850,10 +8850,10 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
@@ -8869,17 +8869,17 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -8888,10 +8888,10 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C14" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D14" t="n">
         <v>1</v>
@@ -8907,10 +8907,10 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C15" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
@@ -8926,17 +8926,17 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C16" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -8945,10 +8945,10 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C17" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -8964,10 +8964,10 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C18" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D18" t="n">
         <v>0</v>
@@ -8983,17 +8983,17 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C19" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -9002,10 +9002,10 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C20" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -9021,17 +9021,17 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C21" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -9076,7 +9076,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -9092,14 +9092,14 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -9108,14 +9108,14 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -9124,7 +9124,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -9140,7 +9140,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -9156,14 +9156,14 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -9172,7 +9172,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -9188,7 +9188,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
@@ -9204,7 +9204,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>1</v>
@@ -9220,7 +9220,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -9236,7 +9236,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C12" t="n">
         <v>1</v>
@@ -9252,7 +9252,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C13" t="n">
         <v>1</v>
@@ -9268,14 +9268,14 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -9287,11 +9287,11 @@
         <v>6</v>
       </c>
       <c r="C15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -9316,14 +9316,14 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -9335,11 +9335,11 @@
         <v>4</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -9348,14 +9348,14 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -9364,14 +9364,14 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -9380,7 +9380,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
@@ -9432,7 +9432,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -9448,14 +9448,14 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -9464,7 +9464,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -9480,7 +9480,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -9512,14 +9512,14 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -9531,11 +9531,11 @@
         <v>1</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -9560,14 +9560,14 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -9576,7 +9576,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -9592,7 +9592,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
@@ -9608,14 +9608,14 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -9627,11 +9627,11 @@
         <v>6</v>
       </c>
       <c r="C14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -9640,14 +9640,14 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -9656,7 +9656,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C16" t="n">
         <v>1</v>
@@ -9672,7 +9672,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C17" t="n">
         <v>1</v>
@@ -9688,7 +9688,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
@@ -9704,14 +9704,14 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -9720,14 +9720,14 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -9736,7 +9736,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C21" t="n">
         <v>1</v>

--- a/participants/participant_21/participant_21_conditions.xlsx
+++ b/participants/participant_21/participant_21_conditions.xlsx
@@ -7,29 +7,29 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="go_stims-16502911884996686" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="GNG_stims-16502911885196724" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="go_stims-16502911885216691" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="GNG_stims-16502911885356708" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="ZB-match_0-16502911886716685" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="ZB-match_2-16502911887646728" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="ZB-match_6-16502911891436703" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="OB-16502911893096697" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="OB-1650291189652669" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet name="OB-1650291190665151" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet name="TB-16502911909765978" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet name="TB-1650291191086608" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet name="TB-16502911914116008" sheetId="13" state="visible" r:id="rId13"/>
-    <sheet name="ZM_stims-16502911914296005" sheetId="14" state="visible" r:id="rId14"/>
-    <sheet name="MM_stims-1650291191440598" sheetId="15" state="visible" r:id="rId15"/>
-    <sheet name="ZM_stims-16502911914425974" sheetId="16" state="visible" r:id="rId16"/>
-    <sheet name="MM_stims-16502911914715955" sheetId="17" state="visible" r:id="rId17"/>
-    <sheet name="ZM_stims-16502911914736" sheetId="18" state="visible" r:id="rId18"/>
-    <sheet name="MM_stims-16502911914876156" sheetId="19" state="visible" r:id="rId19"/>
-    <sheet name="SAT_stims-1650291191494636" sheetId="20" state="visible" r:id="rId20"/>
-    <sheet name="SAT_stims-16502911915216074" sheetId="21" state="visible" r:id="rId21"/>
-    <sheet name="vSAT_stims-1650291191537609" sheetId="22" state="visible" r:id="rId22"/>
-    <sheet name="vSAT_stims-16502911915675972" sheetId="23" state="visible" r:id="rId23"/>
+    <sheet name="go_stims-16504778249868786" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="GNG_stims-16504778250059116" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="go_stims-1650477825006879" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="GNG_stims-16504778250219145" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="ZB-match_9-16504778251038754" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="ZB-match_4-16504778253148754" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="ZB-match_5-1650477825443883" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="OB-1650477825883911" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="OB-16504778259638784" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="OB-1650477826121879" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet name="TB-16504778267069166" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet name="TB-16504778270649128" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet name="TB-16504778280139093" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet name="ZM_stims-16504778280478787" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet name="MM_stims-16504778280599139" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet name="ZM_stims-1650477828060881" sheetId="16" state="visible" r:id="rId16"/>
+    <sheet name="MM_stims-16504778280759106" sheetId="17" state="visible" r:id="rId17"/>
+    <sheet name="ZM_stims-165047782807688" sheetId="18" state="visible" r:id="rId18"/>
+    <sheet name="MM_stims-1650477828091911" sheetId="19" state="visible" r:id="rId19"/>
+    <sheet name="SAT_stims-16504778280958784" sheetId="20" state="visible" r:id="rId20"/>
+    <sheet name="SAT_stims-16504778281079185" sheetId="21" state="visible" r:id="rId21"/>
+    <sheet name="vSAT_stims-16504778281239138" sheetId="22" state="visible" r:id="rId22"/>
+    <sheet name="vSAT_stims-16504778281399105" sheetId="23" state="visible" r:id="rId23"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -482,11 +482,11 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_25.jpeg</t>
+          <t>go_stimuli\puppy_3.jpg</t>
         </is>
       </c>
       <c r="D2" t="n">
@@ -503,11 +503,11 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_23.jpeg</t>
+          <t>go_stimuli\puppy_7.jpg</t>
         </is>
       </c>
       <c r="D3" t="n">
@@ -524,11 +524,11 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_16.jpeg</t>
+          <t>go_stimuli\puppy_23.jpeg</t>
         </is>
       </c>
       <c r="D4" t="n">
@@ -545,11 +545,11 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_12.jpeg</t>
+          <t>go_stimuli\puppy_2.jpg</t>
         </is>
       </c>
       <c r="D5" t="n">
@@ -566,11 +566,11 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_18.jpeg</t>
+          <t>go_stimuli\puppy_27.jpg</t>
         </is>
       </c>
       <c r="D6" t="n">
@@ -591,7 +591,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_17.jpeg</t>
+          <t>go_stimuli\puppy_24.jpeg</t>
         </is>
       </c>
       <c r="D7" t="n">
@@ -608,11 +608,11 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>4.5</v>
+        <v>5.5</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_22.jpeg</t>
+          <t>go_stimuli\puppy_9.jpg</t>
         </is>
       </c>
       <c r="D8" t="n">
@@ -629,11 +629,11 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_28.jpg</t>
+          <t>go_stimuli\puppy_29.jpg</t>
         </is>
       </c>
       <c r="D9" t="n">
@@ -650,11 +650,11 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_5.jpg</t>
+          <t>go_stimuli\puppy_8.jpg</t>
         </is>
       </c>
       <c r="D10" t="n">
@@ -671,11 +671,11 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>4</v>
+        <v>5.5</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_3.jpg</t>
+          <t>go_stimuli\puppy_30.jpg</t>
         </is>
       </c>
       <c r="D11" t="n">
@@ -692,11 +692,11 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_15.jpeg</t>
+          <t>go_stimuli\puppy_28.jpg</t>
         </is>
       </c>
       <c r="D12" t="n">
@@ -713,11 +713,11 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_30.jpg</t>
+          <t>go_stimuli\puppy_1.jpg</t>
         </is>
       </c>
       <c r="D13" t="n">
@@ -734,11 +734,11 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_10.jpg</t>
+          <t>go_stimuli\puppy_6.jpg</t>
         </is>
       </c>
       <c r="D14" t="n">
@@ -755,11 +755,11 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>4</v>
+        <v>6.5</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_8.jpg</t>
+          <t>go_stimuli\puppy_10.jpg</t>
         </is>
       </c>
       <c r="D15" t="n">
@@ -776,11 +776,11 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>4.5</v>
+        <v>5.5</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_2.jpg</t>
+          <t>go_stimuli\puppy_25.jpeg</t>
         </is>
       </c>
       <c r="D16" t="n">
@@ -801,7 +801,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_19.jpeg</t>
+          <t>go_stimuli\puppy_21.jpeg</t>
         </is>
       </c>
       <c r="D17" t="n">
@@ -818,11 +818,11 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_9.jpg</t>
+          <t>go_stimuli\puppy_13.jpg</t>
         </is>
       </c>
       <c r="D18" t="n">
@@ -839,11 +839,11 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>6.5</v>
+        <v>4.5</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_7.jpg</t>
+          <t>go_stimuli\puppy_20.jpeg</t>
         </is>
       </c>
       <c r="D19" t="n">
@@ -860,11 +860,11 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>4</v>
+        <v>5.5</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_20.jpeg</t>
+          <t>go_stimuli\puppy_26.jpeg</t>
         </is>
       </c>
       <c r="D20" t="n">
@@ -881,11 +881,11 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>4.5</v>
+        <v>5.5</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_21.jpeg</t>
+          <t>go_stimuli\puppy_19.jpeg</t>
         </is>
       </c>
       <c r="D21" t="n">
@@ -954,14 +954,14 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -970,14 +970,14 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -986,14 +986,14 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -1002,7 +1002,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -1034,14 +1034,14 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -1050,7 +1050,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
@@ -1066,7 +1066,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C10" t="n">
         <v>1</v>
@@ -1082,7 +1082,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C11" t="n">
         <v>1</v>
@@ -1098,14 +1098,14 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -1114,14 +1114,14 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -1130,7 +1130,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -1146,7 +1146,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
@@ -1162,14 +1162,14 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -1178,7 +1178,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -1194,7 +1194,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C18" t="n">
         <v>1</v>
@@ -1210,7 +1210,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -1226,14 +1226,14 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -1242,7 +1242,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
@@ -1294,7 +1294,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -1329,11 +1329,11 @@
         <v>8</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -1358,7 +1358,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -1374,7 +1374,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -1390,7 +1390,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -1406,14 +1406,14 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -1422,14 +1422,14 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -1438,7 +1438,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -1454,14 +1454,14 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -1470,7 +1470,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="C13" t="n">
         <v>1</v>
@@ -1489,11 +1489,11 @@
         <v>5</v>
       </c>
       <c r="C14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -1502,7 +1502,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
@@ -1518,14 +1518,14 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -1534,7 +1534,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C17" t="n">
         <v>1</v>
@@ -1550,7 +1550,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
@@ -1566,14 +1566,14 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -1582,14 +1582,14 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -1598,7 +1598,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C21" t="n">
         <v>1</v>
@@ -1650,7 +1650,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -1666,7 +1666,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -1682,7 +1682,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -1698,14 +1698,14 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -1714,14 +1714,14 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -1730,14 +1730,14 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -1762,14 +1762,14 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -1794,14 +1794,14 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -1810,7 +1810,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
@@ -1826,14 +1826,14 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -1842,7 +1842,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -1858,14 +1858,14 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -1874,14 +1874,14 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -1890,14 +1890,14 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -1906,14 +1906,14 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -1922,14 +1922,14 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -1938,7 +1938,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C20" t="n">
         <v>1</v>
@@ -1954,14 +1954,14 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -2006,7 +2006,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -2022,7 +2022,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -2038,7 +2038,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -2054,7 +2054,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -2086,7 +2086,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -2102,14 +2102,14 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -2118,7 +2118,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C9" t="n">
         <v>1</v>
@@ -2134,7 +2134,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C10" t="n">
         <v>1</v>
@@ -2150,14 +2150,14 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -2166,14 +2166,14 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -2182,14 +2182,14 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -2198,14 +2198,14 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -2214,7 +2214,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
@@ -2230,14 +2230,14 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -2246,14 +2246,14 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -2262,14 +2262,14 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -2278,7 +2278,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -2294,7 +2294,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C20" t="n">
         <v>1</v>
@@ -2313,11 +2313,11 @@
         <v>1</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -2363,7 +2363,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>zero_move_stimuli\zero_move_4.jpg</t>
+          <t>zero_move_stimuli\zero_move_5.jpg</t>
         </is>
       </c>
       <c r="C2" t="n">
@@ -2381,7 +2381,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>zero_move_stimuli\zero_move_3.jpg</t>
+          <t>zero_move_stimuli\zero_move_2.jpg</t>
         </is>
       </c>
       <c r="C3" t="n">
@@ -2399,7 +2399,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>zero_move_stimuli\zero_move_5.jpg</t>
+          <t>zero_move_stimuli\zero_move_4.jpg</t>
         </is>
       </c>
       <c r="C4" t="n">
@@ -2417,7 +2417,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>zero_move_stimuli\zero_move_6.jpg</t>
+          <t>zero_move_stimuli\zero_move_3.jpg</t>
         </is>
       </c>
       <c r="C5" t="n">
@@ -2435,7 +2435,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>zero_move_stimuli\zero_move_2.jpg</t>
+          <t>zero_move_stimuli\zero_move_6.jpg</t>
         </is>
       </c>
       <c r="C6" t="n">
@@ -2507,7 +2507,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>multi_move_stimuli\stim_not_two_move\stim_not_two_move_1.jpg</t>
+          <t>multi_move_stimuli\stim_not_two_move\stim_not_two_move_2.jpg</t>
         </is>
       </c>
       <c r="C2" t="n">
@@ -2525,15 +2525,15 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>multi_move_stimuli\stim_not_two_move\stim_not_two_move_6.jpg</t>
+          <t>multi_move_stimuli\stim_two_move\stim_two_move_2.jpg</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -2543,7 +2543,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>multi_move_stimuli\stim_two_move\stim_two_move_3.jpg</t>
+          <t>multi_move_stimuli\stim_two_move\stim_two_move_6.jpg</t>
         </is>
       </c>
       <c r="C4" t="n">
@@ -2561,7 +2561,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>multi_move_stimuli\stim_not_two_move\stim_not_two_move_3.jpg</t>
+          <t>multi_move_stimuli\stim_not_two_move\stim_not_two_move_6.jpg</t>
         </is>
       </c>
       <c r="C5" t="n">
@@ -2597,15 +2597,15 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>multi_move_stimuli\stim_two_move\stim_two_move_5.jpg</t>
+          <t>multi_move_stimuli\stim_not_two_move\stim_not_two_move_1.jpg</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -2669,7 +2669,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>zero_move_stimuli\zero_move_2.jpg</t>
+          <t>zero_move_stimuli\zero_move_6.jpg</t>
         </is>
       </c>
       <c r="C3" t="n">
@@ -2687,7 +2687,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>zero_move_stimuli\zero_move_6.jpg</t>
+          <t>zero_move_stimuli\zero_move_4.jpg</t>
         </is>
       </c>
       <c r="C4" t="n">
@@ -2723,7 +2723,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>zero_move_stimuli\zero_move_4.jpg</t>
+          <t>zero_move_stimuli\zero_move_3.jpg</t>
         </is>
       </c>
       <c r="C6" t="n">
@@ -2741,7 +2741,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>zero_move_stimuli\zero_move_3.jpg</t>
+          <t>zero_move_stimuli\zero_move_2.jpg</t>
         </is>
       </c>
       <c r="C7" t="n">
@@ -2795,15 +2795,15 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>multi_move_stimuli\stim_not_two_move\stim_not_two_move_3.jpg</t>
+          <t>multi_move_stimuli\stim_two_move\stim_two_move_2.jpg</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -2813,7 +2813,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>multi_move_stimuli\stim_not_two_move\stim_not_two_move_6.jpg</t>
+          <t>multi_move_stimuli\stim_not_two_move\stim_not_two_move_2.jpg</t>
         </is>
       </c>
       <c r="C3" t="n">
@@ -2831,15 +2831,15 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>multi_move_stimuli\stim_two_move\stim_two_move_1.jpg</t>
+          <t>multi_move_stimuli\stim_not_two_move\stim_not_two_move_1.jpg</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -2849,15 +2849,15 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>multi_move_stimuli\stim_two_move\stim_two_move_6.jpg</t>
+          <t>multi_move_stimuli\stim_not_two_move\stim_not_two_move_3.jpg</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -2867,7 +2867,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>multi_move_stimuli\stim_two_move\stim_two_move_3.jpg</t>
+          <t>multi_move_stimuli\stim_two_move\stim_two_move_6.jpg</t>
         </is>
       </c>
       <c r="C6" t="n">
@@ -2885,15 +2885,15 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>multi_move_stimuli\stim_not_two_move\stim_not_two_move_4.jpg</t>
+          <t>multi_move_stimuli\stim_two_move\stim_two_move_3.jpg</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -2957,7 +2957,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>zero_move_stimuli\zero_move_3.jpg</t>
+          <t>zero_move_stimuli\zero_move_1.jpg</t>
         </is>
       </c>
       <c r="C3" t="n">
@@ -2975,7 +2975,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>zero_move_stimuli\zero_move_5.jpg</t>
+          <t>zero_move_stimuli\zero_move_2.jpg</t>
         </is>
       </c>
       <c r="C4" t="n">
@@ -2993,7 +2993,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>zero_move_stimuli\zero_move_2.jpg</t>
+          <t>zero_move_stimuli\zero_move_5.jpg</t>
         </is>
       </c>
       <c r="C5" t="n">
@@ -3029,7 +3029,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>zero_move_stimuli\zero_move_1.jpg</t>
+          <t>zero_move_stimuli\zero_move_3.jpg</t>
         </is>
       </c>
       <c r="C7" t="n">
@@ -3083,7 +3083,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>multi_move_stimuli\stim_not_two_move\stim_not_two_move_2.jpg</t>
+          <t>multi_move_stimuli\stim_not_two_move\stim_not_two_move_6.jpg</t>
         </is>
       </c>
       <c r="C2" t="n">
@@ -3101,15 +3101,15 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>multi_move_stimuli\stim_two_move\stim_two_move_4.jpg</t>
+          <t>multi_move_stimuli\stim_not_two_move\stim_not_two_move_1.jpg</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -3119,7 +3119,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>multi_move_stimuli\stim_two_move\stim_two_move_6.jpg</t>
+          <t>multi_move_stimuli\stim_two_move\stim_two_move_1.jpg</t>
         </is>
       </c>
       <c r="C4" t="n">
@@ -3137,15 +3137,15 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>multi_move_stimuli\stim_not_two_move\stim_not_two_move_6.jpg</t>
+          <t>multi_move_stimuli\stim_two_move\stim_two_move_4.jpg</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -3155,7 +3155,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>multi_move_stimuli\stim_two_move\stim_two_move_5.jpg</t>
+          <t>multi_move_stimuli\stim_two_move\stim_two_move_2.jpg</t>
         </is>
       </c>
       <c r="C6" t="n">
@@ -3173,7 +3173,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>multi_move_stimuli\stim_not_two_move\stim_not_two_move_1.jpg</t>
+          <t>multi_move_stimuli\stim_not_two_move\stim_not_two_move_2.jpg</t>
         </is>
       </c>
       <c r="C7" t="n">
@@ -3231,11 +3231,11 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>4</v>
+        <v>5.5</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>no_go_stimuli\spider_22.jpg</t>
+          <t>no_go_stimuli\spider_5.jpeg</t>
         </is>
       </c>
       <c r="D2" t="n">
@@ -3252,19 +3252,19 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>4</v>
+        <v>5.5</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_26.jpeg</t>
+          <t>no_go_stimuli\spider_12.jpeg</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>space</t>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -3273,19 +3273,19 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_29.jpg</t>
+          <t>no_go_stimuli\spider_16.jpeg</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>space</t>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -3294,7 +3294,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -3315,11 +3315,11 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_1.jpg</t>
+          <t>go_stimuli\puppy_8.jpg</t>
         </is>
       </c>
       <c r="D6" t="n">
@@ -3340,15 +3340,15 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>no_go_stimuli\spider_27.jpeg</t>
+          <t>go_stimuli\puppy_5.jpg</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>space</t>
         </is>
       </c>
     </row>
@@ -3357,19 +3357,19 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_28.jpg</t>
+          <t>no_go_stimuli\spider_4.jpeg</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>space</t>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -3382,7 +3382,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>no_go_stimuli\spider_10.jpeg</t>
+          <t>no_go_stimuli\spider_8.jpeg</t>
         </is>
       </c>
       <c r="D9" t="n">
@@ -3399,19 +3399,19 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_25.jpeg</t>
+          <t>no_go_stimuli\spider_21.jpg</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>space</t>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -3420,11 +3420,11 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_18.jpeg</t>
+          <t>go_stimuli\puppy_28.jpg</t>
         </is>
       </c>
       <c r="D11" t="n">
@@ -3441,11 +3441,11 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>no_go_stimuli\spider_18.jpg</t>
+          <t>no_go_stimuli\spider_28.jpg</t>
         </is>
       </c>
       <c r="D12" t="n">
@@ -3462,11 +3462,11 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_19.jpeg</t>
+          <t>go_stimuli\puppy_9.jpg</t>
         </is>
       </c>
       <c r="D13" t="n">
@@ -3483,19 +3483,19 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>4</v>
+        <v>5.5</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>no_go_stimuli\spider_29.jpg</t>
+          <t>go_stimuli\puppy_12.jpeg</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>space</t>
         </is>
       </c>
     </row>
@@ -3504,11 +3504,11 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>5.5</v>
+        <v>4</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_20.jpeg</t>
+          <t>go_stimuli\puppy_11.jpeg</t>
         </is>
       </c>
       <c r="D15" t="n">
@@ -3525,19 +3525,19 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>no_go_stimuli\spider_1.jpeg</t>
+          <t>go_stimuli\puppy_25.jpeg</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>space</t>
         </is>
       </c>
     </row>
@@ -3546,11 +3546,11 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>5.5</v>
+        <v>4.5</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>no_go_stimuli\spider_30.jpg</t>
+          <t>no_go_stimuli\spider_24.jpeg</t>
         </is>
       </c>
       <c r="D17" t="n">
@@ -3567,19 +3567,19 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>6.5</v>
+        <v>4</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>no_go_stimuli\spider_13.jpeg</t>
+          <t>go_stimuli\puppy_16.jpeg</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>space</t>
         </is>
       </c>
     </row>
@@ -3588,19 +3588,19 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_4.jpg</t>
+          <t>no_go_stimuli\spider_10.jpeg</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>space</t>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -3609,19 +3609,19 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>4</v>
+        <v>6.5</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>no_go_stimuli\spider_20.jpg</t>
+          <t>go_stimuli\puppy_20.jpeg</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>space</t>
         </is>
       </c>
     </row>
@@ -3630,11 +3630,11 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>4.5</v>
+        <v>6</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_10.jpg</t>
+          <t>go_stimuli\puppy_21.jpeg</t>
         </is>
       </c>
       <c r="D21" t="n">
@@ -3705,7 +3705,7 @@
         <v>0.017</v>
       </c>
       <c r="C2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -3727,10 +3727,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0.017</v>
+        <v>0.05</v>
       </c>
       <c r="C3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -3739,11 +3739,11 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -3752,7 +3752,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>0.017</v>
+        <v>0.05</v>
       </c>
       <c r="C4" t="n">
         <v>2</v>
@@ -3777,7 +3777,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>0.017</v>
+        <v>0.05</v>
       </c>
       <c r="C5" t="n">
         <v>3</v>
@@ -3802,10 +3802,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>0.05</v>
+        <v>0.017</v>
       </c>
       <c r="C6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -3814,11 +3814,11 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -3827,10 +3827,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>0.05</v>
+        <v>0.029</v>
       </c>
       <c r="C7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -3852,7 +3852,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>0.017</v>
+        <v>0.05</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
@@ -3864,11 +3864,11 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -3889,11 +3889,11 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -3902,7 +3902,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>0.05</v>
+        <v>0.017</v>
       </c>
       <c r="C10" t="n">
         <v>1</v>
@@ -3930,7 +3930,7 @@
         <v>0.029</v>
       </c>
       <c r="C11" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -3952,10 +3952,10 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>0.017</v>
+        <v>0.029</v>
       </c>
       <c r="C12" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
@@ -3977,10 +3977,10 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>0.029</v>
+        <v>0.017</v>
       </c>
       <c r="C13" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -3989,11 +3989,11 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -4002,10 +4002,10 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>0.017</v>
+        <v>0.029</v>
       </c>
       <c r="C14" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -4030,7 +4030,7 @@
         <v>0.029</v>
       </c>
       <c r="C15" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
@@ -4039,11 +4039,11 @@
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -4052,10 +4052,10 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>0.017</v>
+        <v>0.05</v>
       </c>
       <c r="C16" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -4064,11 +4064,11 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -4077,10 +4077,10 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>0.029</v>
+        <v>0.05</v>
       </c>
       <c r="C17" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -4105,7 +4105,7 @@
         <v>0.029</v>
       </c>
       <c r="C18" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D18" t="n">
         <v>0</v>
@@ -4114,11 +4114,11 @@
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -4127,7 +4127,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>0.05</v>
+        <v>0.017</v>
       </c>
       <c r="C19" t="n">
         <v>2</v>
@@ -4139,11 +4139,11 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -4152,7 +4152,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>0.017</v>
+        <v>0.05</v>
       </c>
       <c r="C20" t="n">
         <v>1</v>
@@ -4202,10 +4202,10 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>0.05</v>
+        <v>0.017</v>
       </c>
       <c r="C22" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -4227,10 +4227,10 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>0.029</v>
+        <v>0.017</v>
       </c>
       <c r="C23" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
@@ -4252,7 +4252,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>0.05</v>
+        <v>0.029</v>
       </c>
       <c r="C24" t="n">
         <v>1</v>
@@ -4277,10 +4277,10 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>0.017</v>
+        <v>0.05</v>
       </c>
       <c r="C25" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -4289,11 +4289,11 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -4305,7 +4305,7 @@
         <v>0.017</v>
       </c>
       <c r="C26" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -4314,11 +4314,11 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -4339,11 +4339,11 @@
         <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -4352,10 +4352,10 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>0.05</v>
+        <v>0.017</v>
       </c>
       <c r="C28" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -4364,11 +4364,11 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -4380,7 +4380,7 @@
         <v>0.017</v>
       </c>
       <c r="C29" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
@@ -4389,11 +4389,11 @@
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -4402,10 +4402,10 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>0.017</v>
+        <v>0.029</v>
       </c>
       <c r="C30" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D30" t="n">
         <v>0</v>
@@ -4427,7 +4427,7 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>0.05</v>
+        <v>0.017</v>
       </c>
       <c r="C31" t="n">
         <v>2</v>
@@ -4439,11 +4439,11 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -4503,10 +4503,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.017</v>
+        <v>0.05</v>
       </c>
       <c r="C2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -4528,10 +4528,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0.029</v>
+        <v>0.017</v>
       </c>
       <c r="C3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -4540,11 +4540,11 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -4553,10 +4553,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>0.05</v>
+        <v>0.017</v>
       </c>
       <c r="C4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -4578,10 +4578,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>0.017</v>
+        <v>0.05</v>
       </c>
       <c r="C5" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -4590,11 +4590,11 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -4603,7 +4603,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>0.05</v>
+        <v>0.029</v>
       </c>
       <c r="C6" t="n">
         <v>3</v>
@@ -4628,7 +4628,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>0.05</v>
+        <v>0.017</v>
       </c>
       <c r="C7" t="n">
         <v>3</v>
@@ -4656,7 +4656,7 @@
         <v>0.017</v>
       </c>
       <c r="C8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -4665,11 +4665,11 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -4678,7 +4678,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>0.029</v>
+        <v>0.05</v>
       </c>
       <c r="C9" t="n">
         <v>2</v>
@@ -4690,11 +4690,11 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -4703,7 +4703,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>0.05</v>
+        <v>0.029</v>
       </c>
       <c r="C10" t="n">
         <v>1</v>
@@ -4728,10 +4728,10 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>0.029</v>
+        <v>0.017</v>
       </c>
       <c r="C11" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -4740,11 +4740,11 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -4753,10 +4753,10 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>0.029</v>
+        <v>0.017</v>
       </c>
       <c r="C12" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
@@ -4781,7 +4781,7 @@
         <v>0.017</v>
       </c>
       <c r="C13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -4790,11 +4790,11 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -4803,10 +4803,10 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>0.05</v>
+        <v>0.029</v>
       </c>
       <c r="C14" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -4815,11 +4815,11 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -4831,7 +4831,7 @@
         <v>0.029</v>
       </c>
       <c r="C15" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
@@ -4840,11 +4840,11 @@
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -4853,10 +4853,10 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>0.029</v>
+        <v>0.05</v>
       </c>
       <c r="C16" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -4878,7 +4878,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>0.05</v>
+        <v>0.017</v>
       </c>
       <c r="C17" t="n">
         <v>2</v>
@@ -4890,11 +4890,11 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -4928,10 +4928,10 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>0.05</v>
+        <v>0.029</v>
       </c>
       <c r="C19" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -4953,10 +4953,10 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>0.017</v>
+        <v>0.029</v>
       </c>
       <c r="C20" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -4981,7 +4981,7 @@
         <v>0.05</v>
       </c>
       <c r="C21" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
@@ -4990,11 +4990,11 @@
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -5003,10 +5003,10 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>0.017</v>
+        <v>0.05</v>
       </c>
       <c r="C22" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -5015,11 +5015,11 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -5031,7 +5031,7 @@
         <v>0.05</v>
       </c>
       <c r="C23" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
@@ -5040,11 +5040,11 @@
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -5056,7 +5056,7 @@
         <v>0.017</v>
       </c>
       <c r="C24" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D24" t="n">
         <v>0</v>
@@ -5081,7 +5081,7 @@
         <v>0.017</v>
       </c>
       <c r="C25" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -5103,10 +5103,10 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>0.029</v>
+        <v>0.017</v>
       </c>
       <c r="C26" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -5131,7 +5131,7 @@
         <v>0.05</v>
       </c>
       <c r="C27" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D27" t="n">
         <v>0</v>
@@ -5140,11 +5140,11 @@
         <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -5156,7 +5156,7 @@
         <v>0.017</v>
       </c>
       <c r="C28" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -5178,10 +5178,10 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>0.05</v>
+        <v>0.029</v>
       </c>
       <c r="C29" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
@@ -5190,11 +5190,11 @@
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -5206,7 +5206,7 @@
         <v>0.029</v>
       </c>
       <c r="C30" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D30" t="n">
         <v>0</v>
@@ -5228,10 +5228,10 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>0.029</v>
+        <v>0.017</v>
       </c>
       <c r="C31" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -5304,10 +5304,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.05</v>
+        <v>0.029</v>
       </c>
       <c r="C2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -5332,10 +5332,10 @@
         <v>0.05</v>
       </c>
       <c r="C3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D3" t="n">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="E3" t="n">
         <v>0.25</v>
@@ -5357,20 +5357,20 @@
         <v>0.017</v>
       </c>
       <c r="C4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="F4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -5379,23 +5379,23 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>0.017</v>
+        <v>0.05</v>
       </c>
       <c r="C5" t="n">
         <v>3</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="E5" t="n">
         <v>0.25</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -5404,7 +5404,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>0.029</v>
+        <v>0.017</v>
       </c>
       <c r="C6" t="n">
         <v>2</v>
@@ -5416,11 +5416,11 @@
         <v>-0.25</v>
       </c>
       <c r="F6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -5429,7 +5429,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>0.017</v>
+        <v>0.05</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -5441,11 +5441,11 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -5454,10 +5454,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>0.05</v>
+        <v>0.029</v>
       </c>
       <c r="C8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D8" t="n">
         <v>-0.25</v>
@@ -5466,11 +5466,11 @@
         <v>0.25</v>
       </c>
       <c r="F8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -5479,16 +5479,16 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>0.029</v>
+        <v>0.05</v>
       </c>
       <c r="C9" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
@@ -5504,7 +5504,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>0.029</v>
+        <v>0.017</v>
       </c>
       <c r="C10" t="n">
         <v>1</v>
@@ -5513,14 +5513,14 @@
         <v>0.25</v>
       </c>
       <c r="E10" t="n">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -5529,23 +5529,23 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>0.05</v>
+        <v>0.029</v>
       </c>
       <c r="C11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D11" t="n">
         <v>0.25</v>
       </c>
       <c r="E11" t="n">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="F11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -5554,13 +5554,13 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>0.05</v>
+        <v>0.017</v>
       </c>
       <c r="C12" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D12" t="n">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="E12" t="n">
         <v>0.25</v>
@@ -5579,16 +5579,16 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>0.029</v>
+        <v>0.05</v>
       </c>
       <c r="C13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D13" t="n">
         <v>-0.25</v>
       </c>
       <c r="E13" t="n">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -5610,17 +5610,17 @@
         <v>1</v>
       </c>
       <c r="D14" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="E14" t="n">
         <v>-0.25</v>
       </c>
-      <c r="E14" t="n">
-        <v>0.25</v>
-      </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -5629,23 +5629,23 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>0.017</v>
+        <v>0.05</v>
       </c>
       <c r="C15" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D15" t="n">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="E15" t="n">
         <v>0.25</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -5657,20 +5657,20 @@
         <v>0.017</v>
       </c>
       <c r="C16" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="F16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -5679,23 +5679,23 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>0.029</v>
+        <v>0.017</v>
       </c>
       <c r="C17" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -5704,10 +5704,10 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>0.05</v>
+        <v>0.029</v>
       </c>
       <c r="C18" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D18" t="n">
         <v>0</v>
@@ -5729,23 +5729,23 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>0.017</v>
+        <v>0.05</v>
       </c>
       <c r="C19" t="n">
         <v>2</v>
       </c>
       <c r="D19" t="n">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="E19" t="n">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -5757,20 +5757,20 @@
         <v>0.05</v>
       </c>
       <c r="C20" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D20" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -5779,16 +5779,16 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>0.017</v>
+        <v>0.029</v>
       </c>
       <c r="C21" t="n">
         <v>1</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="F21" t="n">
         <v>1</v>
@@ -5804,13 +5804,13 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>0.017</v>
+        <v>0.05</v>
       </c>
       <c r="C22" t="n">
         <v>1</v>
       </c>
       <c r="D22" t="n">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="E22" t="n">
         <v>-0.25</v>
@@ -5835,17 +5835,17 @@
         <v>1</v>
       </c>
       <c r="D23" t="n">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="E23" t="n">
         <v>-0.25</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -5854,23 +5854,23 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>0.017</v>
+        <v>0.05</v>
       </c>
       <c r="C24" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D24" t="n">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -5879,23 +5879,23 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>0.017</v>
+        <v>0.029</v>
       </c>
       <c r="C25" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -5904,23 +5904,23 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>0.017</v>
+        <v>0.029</v>
       </c>
       <c r="C26" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D26" t="n">
         <v>0.25</v>
       </c>
       <c r="E26" t="n">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -5929,23 +5929,23 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>0.017</v>
+        <v>0.05</v>
       </c>
       <c r="C27" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D27" t="n">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="E27" t="n">
         <v>-0.25</v>
       </c>
       <c r="F27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -5954,23 +5954,23 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>0.029</v>
+        <v>0.017</v>
       </c>
       <c r="C28" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D28" t="n">
         <v>0.25</v>
       </c>
       <c r="E28" t="n">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -5979,13 +5979,13 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>0.029</v>
+        <v>0.017</v>
       </c>
       <c r="C29" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D29" t="n">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="E29" t="n">
         <v>0.25</v>
@@ -6004,23 +6004,23 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>0.029</v>
+        <v>0.017</v>
       </c>
       <c r="C30" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D30" t="n">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="E30" t="n">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="F30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -6035,17 +6035,17 @@
         <v>2</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -6105,23 +6105,23 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.029</v>
+        <v>0.05</v>
       </c>
       <c r="C2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="F2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -6130,23 +6130,23 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0.05</v>
+        <v>0.017</v>
       </c>
       <c r="C3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D3" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -6155,23 +6155,23 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>0.05</v>
+        <v>0.017</v>
       </c>
       <c r="C4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D4" t="n">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="E4" t="n">
         <v>0.25</v>
       </c>
       <c r="F4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -6180,23 +6180,23 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>0.017</v>
+        <v>0.029</v>
       </c>
       <c r="C5" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -6205,10 +6205,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>0.029</v>
+        <v>0.05</v>
       </c>
       <c r="C6" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D6" t="n">
         <v>0.25</v>
@@ -6217,11 +6217,11 @@
         <v>-0.25</v>
       </c>
       <c r="F6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -6230,7 +6230,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>0.029</v>
+        <v>0.05</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -6239,7 +6239,7 @@
         <v>-0.25</v>
       </c>
       <c r="E7" t="n">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -6258,20 +6258,20 @@
         <v>0.017</v>
       </c>
       <c r="C8" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D8" t="n">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="E8" t="n">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="F8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -6280,7 +6280,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>0.029</v>
+        <v>0.05</v>
       </c>
       <c r="C9" t="n">
         <v>3</v>
@@ -6308,7 +6308,7 @@
         <v>0.05</v>
       </c>
       <c r="C10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D10" t="n">
         <v>0.25</v>
@@ -6330,23 +6330,23 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>0.017</v>
+        <v>0.05</v>
       </c>
       <c r="C11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D11" t="n">
         <v>0.25</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="F11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -6355,23 +6355,23 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>0.029</v>
+        <v>0.017</v>
       </c>
       <c r="C12" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D12" t="n">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="E12" t="n">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="F12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -6380,7 +6380,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>0.017</v>
+        <v>0.05</v>
       </c>
       <c r="C13" t="n">
         <v>1</v>
@@ -6389,14 +6389,14 @@
         <v>0.25</v>
       </c>
       <c r="E13" t="n">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -6405,23 +6405,23 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>0.029</v>
+        <v>0.017</v>
       </c>
       <c r="C14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D14" t="n">
         <v>0.25</v>
       </c>
       <c r="E14" t="n">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="F14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -6433,13 +6433,13 @@
         <v>0.017</v>
       </c>
       <c r="C15" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D15" t="n">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
         <v>1</v>
@@ -6461,17 +6461,17 @@
         <v>2</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -6483,7 +6483,7 @@
         <v>0.05</v>
       </c>
       <c r="C17" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D17" t="n">
         <v>0.25</v>
@@ -6505,23 +6505,23 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>0.029</v>
+        <v>0.017</v>
       </c>
       <c r="C18" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D18" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="E18" t="n">
         <v>-0.25</v>
       </c>
-      <c r="E18" t="n">
-        <v>0.25</v>
-      </c>
       <c r="F18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -6533,13 +6533,13 @@
         <v>0.017</v>
       </c>
       <c r="C19" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D19" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>1</v>
@@ -6555,23 +6555,23 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>0.029</v>
+        <v>0.017</v>
       </c>
       <c r="C20" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -6586,17 +6586,17 @@
         <v>3</v>
       </c>
       <c r="D21" t="n">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="E21" t="n">
         <v>-0.25</v>
       </c>
       <c r="F21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -6605,23 +6605,23 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>0.05</v>
+        <v>0.029</v>
       </c>
       <c r="C22" t="n">
         <v>2</v>
       </c>
       <c r="D22" t="n">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="E22" t="n">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="F22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -6633,13 +6633,13 @@
         <v>0.05</v>
       </c>
       <c r="C23" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D23" t="n">
         <v>-0.25</v>
       </c>
       <c r="E23" t="n">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
@@ -6655,16 +6655,16 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>0.029</v>
+        <v>0.05</v>
       </c>
       <c r="C24" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="F24" t="n">
         <v>0</v>
@@ -6680,13 +6680,13 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>0.029</v>
+        <v>0.05</v>
       </c>
       <c r="C25" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D25" t="n">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="E25" t="n">
         <v>0.25</v>
@@ -6705,23 +6705,23 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>0.017</v>
+        <v>0.029</v>
       </c>
       <c r="C26" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D26" t="n">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="E26" t="n">
         <v>-0.25</v>
       </c>
       <c r="F26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -6733,20 +6733,20 @@
         <v>0.017</v>
       </c>
       <c r="C27" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D27" t="n">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="E27" t="n">
         <v>0.25</v>
       </c>
       <c r="F27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -6755,7 +6755,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>0.05</v>
+        <v>0.029</v>
       </c>
       <c r="C28" t="n">
         <v>1</v>
@@ -6780,23 +6780,23 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>0.017</v>
+        <v>0.029</v>
       </c>
       <c r="C29" t="n">
         <v>3</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="F29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -6811,17 +6811,17 @@
         <v>3</v>
       </c>
       <c r="D30" t="n">
+        <v>-0.25</v>
+      </c>
+      <c r="E30" t="n">
         <v>0.25</v>
       </c>
-      <c r="E30" t="n">
-        <v>-0.25</v>
-      </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -6830,23 +6830,23 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>0.029</v>
+        <v>0.017</v>
       </c>
       <c r="C31" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="F31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -6896,11 +6896,11 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_13.jpg</t>
+          <t>go_stimuli\puppy_26.jpeg</t>
         </is>
       </c>
       <c r="D2" t="n">
@@ -6917,11 +6917,11 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_23.jpeg</t>
+          <t>go_stimuli\puppy_12.jpeg</t>
         </is>
       </c>
       <c r="D3" t="n">
@@ -6942,7 +6942,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_2.jpg</t>
+          <t>go_stimuli\puppy_23.jpeg</t>
         </is>
       </c>
       <c r="D4" t="n">
@@ -6959,11 +6959,11 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_14.jpeg</t>
+          <t>go_stimuli\puppy_7.jpg</t>
         </is>
       </c>
       <c r="D5" t="n">
@@ -6980,11 +6980,11 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>4.5</v>
+        <v>5.5</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_10.jpg</t>
+          <t>go_stimuli\puppy_5.jpg</t>
         </is>
       </c>
       <c r="D6" t="n">
@@ -7001,11 +7001,11 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_24.jpeg</t>
+          <t>go_stimuli\puppy_6.jpg</t>
         </is>
       </c>
       <c r="D7" t="n">
@@ -7022,11 +7022,11 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_18.jpeg</t>
+          <t>go_stimuli\puppy_27.jpg</t>
         </is>
       </c>
       <c r="D8" t="n">
@@ -7043,11 +7043,11 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>4</v>
+        <v>5.5</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_30.jpg</t>
+          <t>go_stimuli\puppy_16.jpeg</t>
         </is>
       </c>
       <c r="D9" t="n">
@@ -7064,11 +7064,11 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>6.5</v>
+        <v>5.5</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_9.jpg</t>
+          <t>go_stimuli\puppy_25.jpeg</t>
         </is>
       </c>
       <c r="D10" t="n">
@@ -7085,11 +7085,11 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_4.jpg</t>
+          <t>go_stimuli\puppy_28.jpg</t>
         </is>
       </c>
       <c r="D11" t="n">
@@ -7106,11 +7106,11 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>5</v>
+        <v>6.5</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_11.jpeg</t>
+          <t>go_stimuli\puppy_14.jpeg</t>
         </is>
       </c>
       <c r="D12" t="n">
@@ -7127,11 +7127,11 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>4</v>
+        <v>5.5</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_19.jpeg</t>
+          <t>go_stimuli\puppy_20.jpeg</t>
         </is>
       </c>
       <c r="D13" t="n">
@@ -7148,11 +7148,11 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>5.5</v>
+        <v>4.5</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_1.jpg</t>
+          <t>go_stimuli\puppy_4.jpg</t>
         </is>
       </c>
       <c r="D14" t="n">
@@ -7169,11 +7169,11 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>4.5</v>
+        <v>6.5</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_12.jpeg</t>
+          <t>go_stimuli\puppy_8.jpg</t>
         </is>
       </c>
       <c r="D15" t="n">
@@ -7194,7 +7194,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_8.jpg</t>
+          <t>go_stimuli\puppy_2.jpg</t>
         </is>
       </c>
       <c r="D16" t="n">
@@ -7211,11 +7211,11 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_29.jpg</t>
+          <t>go_stimuli\puppy_15.jpeg</t>
         </is>
       </c>
       <c r="D17" t="n">
@@ -7232,11 +7232,11 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_17.jpeg</t>
+          <t>go_stimuli\puppy_29.jpg</t>
         </is>
       </c>
       <c r="D18" t="n">
@@ -7257,7 +7257,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_6.jpg</t>
+          <t>go_stimuli\puppy_17.jpeg</t>
         </is>
       </c>
       <c r="D19" t="n">
@@ -7274,11 +7274,11 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_28.jpg</t>
+          <t>go_stimuli\puppy_19.jpeg</t>
         </is>
       </c>
       <c r="D20" t="n">
@@ -7295,7 +7295,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -7357,19 +7357,19 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_10.jpg</t>
+          <t>no_go_stimuli\spider_24.jpeg</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>space</t>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -7378,19 +7378,19 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_20.jpeg</t>
+          <t>no_go_stimuli\spider_12.jpeg</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>space</t>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -7399,11 +7399,11 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>no_go_stimuli\spider_15.jpeg</t>
+          <t>no_go_stimuli\spider_10.jpeg</t>
         </is>
       </c>
       <c r="D4" t="n">
@@ -7420,19 +7420,19 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>6</v>
+        <v>4.5</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>no_go_stimuli\spider_18.jpg</t>
+          <t>go_stimuli\puppy_6.jpg</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>space</t>
         </is>
       </c>
     </row>
@@ -7445,15 +7445,15 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>no_go_stimuli\spider_8.jpeg</t>
+          <t>go_stimuli\puppy_18.jpeg</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>space</t>
         </is>
       </c>
     </row>
@@ -7462,19 +7462,19 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>no_go_stimuli\spider_21.jpg</t>
+          <t>go_stimuli\puppy_20.jpeg</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>space</t>
         </is>
       </c>
     </row>
@@ -7483,19 +7483,19 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>5.5</v>
+        <v>6.5</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>no_go_stimuli\spider_26.jpg</t>
+          <t>go_stimuli\puppy_27.jpg</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>space</t>
         </is>
       </c>
     </row>
@@ -7508,15 +7508,15 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_23.jpeg</t>
+          <t>no_go_stimuli\spider_3.jpeg</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>space</t>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -7525,11 +7525,11 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>6.5</v>
+        <v>5.5</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>no_go_stimuli\spider_7.jpeg</t>
+          <t>no_go_stimuli\spider_2.jpeg</t>
         </is>
       </c>
       <c r="D10" t="n">
@@ -7546,19 +7546,19 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_7.jpg</t>
+          <t>no_go_stimuli\spider_14.jpeg</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>space</t>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -7567,11 +7567,11 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>no_go_stimuli\spider_10.jpeg</t>
+          <t>no_go_stimuli\spider_16.jpeg</t>
         </is>
       </c>
       <c r="D12" t="n">
@@ -7588,11 +7588,11 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_13.jpg</t>
+          <t>go_stimuli\puppy_16.jpeg</t>
         </is>
       </c>
       <c r="D13" t="n">
@@ -7613,15 +7613,15 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>no_go_stimuli\spider_2.jpeg</t>
+          <t>go_stimuli\puppy_7.jpg</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>space</t>
         </is>
       </c>
     </row>
@@ -7634,7 +7634,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_12.jpeg</t>
+          <t>go_stimuli\puppy_25.jpeg</t>
         </is>
       </c>
       <c r="D15" t="n">
@@ -7651,11 +7651,11 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>6.5</v>
+        <v>4.5</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_19.jpeg</t>
+          <t>go_stimuli\puppy_29.jpg</t>
         </is>
       </c>
       <c r="D16" t="n">
@@ -7676,15 +7676,15 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_28.jpg</t>
+          <t>no_go_stimuli\spider_18.jpg</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>space</t>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -7697,15 +7697,15 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>no_go_stimuli\spider_17.jpeg</t>
+          <t>go_stimuli\puppy_1.jpg</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>space</t>
         </is>
       </c>
     </row>
@@ -7718,7 +7718,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_30.jpg</t>
+          <t>go_stimuli\puppy_24.jpeg</t>
         </is>
       </c>
       <c r="D19" t="n">
@@ -7735,19 +7735,19 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_24.jpeg</t>
+          <t>no_go_stimuli\spider_8.jpeg</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>space</t>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -7756,11 +7756,11 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>5.5</v>
+        <v>6.5</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>no_go_stimuli\spider_3.jpeg</t>
+          <t>no_go_stimuli\spider_7.jpeg</t>
         </is>
       </c>
       <c r="D21" t="n">
@@ -7818,10 +7818,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -7837,17 +7837,17 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -7856,10 +7856,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
+        <v>7</v>
+      </c>
+      <c r="C4" t="n">
         <v>9</v>
-      </c>
-      <c r="C4" t="n">
-        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -7875,10 +7875,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D5" t="n">
         <v>1</v>
@@ -7894,10 +7894,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D6" t="n">
         <v>1</v>
@@ -7913,10 +7913,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -7932,17 +7932,17 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -7951,17 +7951,17 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -7970,17 +7970,17 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -7989,10 +7989,10 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D11" t="n">
         <v>1</v>
@@ -8008,17 +8008,17 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -8027,10 +8027,10 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -8046,17 +8046,17 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -8065,10 +8065,10 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
+        <v>0</v>
+      </c>
+      <c r="C15" t="n">
         <v>9</v>
-      </c>
-      <c r="C15" t="n">
-        <v>0</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
@@ -8084,10 +8084,10 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D16" t="n">
         <v>1</v>
@@ -8106,14 +8106,14 @@
         <v>9</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -8122,10 +8122,10 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D18" t="n">
         <v>0</v>
@@ -8141,10 +8141,10 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -8160,17 +8160,17 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -8179,10 +8179,10 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
@@ -8239,17 +8239,17 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C2" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -8258,10 +8258,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C3" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -8277,17 +8277,17 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C4" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -8296,10 +8296,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D5" t="n">
         <v>1</v>
@@ -8315,17 +8315,17 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C6" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -8334,17 +8334,17 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C7" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -8353,10 +8353,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -8372,10 +8372,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="C9" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
@@ -8391,17 +8391,17 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -8413,14 +8413,14 @@
         <v>4</v>
       </c>
       <c r="C11" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -8429,17 +8429,17 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C12" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -8448,10 +8448,10 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C13" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -8467,10 +8467,10 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
+        <v>9</v>
+      </c>
+      <c r="C14" t="n">
         <v>4</v>
-      </c>
-      <c r="C14" t="n">
-        <v>2</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -8486,10 +8486,10 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D15" t="n">
         <v>1</v>
@@ -8505,17 +8505,17 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C16" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -8524,10 +8524,10 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C17" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -8543,17 +8543,17 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C18" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -8562,10 +8562,10 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C19" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D19" t="n">
         <v>1</v>
@@ -8581,17 +8581,17 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C20" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -8600,10 +8600,10 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
+        <v>7</v>
+      </c>
+      <c r="C21" t="n">
         <v>4</v>
-      </c>
-      <c r="C21" t="n">
-        <v>2</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
@@ -8660,17 +8660,17 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C2" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -8679,17 +8679,17 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C3" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -8698,17 +8698,17 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -8717,10 +8717,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C5" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D5" t="n">
         <v>1</v>
@@ -8736,10 +8736,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D6" t="n">
         <v>1</v>
@@ -8755,17 +8755,17 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C7" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -8774,10 +8774,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C8" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -8793,10 +8793,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
+        <v>2</v>
+      </c>
+      <c r="C9" t="n">
         <v>5</v>
-      </c>
-      <c r="C9" t="n">
-        <v>6</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
@@ -8812,17 +8812,17 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C10" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -8831,17 +8831,17 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -8850,10 +8850,10 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C12" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
@@ -8869,17 +8869,17 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C13" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -8888,10 +8888,10 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C14" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D14" t="n">
         <v>1</v>
@@ -8907,10 +8907,10 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
@@ -8929,14 +8929,14 @@
         <v>6</v>
       </c>
       <c r="C16" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -8945,17 +8945,17 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C17" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -8964,10 +8964,10 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C18" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D18" t="n">
         <v>0</v>
@@ -8983,17 +8983,17 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C19" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -9002,10 +9002,10 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -9021,10 +9021,10 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C21" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
@@ -9124,7 +9124,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -9140,14 +9140,14 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -9156,14 +9156,14 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -9188,7 +9188,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
@@ -9204,7 +9204,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C10" t="n">
         <v>1</v>
@@ -9220,7 +9220,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -9236,7 +9236,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C12" t="n">
         <v>1</v>
@@ -9252,7 +9252,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C13" t="n">
         <v>1</v>
@@ -9268,14 +9268,14 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -9284,7 +9284,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
@@ -9303,11 +9303,11 @@
         <v>6</v>
       </c>
       <c r="C16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -9316,7 +9316,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -9332,14 +9332,14 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -9348,7 +9348,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C19" t="n">
         <v>1</v>
@@ -9364,7 +9364,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -9380,7 +9380,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
@@ -9432,7 +9432,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -9448,7 +9448,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -9464,14 +9464,14 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -9480,7 +9480,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -9496,14 +9496,14 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -9512,7 +9512,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -9528,7 +9528,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
@@ -9544,14 +9544,14 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -9560,7 +9560,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -9576,14 +9576,14 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -9624,7 +9624,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -9640,14 +9640,14 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -9656,7 +9656,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C16" t="n">
         <v>1</v>
@@ -9672,7 +9672,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C17" t="n">
         <v>1</v>
@@ -9688,14 +9688,14 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -9704,14 +9704,14 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -9720,7 +9720,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -9736,7 +9736,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C21" t="n">
         <v>1</v>

--- a/participants/participant_21/participant_21_conditions.xlsx
+++ b/participants/participant_21/participant_21_conditions.xlsx
@@ -7,29 +7,29 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="go_stims-16504778249868786" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="GNG_stims-16504778250059116" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="go_stims-1650477825006879" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="GNG_stims-16504778250219145" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="ZB-match_9-16504778251038754" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="ZB-match_4-16504778253148754" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="ZB-match_5-1650477825443883" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="OB-1650477825883911" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="OB-16504778259638784" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet name="OB-1650477826121879" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet name="TB-16504778267069166" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet name="TB-16504778270649128" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet name="TB-16504778280139093" sheetId="13" state="visible" r:id="rId13"/>
-    <sheet name="ZM_stims-16504778280478787" sheetId="14" state="visible" r:id="rId14"/>
-    <sheet name="MM_stims-16504778280599139" sheetId="15" state="visible" r:id="rId15"/>
-    <sheet name="ZM_stims-1650477828060881" sheetId="16" state="visible" r:id="rId16"/>
-    <sheet name="MM_stims-16504778280759106" sheetId="17" state="visible" r:id="rId17"/>
-    <sheet name="ZM_stims-165047782807688" sheetId="18" state="visible" r:id="rId18"/>
-    <sheet name="MM_stims-1650477828091911" sheetId="19" state="visible" r:id="rId19"/>
-    <sheet name="SAT_stims-16504778280958784" sheetId="20" state="visible" r:id="rId20"/>
-    <sheet name="SAT_stims-16504778281079185" sheetId="21" state="visible" r:id="rId21"/>
-    <sheet name="vSAT_stims-16504778281239138" sheetId="22" state="visible" r:id="rId22"/>
-    <sheet name="vSAT_stims-16504778281399105" sheetId="23" state="visible" r:id="rId23"/>
+    <sheet name="go_stims-1650996114402416" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="GNG_stims-16509961144263744" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="go_stims-16509961144263744" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="GNG_stims-16509961144424143" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="ZB-match_3-16509961144584117" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="ZB-match_7-16509961145143778" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="ZB-match_7-1650996114602421" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="OB-16509961147863748" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="OB-1650996115186375" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="OB-16509961153943777" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet name="TB-16509961157784116" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet name="TB-16509961159864101" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet name="TB-1650996116066561" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet name="ZM_stims-16509961160905957" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet name="MM_stims-16509961161146102" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet name="ZM_stims-16509961161146102" sheetId="16" state="visible" r:id="rId16"/>
+    <sheet name="MM_stims-16509961161306055" sheetId="17" state="visible" r:id="rId17"/>
+    <sheet name="ZM_stims-16509961161306055" sheetId="18" state="visible" r:id="rId18"/>
+    <sheet name="MM_stims-16509961161465964" sheetId="19" state="visible" r:id="rId19"/>
+    <sheet name="SAT_stims-16509961161465964" sheetId="20" state="visible" r:id="rId20"/>
+    <sheet name="SAT_stims-16509961161625717" sheetId="21" state="visible" r:id="rId21"/>
+    <sheet name="vSAT_stims-16509961161786017" sheetId="22" state="visible" r:id="rId22"/>
+    <sheet name="vSAT_stims-16509961161945977" sheetId="23" state="visible" r:id="rId23"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -463,7 +463,7 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>go_stim</t>
+          <t>GNG_stim</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
@@ -482,11 +482,11 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_3.jpg</t>
+          <t>go_stimuli\puppy_10.jpg</t>
         </is>
       </c>
       <c r="D2" t="n">
@@ -503,11 +503,11 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>5</v>
+        <v>6.5</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_7.jpg</t>
+          <t>go_stimuli\puppy_28.jpg</t>
         </is>
       </c>
       <c r="D3" t="n">
@@ -524,11 +524,11 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_23.jpeg</t>
+          <t>go_stimuli\puppy_11.jpeg</t>
         </is>
       </c>
       <c r="D4" t="n">
@@ -545,11 +545,11 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_2.jpg</t>
+          <t>go_stimuli\puppy_12.jpeg</t>
         </is>
       </c>
       <c r="D5" t="n">
@@ -566,11 +566,11 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>4.5</v>
+        <v>5.5</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_27.jpg</t>
+          <t>go_stimuli\puppy_26.jpeg</t>
         </is>
       </c>
       <c r="D6" t="n">
@@ -587,11 +587,11 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>6.5</v>
+        <v>5.5</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_24.jpeg</t>
+          <t>go_stimuli\puppy_20.jpeg</t>
         </is>
       </c>
       <c r="D7" t="n">
@@ -608,11 +608,11 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_9.jpg</t>
+          <t>go_stimuli\puppy_16.jpeg</t>
         </is>
       </c>
       <c r="D8" t="n">
@@ -629,11 +629,11 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>5.5</v>
+        <v>4</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_29.jpg</t>
+          <t>go_stimuli\puppy_19.jpeg</t>
         </is>
       </c>
       <c r="D9" t="n">
@@ -650,11 +650,11 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_8.jpg</t>
+          <t>go_stimuli\puppy_1.jpg</t>
         </is>
       </c>
       <c r="D10" t="n">
@@ -671,11 +671,11 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>5.5</v>
+        <v>4.5</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_30.jpg</t>
+          <t>go_stimuli\puppy_4.jpg</t>
         </is>
       </c>
       <c r="D11" t="n">
@@ -696,7 +696,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_28.jpg</t>
+          <t>go_stimuli\puppy_9.jpg</t>
         </is>
       </c>
       <c r="D12" t="n">
@@ -713,11 +713,11 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_1.jpg</t>
+          <t>go_stimuli\puppy_14.jpeg</t>
         </is>
       </c>
       <c r="D13" t="n">
@@ -738,7 +738,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_6.jpg</t>
+          <t>go_stimuli\puppy_27.jpg</t>
         </is>
       </c>
       <c r="D14" t="n">
@@ -755,11 +755,11 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>6.5</v>
+        <v>4</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_10.jpg</t>
+          <t>go_stimuli\puppy_30.jpg</t>
         </is>
       </c>
       <c r="D15" t="n">
@@ -776,7 +776,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -801,7 +801,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_21.jpeg</t>
+          <t>go_stimuli\puppy_8.jpg</t>
         </is>
       </c>
       <c r="D17" t="n">
@@ -818,11 +818,11 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>4.5</v>
+        <v>6</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_13.jpg</t>
+          <t>go_stimuli\puppy_17.jpeg</t>
         </is>
       </c>
       <c r="D18" t="n">
@@ -839,11 +839,11 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>4.5</v>
+        <v>6</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_20.jpeg</t>
+          <t>go_stimuli\puppy_3.jpg</t>
         </is>
       </c>
       <c r="D19" t="n">
@@ -864,7 +864,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_26.jpeg</t>
+          <t>go_stimuli\puppy_18.jpeg</t>
         </is>
       </c>
       <c r="D20" t="n">
@@ -881,11 +881,11 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>5.5</v>
+        <v>4.5</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_19.jpeg</t>
+          <t>go_stimuli\puppy_22.jpeg</t>
         </is>
       </c>
       <c r="D21" t="n">
@@ -938,7 +938,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -954,14 +954,14 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -970,7 +970,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -986,7 +986,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -1002,7 +1002,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -1018,14 +1018,14 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -1034,14 +1034,14 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -1050,14 +1050,14 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -1066,7 +1066,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C10" t="n">
         <v>1</v>
@@ -1082,14 +1082,14 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -1098,7 +1098,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
@@ -1114,14 +1114,14 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -1130,7 +1130,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -1146,7 +1146,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
@@ -1162,14 +1162,14 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -1178,14 +1178,14 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -1194,14 +1194,14 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -1210,7 +1210,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -1226,14 +1226,14 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -1242,7 +1242,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
@@ -1294,7 +1294,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -1310,7 +1310,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -1326,7 +1326,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -1342,14 +1342,14 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -1358,14 +1358,14 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -1374,7 +1374,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -1390,7 +1390,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -1406,7 +1406,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C9" t="n">
         <v>1</v>
@@ -1422,7 +1422,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -1438,7 +1438,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -1454,14 +1454,14 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -1470,14 +1470,14 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -1486,7 +1486,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -1502,14 +1502,14 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -1518,14 +1518,14 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -1534,14 +1534,14 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -1550,14 +1550,14 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -1569,11 +1569,11 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -1582,14 +1582,14 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -1650,7 +1650,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -1682,7 +1682,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -1698,7 +1698,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -1730,14 +1730,14 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -1746,14 +1746,14 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -1762,14 +1762,14 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -1778,7 +1778,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C10" t="n">
         <v>1</v>
@@ -1794,7 +1794,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C11" t="n">
         <v>1</v>
@@ -1810,14 +1810,14 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -1826,14 +1826,14 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -1842,7 +1842,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -1858,14 +1858,14 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -1874,14 +1874,14 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -1890,14 +1890,14 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -1906,7 +1906,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
@@ -1922,14 +1922,14 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -1938,7 +1938,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C20" t="n">
         <v>1</v>
@@ -1954,14 +1954,14 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -2006,7 +2006,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -2022,7 +2022,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -2038,7 +2038,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -2054,14 +2054,14 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -2070,14 +2070,14 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -2086,14 +2086,14 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -2102,7 +2102,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
@@ -2118,7 +2118,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C9" t="n">
         <v>1</v>
@@ -2134,14 +2134,14 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -2150,7 +2150,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -2166,14 +2166,14 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -2182,14 +2182,14 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -2198,7 +2198,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -2214,7 +2214,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
@@ -2230,7 +2230,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C16" t="n">
         <v>1</v>
@@ -2246,7 +2246,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>1</v>
@@ -2262,7 +2262,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
@@ -2278,14 +2278,14 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -2294,14 +2294,14 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -2310,14 +2310,14 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -2363,7 +2363,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>zero_move_stimuli\zero_move_5.jpg</t>
+          <t>zero_move_stimuli\zero_move_6.jpg</t>
         </is>
       </c>
       <c r="C2" t="n">
@@ -2399,7 +2399,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>zero_move_stimuli\zero_move_4.jpg</t>
+          <t>zero_move_stimuli\zero_move_3.jpg</t>
         </is>
       </c>
       <c r="C4" t="n">
@@ -2417,7 +2417,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>zero_move_stimuli\zero_move_3.jpg</t>
+          <t>zero_move_stimuli\zero_move_1.jpg</t>
         </is>
       </c>
       <c r="C5" t="n">
@@ -2435,7 +2435,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>zero_move_stimuli\zero_move_6.jpg</t>
+          <t>zero_move_stimuli\zero_move_4.jpg</t>
         </is>
       </c>
       <c r="C6" t="n">
@@ -2453,7 +2453,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>zero_move_stimuli\zero_move_1.jpg</t>
+          <t>zero_move_stimuli\zero_move_5.jpg</t>
         </is>
       </c>
       <c r="C7" t="n">
@@ -2525,7 +2525,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>multi_move_stimuli\stim_two_move\stim_two_move_2.jpg</t>
+          <t>multi_move_stimuli\stim_two_move\stim_two_move_3.jpg</t>
         </is>
       </c>
       <c r="C3" t="n">
@@ -2543,15 +2543,15 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>multi_move_stimuli\stim_two_move\stim_two_move_6.jpg</t>
+          <t>multi_move_stimuli\stim_not_two_move\stim_not_two_move_4.jpg</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -2561,7 +2561,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>multi_move_stimuli\stim_not_two_move\stim_not_two_move_6.jpg</t>
+          <t>multi_move_stimuli\stim_not_two_move\stim_not_two_move_3.jpg</t>
         </is>
       </c>
       <c r="C5" t="n">
@@ -2579,7 +2579,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>multi_move_stimuli\stim_two_move\stim_two_move_1.jpg</t>
+          <t>multi_move_stimuli\stim_two_move\stim_two_move_6.jpg</t>
         </is>
       </c>
       <c r="C6" t="n">
@@ -2597,15 +2597,15 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>multi_move_stimuli\stim_not_two_move\stim_not_two_move_1.jpg</t>
+          <t>multi_move_stimuli\stim_two_move\stim_two_move_2.jpg</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -2651,7 +2651,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>zero_move_stimuli\zero_move_5.jpg</t>
+          <t>zero_move_stimuli\zero_move_3.jpg</t>
         </is>
       </c>
       <c r="C2" t="n">
@@ -2669,7 +2669,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>zero_move_stimuli\zero_move_6.jpg</t>
+          <t>zero_move_stimuli\zero_move_5.jpg</t>
         </is>
       </c>
       <c r="C3" t="n">
@@ -2687,7 +2687,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>zero_move_stimuli\zero_move_4.jpg</t>
+          <t>zero_move_stimuli\zero_move_2.jpg</t>
         </is>
       </c>
       <c r="C4" t="n">
@@ -2705,7 +2705,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>zero_move_stimuli\zero_move_1.jpg</t>
+          <t>zero_move_stimuli\zero_move_4.jpg</t>
         </is>
       </c>
       <c r="C5" t="n">
@@ -2723,7 +2723,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>zero_move_stimuli\zero_move_3.jpg</t>
+          <t>zero_move_stimuli\zero_move_1.jpg</t>
         </is>
       </c>
       <c r="C6" t="n">
@@ -2741,7 +2741,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>zero_move_stimuli\zero_move_2.jpg</t>
+          <t>zero_move_stimuli\zero_move_6.jpg</t>
         </is>
       </c>
       <c r="C7" t="n">
@@ -2795,15 +2795,15 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>multi_move_stimuli\stim_two_move\stim_two_move_2.jpg</t>
+          <t>multi_move_stimuli\stim_not_two_move\stim_not_two_move_4.jpg</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -2813,15 +2813,15 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>multi_move_stimuli\stim_not_two_move\stim_not_two_move_2.jpg</t>
+          <t>multi_move_stimuli\stim_two_move\stim_two_move_1.jpg</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -2831,7 +2831,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>multi_move_stimuli\stim_not_two_move\stim_not_two_move_1.jpg</t>
+          <t>multi_move_stimuli\stim_not_two_move\stim_not_two_move_5.jpg</t>
         </is>
       </c>
       <c r="C4" t="n">
@@ -2849,7 +2849,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>multi_move_stimuli\stim_not_two_move\stim_not_two_move_3.jpg</t>
+          <t>multi_move_stimuli\stim_not_two_move\stim_not_two_move_6.jpg</t>
         </is>
       </c>
       <c r="C5" t="n">
@@ -2867,7 +2867,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>multi_move_stimuli\stim_two_move\stim_two_move_6.jpg</t>
+          <t>multi_move_stimuli\stim_two_move\stim_two_move_5.jpg</t>
         </is>
       </c>
       <c r="C6" t="n">
@@ -2885,7 +2885,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>multi_move_stimuli\stim_two_move\stim_two_move_3.jpg</t>
+          <t>multi_move_stimuli\stim_two_move\stim_two_move_4.jpg</t>
         </is>
       </c>
       <c r="C7" t="n">
@@ -2939,7 +2939,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>zero_move_stimuli\zero_move_4.jpg</t>
+          <t>zero_move_stimuli\zero_move_3.jpg</t>
         </is>
       </c>
       <c r="C2" t="n">
@@ -2957,7 +2957,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>zero_move_stimuli\zero_move_1.jpg</t>
+          <t>zero_move_stimuli\zero_move_2.jpg</t>
         </is>
       </c>
       <c r="C3" t="n">
@@ -2975,7 +2975,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>zero_move_stimuli\zero_move_2.jpg</t>
+          <t>zero_move_stimuli\zero_move_5.jpg</t>
         </is>
       </c>
       <c r="C4" t="n">
@@ -2993,7 +2993,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>zero_move_stimuli\zero_move_5.jpg</t>
+          <t>zero_move_stimuli\zero_move_1.jpg</t>
         </is>
       </c>
       <c r="C5" t="n">
@@ -3029,7 +3029,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>zero_move_stimuli\zero_move_3.jpg</t>
+          <t>zero_move_stimuli\zero_move_4.jpg</t>
         </is>
       </c>
       <c r="C7" t="n">
@@ -3083,15 +3083,15 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>multi_move_stimuli\stim_not_two_move\stim_not_two_move_6.jpg</t>
+          <t>multi_move_stimuli\stim_two_move\stim_two_move_4.jpg</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -3101,7 +3101,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>multi_move_stimuli\stim_not_two_move\stim_not_two_move_1.jpg</t>
+          <t>multi_move_stimuli\stim_not_two_move\stim_not_two_move_4.jpg</t>
         </is>
       </c>
       <c r="C3" t="n">
@@ -3119,7 +3119,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>multi_move_stimuli\stim_two_move\stim_two_move_1.jpg</t>
+          <t>multi_move_stimuli\stim_two_move\stim_two_move_2.jpg</t>
         </is>
       </c>
       <c r="C4" t="n">
@@ -3137,15 +3137,15 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>multi_move_stimuli\stim_two_move\stim_two_move_4.jpg</t>
+          <t>multi_move_stimuli\stim_not_two_move\stim_not_two_move_5.jpg</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -3155,15 +3155,15 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>multi_move_stimuli\stim_two_move\stim_two_move_2.jpg</t>
+          <t>multi_move_stimuli\stim_not_two_move\stim_not_two_move_1.jpg</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -3173,15 +3173,15 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>multi_move_stimuli\stim_not_two_move\stim_not_two_move_2.jpg</t>
+          <t>multi_move_stimuli\stim_two_move\stim_two_move_1.jpg</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -3231,19 +3231,19 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>5.5</v>
+        <v>6.5</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>no_go_stimuli\spider_5.jpeg</t>
+          <t>go_stimuli\puppy_27.jpg</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>space</t>
         </is>
       </c>
     </row>
@@ -3252,19 +3252,19 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>5.5</v>
+        <v>4.5</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>no_go_stimuli\spider_12.jpeg</t>
+          <t>go_stimuli\puppy_2.jpg</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>space</t>
         </is>
       </c>
     </row>
@@ -3273,19 +3273,19 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>no_go_stimuli\spider_16.jpeg</t>
+          <t>go_stimuli\puppy_12.jpeg</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>space</t>
         </is>
       </c>
     </row>
@@ -3294,11 +3294,11 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>no_go_stimuli\spider_3.jpeg</t>
+          <t>no_go_stimuli\spider_24.jpeg</t>
         </is>
       </c>
       <c r="D5" t="n">
@@ -3315,19 +3315,19 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_8.jpg</t>
+          <t>no_go_stimuli\spider_25.jpg</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>space</t>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -3336,19 +3336,19 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_5.jpg</t>
+          <t>no_go_stimuli\spider_23.jpg</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>space</t>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -3357,19 +3357,19 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>4</v>
+        <v>6.5</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>no_go_stimuli\spider_4.jpeg</t>
+          <t>go_stimuli\puppy_5.jpg</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>space</t>
         </is>
       </c>
     </row>
@@ -3378,11 +3378,11 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>no_go_stimuli\spider_8.jpeg</t>
+          <t>no_go_stimuli\spider_20.jpg</t>
         </is>
       </c>
       <c r="D9" t="n">
@@ -3399,11 +3399,11 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>no_go_stimuli\spider_21.jpg</t>
+          <t>no_go_stimuli\spider_22.jpg</t>
         </is>
       </c>
       <c r="D10" t="n">
@@ -3420,19 +3420,19 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_28.jpg</t>
+          <t>no_go_stimuli\spider_29.jpg</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>space</t>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -3441,11 +3441,11 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>6</v>
+        <v>4.5</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>no_go_stimuli\spider_28.jpg</t>
+          <t>no_go_stimuli\spider_1.jpeg</t>
         </is>
       </c>
       <c r="D12" t="n">
@@ -3462,11 +3462,11 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_9.jpg</t>
+          <t>go_stimuli\puppy_15.jpeg</t>
         </is>
       </c>
       <c r="D13" t="n">
@@ -3483,11 +3483,11 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_12.jpeg</t>
+          <t>go_stimuli\puppy_18.jpeg</t>
         </is>
       </c>
       <c r="D14" t="n">
@@ -3508,7 +3508,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_11.jpeg</t>
+          <t>go_stimuli\puppy_24.jpeg</t>
         </is>
       </c>
       <c r="D15" t="n">
@@ -3525,11 +3525,11 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>5</v>
+        <v>6.5</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_25.jpeg</t>
+          <t>go_stimuli\puppy_29.jpg</t>
         </is>
       </c>
       <c r="D16" t="n">
@@ -3546,11 +3546,11 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>no_go_stimuli\spider_24.jpeg</t>
+          <t>no_go_stimuli\spider_26.jpg</t>
         </is>
       </c>
       <c r="D17" t="n">
@@ -3567,11 +3567,11 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_16.jpeg</t>
+          <t>go_stimuli\puppy_13.jpg</t>
         </is>
       </c>
       <c r="D18" t="n">
@@ -3588,11 +3588,11 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>no_go_stimuli\spider_10.jpeg</t>
+          <t>no_go_stimuli\spider_30.jpg</t>
         </is>
       </c>
       <c r="D19" t="n">
@@ -3609,11 +3609,11 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>6.5</v>
+        <v>4.5</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_20.jpeg</t>
+          <t>go_stimuli\puppy_25.jpeg</t>
         </is>
       </c>
       <c r="D20" t="n">
@@ -3630,19 +3630,19 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_21.jpeg</t>
+          <t>no_go_stimuli\spider_21.jpg</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>space</t>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -3702,10 +3702,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.017</v>
+        <v>0.05</v>
       </c>
       <c r="C2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -3714,11 +3714,11 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -3727,10 +3727,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0.05</v>
+        <v>0.029</v>
       </c>
       <c r="C3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -3739,11 +3739,11 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -3752,10 +3752,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>0.05</v>
+        <v>0.017</v>
       </c>
       <c r="C4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -3780,7 +3780,7 @@
         <v>0.05</v>
       </c>
       <c r="C5" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -3789,11 +3789,11 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -3802,10 +3802,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>0.017</v>
+        <v>0.05</v>
       </c>
       <c r="C6" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -3814,11 +3814,11 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -3827,7 +3827,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>0.029</v>
+        <v>0.017</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -3852,10 +3852,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>0.05</v>
+        <v>0.029</v>
       </c>
       <c r="C8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -3864,11 +3864,11 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -3877,10 +3877,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>0.05</v>
+        <v>0.029</v>
       </c>
       <c r="C9" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
@@ -3902,7 +3902,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>0.017</v>
+        <v>0.029</v>
       </c>
       <c r="C10" t="n">
         <v>1</v>
@@ -3927,7 +3927,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>0.029</v>
+        <v>0.017</v>
       </c>
       <c r="C11" t="n">
         <v>2</v>
@@ -3939,11 +3939,11 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -3952,10 +3952,10 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>0.029</v>
+        <v>0.017</v>
       </c>
       <c r="C12" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
@@ -3977,10 +3977,10 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>0.017</v>
+        <v>0.05</v>
       </c>
       <c r="C13" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -4002,10 +4002,10 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>0.029</v>
+        <v>0.05</v>
       </c>
       <c r="C14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -4027,10 +4027,10 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>0.029</v>
+        <v>0.05</v>
       </c>
       <c r="C15" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
@@ -4052,10 +4052,10 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>0.05</v>
+        <v>0.017</v>
       </c>
       <c r="C16" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -4064,11 +4064,11 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -4077,10 +4077,10 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>0.05</v>
+        <v>0.017</v>
       </c>
       <c r="C17" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -4089,11 +4089,11 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -4102,10 +4102,10 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>0.029</v>
+        <v>0.017</v>
       </c>
       <c r="C18" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D18" t="n">
         <v>0</v>
@@ -4127,10 +4127,10 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>0.017</v>
+        <v>0.05</v>
       </c>
       <c r="C19" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -4164,11 +4164,11 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -4180,7 +4180,7 @@
         <v>0.017</v>
       </c>
       <c r="C21" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
@@ -4189,11 +4189,11 @@
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -4202,7 +4202,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>0.017</v>
+        <v>0.05</v>
       </c>
       <c r="C22" t="n">
         <v>2</v>
@@ -4227,7 +4227,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>0.017</v>
+        <v>0.05</v>
       </c>
       <c r="C23" t="n">
         <v>3</v>
@@ -4239,11 +4239,11 @@
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -4255,7 +4255,7 @@
         <v>0.029</v>
       </c>
       <c r="C24" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D24" t="n">
         <v>0</v>
@@ -4264,11 +4264,11 @@
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -4277,10 +4277,10 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>0.05</v>
+        <v>0.029</v>
       </c>
       <c r="C25" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -4314,11 +4314,11 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -4330,7 +4330,7 @@
         <v>0.017</v>
       </c>
       <c r="C27" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D27" t="n">
         <v>0</v>
@@ -4339,11 +4339,11 @@
         <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -4352,10 +4352,10 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>0.017</v>
+        <v>0.029</v>
       </c>
       <c r="C28" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -4377,10 +4377,10 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>0.017</v>
+        <v>0.05</v>
       </c>
       <c r="C29" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
@@ -4389,11 +4389,11 @@
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -4402,10 +4402,10 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>0.029</v>
+        <v>0.017</v>
       </c>
       <c r="C30" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D30" t="n">
         <v>0</v>
@@ -4414,11 +4414,11 @@
         <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -4427,7 +4427,7 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>0.017</v>
+        <v>0.029</v>
       </c>
       <c r="C31" t="n">
         <v>2</v>
@@ -4506,7 +4506,7 @@
         <v>0.05</v>
       </c>
       <c r="C2" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -4528,7 +4528,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0.017</v>
+        <v>0.029</v>
       </c>
       <c r="C3" t="n">
         <v>2</v>
@@ -4540,11 +4540,11 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -4553,7 +4553,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>0.017</v>
+        <v>0.05</v>
       </c>
       <c r="C4" t="n">
         <v>3</v>
@@ -4578,10 +4578,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>0.05</v>
+        <v>0.029</v>
       </c>
       <c r="C5" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -4590,11 +4590,11 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -4603,10 +4603,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>0.029</v>
+        <v>0.05</v>
       </c>
       <c r="C6" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -4628,10 +4628,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>0.017</v>
+        <v>0.029</v>
       </c>
       <c r="C7" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -4640,11 +4640,11 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -4656,7 +4656,7 @@
         <v>0.017</v>
       </c>
       <c r="C8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -4665,11 +4665,11 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -4703,7 +4703,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>0.029</v>
+        <v>0.017</v>
       </c>
       <c r="C10" t="n">
         <v>1</v>
@@ -4731,7 +4731,7 @@
         <v>0.017</v>
       </c>
       <c r="C11" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -4740,11 +4740,11 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -4756,7 +4756,7 @@
         <v>0.017</v>
       </c>
       <c r="C12" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
@@ -4765,11 +4765,11 @@
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -4778,10 +4778,10 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>0.017</v>
+        <v>0.05</v>
       </c>
       <c r="C13" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -4790,11 +4790,11 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -4803,10 +4803,10 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>0.029</v>
+        <v>0.017</v>
       </c>
       <c r="C14" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -4815,11 +4815,11 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -4853,10 +4853,10 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>0.05</v>
+        <v>0.029</v>
       </c>
       <c r="C16" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -4881,7 +4881,7 @@
         <v>0.017</v>
       </c>
       <c r="C17" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -4903,10 +4903,10 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>0.017</v>
+        <v>0.05</v>
       </c>
       <c r="C18" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D18" t="n">
         <v>0</v>
@@ -4953,10 +4953,10 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>0.029</v>
+        <v>0.05</v>
       </c>
       <c r="C20" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -4965,11 +4965,11 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -4978,7 +4978,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>0.05</v>
+        <v>0.029</v>
       </c>
       <c r="C21" t="n">
         <v>3</v>
@@ -5003,7 +5003,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>0.05</v>
+        <v>0.029</v>
       </c>
       <c r="C22" t="n">
         <v>1</v>
@@ -5028,7 +5028,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>0.05</v>
+        <v>0.017</v>
       </c>
       <c r="C23" t="n">
         <v>2</v>
@@ -5053,10 +5053,10 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>0.017</v>
+        <v>0.05</v>
       </c>
       <c r="C24" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D24" t="n">
         <v>0</v>
@@ -5065,11 +5065,11 @@
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -5081,7 +5081,7 @@
         <v>0.017</v>
       </c>
       <c r="C25" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -5090,11 +5090,11 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -5103,7 +5103,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>0.017</v>
+        <v>0.029</v>
       </c>
       <c r="C26" t="n">
         <v>1</v>
@@ -5115,11 +5115,11 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -5128,10 +5128,10 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>0.05</v>
+        <v>0.029</v>
       </c>
       <c r="C27" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D27" t="n">
         <v>0</v>
@@ -5153,7 +5153,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>0.017</v>
+        <v>0.05</v>
       </c>
       <c r="C28" t="n">
         <v>2</v>
@@ -5203,10 +5203,10 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>0.029</v>
+        <v>0.05</v>
       </c>
       <c r="C30" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D30" t="n">
         <v>0</v>
@@ -5228,10 +5228,10 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>0.017</v>
+        <v>0.029</v>
       </c>
       <c r="C31" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -5304,10 +5304,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.029</v>
+        <v>0.05</v>
       </c>
       <c r="C2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -5329,23 +5329,23 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0.05</v>
+        <v>0.017</v>
       </c>
       <c r="C3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -5354,23 +5354,23 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>0.017</v>
+        <v>0.029</v>
       </c>
       <c r="C4" t="n">
         <v>3</v>
       </c>
       <c r="D4" t="n">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="E4" t="n">
         <v>-0.25</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -5382,13 +5382,13 @@
         <v>0.05</v>
       </c>
       <c r="C5" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D5" t="n">
         <v>0.25</v>
       </c>
       <c r="E5" t="n">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="F5" t="n">
         <v>1</v>
@@ -5404,7 +5404,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>0.017</v>
+        <v>0.029</v>
       </c>
       <c r="C6" t="n">
         <v>2</v>
@@ -5429,23 +5429,23 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>0.05</v>
+        <v>0.017</v>
       </c>
       <c r="C7" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -5454,10 +5454,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>0.029</v>
+        <v>0.05</v>
       </c>
       <c r="C8" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D8" t="n">
         <v>-0.25</v>
@@ -5466,11 +5466,11 @@
         <v>0.25</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -5479,10 +5479,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>0.05</v>
+        <v>0.029</v>
       </c>
       <c r="C9" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D9" t="n">
         <v>0.25</v>
@@ -5507,13 +5507,13 @@
         <v>0.017</v>
       </c>
       <c r="C10" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D10" t="n">
         <v>0.25</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="F10" t="n">
         <v>1</v>
@@ -5535,17 +5535,17 @@
         <v>1</v>
       </c>
       <c r="D11" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -5554,23 +5554,23 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>0.017</v>
+        <v>0.05</v>
       </c>
       <c r="C12" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D12" t="n">
         <v>0.25</v>
       </c>
       <c r="E12" t="n">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -5579,13 +5579,13 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>0.05</v>
+        <v>0.017</v>
       </c>
       <c r="C13" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D13" t="n">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="E13" t="n">
         <v>0.25</v>
@@ -5604,16 +5604,16 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>0.029</v>
+        <v>0.017</v>
       </c>
       <c r="C14" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D14" t="n">
+        <v>-0.25</v>
+      </c>
+      <c r="E14" t="n">
         <v>0.25</v>
-      </c>
-      <c r="E14" t="n">
-        <v>-0.25</v>
       </c>
       <c r="F14" t="n">
         <v>1</v>
@@ -5629,23 +5629,23 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>0.05</v>
+        <v>0.017</v>
       </c>
       <c r="C15" t="n">
         <v>2</v>
       </c>
       <c r="D15" t="n">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="E15" t="n">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="F15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -5654,23 +5654,23 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>0.017</v>
+        <v>0.05</v>
       </c>
       <c r="C16" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D16" t="n">
         <v>-0.25</v>
       </c>
       <c r="E16" t="n">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -5679,7 +5679,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>0.017</v>
+        <v>0.029</v>
       </c>
       <c r="C17" t="n">
         <v>2</v>
@@ -5688,14 +5688,14 @@
         <v>-0.25</v>
       </c>
       <c r="E17" t="n">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="F17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -5704,10 +5704,10 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>0.029</v>
+        <v>0.05</v>
       </c>
       <c r="C18" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D18" t="n">
         <v>0</v>
@@ -5732,13 +5732,13 @@
         <v>0.05</v>
       </c>
       <c r="C19" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D19" t="n">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="E19" t="n">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="F19" t="n">
         <v>1</v>
@@ -5754,16 +5754,16 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>0.05</v>
+        <v>0.017</v>
       </c>
       <c r="C20" t="n">
         <v>2</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
@@ -5779,7 +5779,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>0.029</v>
+        <v>0.05</v>
       </c>
       <c r="C21" t="n">
         <v>1</v>
@@ -5788,7 +5788,7 @@
         <v>0.25</v>
       </c>
       <c r="E21" t="n">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="F21" t="n">
         <v>1</v>
@@ -5807,20 +5807,20 @@
         <v>0.05</v>
       </c>
       <c r="C22" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D22" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -5835,17 +5835,17 @@
         <v>1</v>
       </c>
       <c r="D23" t="n">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="E23" t="n">
         <v>-0.25</v>
       </c>
       <c r="F23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -5854,16 +5854,16 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>0.05</v>
+        <v>0.029</v>
       </c>
       <c r="C24" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="F24" t="n">
         <v>1</v>
@@ -5882,7 +5882,7 @@
         <v>0.029</v>
       </c>
       <c r="C25" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D25" t="n">
         <v>-0.25</v>
@@ -5891,11 +5891,11 @@
         <v>0.25</v>
       </c>
       <c r="F25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -5904,23 +5904,23 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>0.029</v>
+        <v>0.017</v>
       </c>
       <c r="C26" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D26" t="n">
         <v>0.25</v>
       </c>
       <c r="E26" t="n">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="F26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -5935,10 +5935,10 @@
         <v>2</v>
       </c>
       <c r="D27" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
         <v>0</v>
@@ -5954,13 +5954,13 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>0.017</v>
+        <v>0.05</v>
       </c>
       <c r="C28" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D28" t="n">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="E28" t="n">
         <v>0.25</v>
@@ -5979,16 +5979,16 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>0.017</v>
+        <v>0.029</v>
       </c>
       <c r="C29" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D29" t="n">
         <v>-0.25</v>
       </c>
       <c r="E29" t="n">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="F29" t="n">
         <v>1</v>
@@ -6004,13 +6004,13 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>0.017</v>
+        <v>0.029</v>
       </c>
       <c r="C30" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D30" t="n">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="E30" t="n">
         <v>0.25</v>
@@ -6029,16 +6029,16 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>0.05</v>
+        <v>0.017</v>
       </c>
       <c r="C31" t="n">
         <v>2</v>
       </c>
       <c r="D31" t="n">
+        <v>-0.25</v>
+      </c>
+      <c r="E31" t="n">
         <v>0.25</v>
-      </c>
-      <c r="E31" t="n">
-        <v>-0.25</v>
       </c>
       <c r="F31" t="n">
         <v>1</v>
@@ -6105,7 +6105,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.05</v>
+        <v>0.029</v>
       </c>
       <c r="C2" t="n">
         <v>3</v>
@@ -6142,11 +6142,11 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -6158,13 +6158,13 @@
         <v>0.017</v>
       </c>
       <c r="C4" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D4" t="n">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="E4" t="n">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -6180,7 +6180,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>0.029</v>
+        <v>0.017</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -6189,14 +6189,14 @@
         <v>0.25</v>
       </c>
       <c r="E5" t="n">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="F5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -6205,23 +6205,23 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>0.05</v>
+        <v>0.029</v>
       </c>
       <c r="C6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D6" t="n">
+        <v>-0.25</v>
+      </c>
+      <c r="E6" t="n">
         <v>0.25</v>
       </c>
-      <c r="E6" t="n">
-        <v>-0.25</v>
-      </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -6230,7 +6230,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>0.05</v>
+        <v>0.029</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -6239,7 +6239,7 @@
         <v>-0.25</v>
       </c>
       <c r="E7" t="n">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -6255,13 +6255,13 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>0.017</v>
+        <v>0.029</v>
       </c>
       <c r="C8" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D8" t="n">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="E8" t="n">
         <v>-0.25</v>
@@ -6280,16 +6280,16 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>0.05</v>
+        <v>0.017</v>
       </c>
       <c r="C9" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D9" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="E9" t="n">
         <v>-0.25</v>
-      </c>
-      <c r="E9" t="n">
-        <v>0.25</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
@@ -6314,7 +6314,7 @@
         <v>0.25</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="F10" t="n">
         <v>1</v>
@@ -6330,23 +6330,23 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>0.05</v>
+        <v>0.017</v>
       </c>
       <c r="C11" t="n">
         <v>1</v>
       </c>
       <c r="D11" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -6358,20 +6358,20 @@
         <v>0.017</v>
       </c>
       <c r="C12" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D12" t="n">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="E12" t="n">
         <v>-0.25</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -6380,23 +6380,23 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>0.05</v>
+        <v>0.029</v>
       </c>
       <c r="C13" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D13" t="n">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="E13" t="n">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="F13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -6405,23 +6405,23 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>0.017</v>
+        <v>0.029</v>
       </c>
       <c r="C14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D14" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -6433,13 +6433,13 @@
         <v>0.017</v>
       </c>
       <c r="C15" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="F15" t="n">
         <v>1</v>
@@ -6458,20 +6458,20 @@
         <v>0.029</v>
       </c>
       <c r="C16" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D16" t="n">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="E16" t="n">
         <v>-0.25</v>
       </c>
       <c r="F16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -6480,23 +6480,23 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>0.05</v>
+        <v>0.017</v>
       </c>
       <c r="C17" t="n">
         <v>2</v>
       </c>
       <c r="D17" t="n">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="E17" t="n">
         <v>-0.25</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -6505,10 +6505,10 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>0.017</v>
+        <v>0.029</v>
       </c>
       <c r="C18" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D18" t="n">
         <v>0.25</v>
@@ -6530,23 +6530,23 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>0.017</v>
+        <v>0.05</v>
       </c>
       <c r="C19" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="F19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -6558,20 +6558,20 @@
         <v>0.017</v>
       </c>
       <c r="C20" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D20" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -6580,23 +6580,23 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>0.05</v>
+        <v>0.017</v>
       </c>
       <c r="C21" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D21" t="n">
         <v>0.25</v>
       </c>
       <c r="E21" t="n">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -6608,13 +6608,13 @@
         <v>0.029</v>
       </c>
       <c r="C22" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D22" t="n">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="E22" t="n">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -6630,16 +6630,16 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>0.05</v>
+        <v>0.029</v>
       </c>
       <c r="C23" t="n">
         <v>2</v>
       </c>
       <c r="D23" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="E23" t="n">
         <v>-0.25</v>
-      </c>
-      <c r="E23" t="n">
-        <v>0.25</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
@@ -6655,23 +6655,23 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>0.05</v>
+        <v>0.017</v>
       </c>
       <c r="C24" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D24" t="n">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="E24" t="n">
         <v>0.25</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -6680,10 +6680,10 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>0.05</v>
+        <v>0.017</v>
       </c>
       <c r="C25" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D25" t="n">
         <v>0.25</v>
@@ -6692,11 +6692,11 @@
         <v>0.25</v>
       </c>
       <c r="F25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -6708,10 +6708,10 @@
         <v>0.029</v>
       </c>
       <c r="C26" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D26" t="n">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="E26" t="n">
         <v>-0.25</v>
@@ -6733,10 +6733,10 @@
         <v>0.017</v>
       </c>
       <c r="C27" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D27" t="n">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="E27" t="n">
         <v>0.25</v>
@@ -6761,10 +6761,10 @@
         <v>1</v>
       </c>
       <c r="D28" t="n">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>1</v>
@@ -6783,20 +6783,20 @@
         <v>0.029</v>
       </c>
       <c r="C29" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D29" t="n">
+        <v>-0.25</v>
+      </c>
+      <c r="E29" t="n">
         <v>0.25</v>
       </c>
-      <c r="E29" t="n">
-        <v>-0.25</v>
-      </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -6805,7 +6805,7 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>0.05</v>
+        <v>0.017</v>
       </c>
       <c r="C30" t="n">
         <v>3</v>
@@ -6817,11 +6817,11 @@
         <v>0.25</v>
       </c>
       <c r="F30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -6830,10 +6830,10 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>0.017</v>
+        <v>0.05</v>
       </c>
       <c r="C31" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D31" t="n">
         <v>-0.25</v>
@@ -6842,11 +6842,11 @@
         <v>-0.25</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -6877,7 +6877,7 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>go_stim</t>
+          <t>GNG_stim</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
@@ -6896,11 +6896,11 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_26.jpeg</t>
+          <t>go_stimuli\puppy_24.jpeg</t>
         </is>
       </c>
       <c r="D2" t="n">
@@ -6917,11 +6917,11 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>6</v>
+        <v>4.5</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_12.jpeg</t>
+          <t>go_stimuli\puppy_20.jpeg</t>
         </is>
       </c>
       <c r="D3" t="n">
@@ -6942,7 +6942,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_23.jpeg</t>
+          <t>go_stimuli\puppy_30.jpg</t>
         </is>
       </c>
       <c r="D4" t="n">
@@ -6959,11 +6959,11 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_7.jpg</t>
+          <t>go_stimuli\puppy_25.jpeg</t>
         </is>
       </c>
       <c r="D5" t="n">
@@ -6980,11 +6980,11 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>5.5</v>
+        <v>4.5</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_5.jpg</t>
+          <t>go_stimuli\puppy_15.jpeg</t>
         </is>
       </c>
       <c r="D6" t="n">
@@ -7001,11 +7001,11 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>4</v>
+        <v>6.5</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_6.jpg</t>
+          <t>go_stimuli\puppy_14.jpeg</t>
         </is>
       </c>
       <c r="D7" t="n">
@@ -7022,11 +7022,11 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_27.jpg</t>
+          <t>go_stimuli\puppy_28.jpg</t>
         </is>
       </c>
       <c r="D8" t="n">
@@ -7043,11 +7043,11 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>5.5</v>
+        <v>6.5</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_16.jpeg</t>
+          <t>go_stimuli\puppy_11.jpeg</t>
         </is>
       </c>
       <c r="D9" t="n">
@@ -7068,7 +7068,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_25.jpeg</t>
+          <t>go_stimuli\puppy_29.jpg</t>
         </is>
       </c>
       <c r="D10" t="n">
@@ -7085,11 +7085,11 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_28.jpg</t>
+          <t>go_stimuli\puppy_4.jpg</t>
         </is>
       </c>
       <c r="D11" t="n">
@@ -7110,7 +7110,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_14.jpeg</t>
+          <t>go_stimuli\puppy_2.jpg</t>
         </is>
       </c>
       <c r="D12" t="n">
@@ -7127,11 +7127,11 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>5.5</v>
+        <v>4</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_20.jpeg</t>
+          <t>go_stimuli\puppy_21.jpeg</t>
         </is>
       </c>
       <c r="D13" t="n">
@@ -7148,11 +7148,11 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>4.5</v>
+        <v>6</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_4.jpg</t>
+          <t>go_stimuli\puppy_23.jpeg</t>
         </is>
       </c>
       <c r="D14" t="n">
@@ -7169,11 +7169,11 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>6.5</v>
+        <v>4.5</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_8.jpg</t>
+          <t>go_stimuli\puppy_7.jpg</t>
         </is>
       </c>
       <c r="D15" t="n">
@@ -7190,11 +7190,11 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_2.jpg</t>
+          <t>go_stimuli\puppy_17.jpeg</t>
         </is>
       </c>
       <c r="D16" t="n">
@@ -7215,7 +7215,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_15.jpeg</t>
+          <t>go_stimuli\puppy_3.jpg</t>
         </is>
       </c>
       <c r="D17" t="n">
@@ -7232,11 +7232,11 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_29.jpg</t>
+          <t>go_stimuli\puppy_18.jpeg</t>
         </is>
       </c>
       <c r="D18" t="n">
@@ -7253,11 +7253,11 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_17.jpeg</t>
+          <t>go_stimuli\puppy_22.jpeg</t>
         </is>
       </c>
       <c r="D19" t="n">
@@ -7274,11 +7274,11 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>4</v>
+        <v>6.5</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_19.jpeg</t>
+          <t>go_stimuli\puppy_27.jpg</t>
         </is>
       </c>
       <c r="D20" t="n">
@@ -7295,11 +7295,11 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>5</v>
+        <v>6.5</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_22.jpeg</t>
+          <t>go_stimuli\puppy_6.jpg</t>
         </is>
       </c>
       <c r="D21" t="n">
@@ -7357,11 +7357,11 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>5.5</v>
+        <v>6.5</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>no_go_stimuli\spider_24.jpeg</t>
+          <t>no_go_stimuli\spider_29.jpg</t>
         </is>
       </c>
       <c r="D2" t="n">
@@ -7378,19 +7378,19 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>4</v>
+        <v>6.5</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>no_go_stimuli\spider_12.jpeg</t>
+          <t>go_stimuli\puppy_12.jpeg</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>space</t>
         </is>
       </c>
     </row>
@@ -7403,7 +7403,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>no_go_stimuli\spider_10.jpeg</t>
+          <t>no_go_stimuli\spider_20.jpg</t>
         </is>
       </c>
       <c r="D4" t="n">
@@ -7420,11 +7420,11 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_6.jpg</t>
+          <t>go_stimuli\puppy_3.jpg</t>
         </is>
       </c>
       <c r="D5" t="n">
@@ -7441,11 +7441,11 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>6.5</v>
+        <v>4.5</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_18.jpeg</t>
+          <t>go_stimuli\puppy_13.jpg</t>
         </is>
       </c>
       <c r="D6" t="n">
@@ -7462,11 +7462,11 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_20.jpeg</t>
+          <t>go_stimuli\puppy_4.jpg</t>
         </is>
       </c>
       <c r="D7" t="n">
@@ -7483,19 +7483,19 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>6.5</v>
+        <v>4</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_27.jpg</t>
+          <t>no_go_stimuli\spider_9.jpeg</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>space</t>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -7508,7 +7508,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>no_go_stimuli\spider_3.jpeg</t>
+          <t>no_go_stimuli\spider_19.jpg</t>
         </is>
       </c>
       <c r="D9" t="n">
@@ -7525,11 +7525,11 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>5.5</v>
+        <v>4</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>no_go_stimuli\spider_2.jpeg</t>
+          <t>no_go_stimuli\spider_4.jpeg</t>
         </is>
       </c>
       <c r="D10" t="n">
@@ -7546,11 +7546,11 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>no_go_stimuli\spider_14.jpeg</t>
+          <t>no_go_stimuli\spider_6.jpeg</t>
         </is>
       </c>
       <c r="D11" t="n">
@@ -7571,15 +7571,15 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>no_go_stimuli\spider_16.jpeg</t>
+          <t>go_stimuli\puppy_7.jpg</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>space</t>
         </is>
       </c>
     </row>
@@ -7592,15 +7592,15 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_16.jpeg</t>
+          <t>no_go_stimuli\spider_15.jpeg</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>space</t>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -7609,11 +7609,11 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>5.5</v>
+        <v>4</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_7.jpg</t>
+          <t>go_stimuli\puppy_21.jpeg</t>
         </is>
       </c>
       <c r="D14" t="n">
@@ -7634,7 +7634,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_25.jpeg</t>
+          <t>go_stimuli\puppy_5.jpg</t>
         </is>
       </c>
       <c r="D15" t="n">
@@ -7651,11 +7651,11 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>4.5</v>
+        <v>6.5</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_29.jpg</t>
+          <t>go_stimuli\puppy_18.jpeg</t>
         </is>
       </c>
       <c r="D16" t="n">
@@ -7672,19 +7672,19 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>no_go_stimuli\spider_18.jpg</t>
+          <t>go_stimuli\puppy_25.jpeg</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>space</t>
         </is>
       </c>
     </row>
@@ -7693,19 +7693,19 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_1.jpg</t>
+          <t>no_go_stimuli\spider_8.jpeg</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>space</t>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -7718,15 +7718,15 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_24.jpeg</t>
+          <t>no_go_stimuli\spider_23.jpg</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>space</t>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -7735,19 +7735,19 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>4.5</v>
+        <v>6.5</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>no_go_stimuli\spider_8.jpeg</t>
+          <t>go_stimuli\puppy_20.jpeg</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>space</t>
         </is>
       </c>
     </row>
@@ -7756,11 +7756,11 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>6.5</v>
+        <v>4.5</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>no_go_stimuli\spider_7.jpeg</t>
+          <t>no_go_stimuli\spider_18.jpg</t>
         </is>
       </c>
       <c r="D21" t="n">
@@ -7821,14 +7821,14 @@
         <v>3</v>
       </c>
       <c r="C2" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -7837,10 +7837,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="C3" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D3" t="n">
         <v>1</v>
@@ -7856,10 +7856,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -7875,17 +7875,17 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C5" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -7894,10 +7894,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="C6" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D6" t="n">
         <v>1</v>
@@ -7913,17 +7913,17 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C7" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -7935,7 +7935,7 @@
         <v>1</v>
       </c>
       <c r="C8" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -7951,10 +7951,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C9" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
@@ -7973,14 +7973,14 @@
         <v>3</v>
       </c>
       <c r="C10" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -7989,17 +7989,17 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C11" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -8008,17 +8008,17 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C12" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -8027,17 +8027,17 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C13" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -8046,10 +8046,10 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C14" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -8065,10 +8065,10 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
@@ -8084,17 +8084,17 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C16" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -8103,17 +8103,17 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C17" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -8122,10 +8122,10 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C18" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D18" t="n">
         <v>0</v>
@@ -8141,17 +8141,17 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -8160,17 +8160,17 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C20" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -8179,17 +8179,17 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C21" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -8239,10 +8239,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -8261,7 +8261,7 @@
         <v>3</v>
       </c>
       <c r="C3" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -8280,7 +8280,7 @@
         <v>8</v>
       </c>
       <c r="C4" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -8296,17 +8296,17 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C5" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -8315,10 +8315,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C6" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -8334,10 +8334,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C7" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -8353,17 +8353,17 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="C8" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -8375,14 +8375,14 @@
         <v>7</v>
       </c>
       <c r="C9" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -8391,10 +8391,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C10" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D10" t="n">
         <v>1</v>
@@ -8410,17 +8410,17 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -8429,17 +8429,17 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -8448,10 +8448,10 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
+        <v>1</v>
+      </c>
+      <c r="C13" t="n">
         <v>7</v>
-      </c>
-      <c r="C13" t="n">
-        <v>4</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -8467,17 +8467,17 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C14" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -8486,10 +8486,10 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C15" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D15" t="n">
         <v>1</v>
@@ -8505,10 +8505,10 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C16" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D16" t="n">
         <v>1</v>
@@ -8524,10 +8524,10 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -8543,10 +8543,10 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C18" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D18" t="n">
         <v>1</v>
@@ -8562,10 +8562,10 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C19" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D19" t="n">
         <v>1</v>
@@ -8581,10 +8581,10 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -8600,10 +8600,10 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
+        <v>9</v>
+      </c>
+      <c r="C21" t="n">
         <v>7</v>
-      </c>
-      <c r="C21" t="n">
-        <v>4</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
@@ -8660,17 +8660,17 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C2" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -8682,14 +8682,14 @@
         <v>7</v>
       </c>
       <c r="C3" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -8698,10 +8698,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C4" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -8720,14 +8720,14 @@
         <v>5</v>
       </c>
       <c r="C5" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -8739,14 +8739,14 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -8755,10 +8755,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C7" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D7" t="n">
         <v>1</v>
@@ -8777,14 +8777,14 @@
         <v>7</v>
       </c>
       <c r="C8" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -8793,17 +8793,17 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C9" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -8812,10 +8812,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C10" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D10" t="n">
         <v>1</v>
@@ -8834,14 +8834,14 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -8850,10 +8850,10 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C12" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
@@ -8869,17 +8869,17 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -8888,17 +8888,17 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C14" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -8910,7 +8910,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
@@ -8926,17 +8926,17 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C16" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -8945,17 +8945,17 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C17" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -8964,10 +8964,10 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C18" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D18" t="n">
         <v>0</v>
@@ -8983,10 +8983,10 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C19" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -9002,17 +9002,17 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="C20" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -9021,17 +9021,17 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C21" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -9076,7 +9076,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -9092,7 +9092,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -9108,14 +9108,14 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -9124,7 +9124,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -9140,14 +9140,14 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -9156,14 +9156,14 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -9172,7 +9172,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -9188,7 +9188,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
@@ -9204,14 +9204,14 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -9220,14 +9220,14 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -9236,7 +9236,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C12" t="n">
         <v>1</v>
@@ -9252,7 +9252,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C13" t="n">
         <v>1</v>
@@ -9268,14 +9268,14 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -9284,7 +9284,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
@@ -9300,14 +9300,14 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -9316,14 +9316,14 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -9332,7 +9332,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
@@ -9348,7 +9348,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C19" t="n">
         <v>1</v>
@@ -9364,7 +9364,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -9380,14 +9380,14 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -9432,7 +9432,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -9448,7 +9448,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -9464,7 +9464,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -9480,14 +9480,14 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -9499,11 +9499,11 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -9512,7 +9512,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -9528,7 +9528,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
@@ -9544,7 +9544,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
@@ -9560,7 +9560,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -9576,14 +9576,14 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -9595,11 +9595,11 @@
         <v>8</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -9624,7 +9624,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -9640,7 +9640,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
@@ -9659,11 +9659,11 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -9688,14 +9688,14 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -9704,14 +9704,14 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -9720,14 +9720,14 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -9736,14 +9736,14 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>

--- a/participants/participant_21/participant_21_conditions.xlsx
+++ b/participants/participant_21/participant_21_conditions.xlsx
@@ -7,29 +7,29 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="go_stims-1650996114402416" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="GNG_stims-16509961144263744" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="go_stims-16509961144263744" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="GNG_stims-16509961144424143" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="ZB-match_3-16509961144584117" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="ZB-match_7-16509961145143778" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="ZB-match_7-1650996114602421" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="OB-16509961147863748" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="OB-1650996115186375" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet name="OB-16509961153943777" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet name="TB-16509961157784116" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet name="TB-16509961159864101" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet name="TB-1650996116066561" sheetId="13" state="visible" r:id="rId13"/>
-    <sheet name="ZM_stims-16509961160905957" sheetId="14" state="visible" r:id="rId14"/>
-    <sheet name="MM_stims-16509961161146102" sheetId="15" state="visible" r:id="rId15"/>
-    <sheet name="ZM_stims-16509961161146102" sheetId="16" state="visible" r:id="rId16"/>
-    <sheet name="MM_stims-16509961161306055" sheetId="17" state="visible" r:id="rId17"/>
-    <sheet name="ZM_stims-16509961161306055" sheetId="18" state="visible" r:id="rId18"/>
-    <sheet name="MM_stims-16509961161465964" sheetId="19" state="visible" r:id="rId19"/>
-    <sheet name="SAT_stims-16509961161465964" sheetId="20" state="visible" r:id="rId20"/>
-    <sheet name="SAT_stims-16509961161625717" sheetId="21" state="visible" r:id="rId21"/>
-    <sheet name="vSAT_stims-16509961161786017" sheetId="22" state="visible" r:id="rId22"/>
-    <sheet name="vSAT_stims-16509961161945977" sheetId="23" state="visible" r:id="rId23"/>
+    <sheet name="go_stims-16511687133874135" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="GNG_stims-16511687134102376" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="go_stims-16511687134123068" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="GNG_stims-16511687134272408" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="ZB-match_8-16511687135532124" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="ZB-match_3-1651168714017146" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="ZB-match_1-16511687140644267" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="OB-16511687142113855" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="OB-1651168714242898" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="OB-16511687145394976" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet name="TB-16511687148053193" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet name="TB-16511687154333007" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet name="TB-16511687157588246" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet name="ZM_stims-16511687157862463" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet name="MM_stims-16511687157998545" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet name="ZM_stims-16511687157998545" sheetId="16" state="visible" r:id="rId16"/>
+    <sheet name="MM_stims-16511687158154333" sheetId="17" state="visible" r:id="rId17"/>
+    <sheet name="ZM_stims-16511687158154333" sheetId="18" state="visible" r:id="rId18"/>
+    <sheet name="MM_stims-16511687158305962" sheetId="19" state="visible" r:id="rId19"/>
+    <sheet name="SAT_stims-1651168715834595" sheetId="20" state="visible" r:id="rId20"/>
+    <sheet name="SAT_stims-16511687158514347" sheetId="21" state="visible" r:id="rId21"/>
+    <sheet name="vSAT_stims-1651168715867472" sheetId="22" state="visible" r:id="rId22"/>
+    <sheet name="vSAT_stims-1651168715898432" sheetId="23" state="visible" r:id="rId23"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -482,11 +482,11 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_10.jpg</t>
+          <t>go_stimuli\puppy_19.jpeg</t>
         </is>
       </c>
       <c r="D2" t="n">
@@ -503,11 +503,11 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_28.jpg</t>
+          <t>go_stimuli\puppy_29.jpg</t>
         </is>
       </c>
       <c r="D3" t="n">
@@ -524,11 +524,11 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>4.5</v>
+        <v>5.5</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_11.jpeg</t>
+          <t>go_stimuli\puppy_21.jpeg</t>
         </is>
       </c>
       <c r="D4" t="n">
@@ -549,7 +549,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_12.jpeg</t>
+          <t>go_stimuli\puppy_20.jpeg</t>
         </is>
       </c>
       <c r="D5" t="n">
@@ -566,11 +566,11 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_26.jpeg</t>
+          <t>go_stimuli\puppy_13.jpg</t>
         </is>
       </c>
       <c r="D6" t="n">
@@ -587,11 +587,11 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>5.5</v>
+        <v>4</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_20.jpeg</t>
+          <t>go_stimuli\puppy_22.jpeg</t>
         </is>
       </c>
       <c r="D7" t="n">
@@ -608,11 +608,11 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>5</v>
+        <v>6.5</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_16.jpeg</t>
+          <t>go_stimuli\puppy_8.jpg</t>
         </is>
       </c>
       <c r="D8" t="n">
@@ -629,11 +629,11 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_19.jpeg</t>
+          <t>go_stimuli\puppy_12.jpeg</t>
         </is>
       </c>
       <c r="D9" t="n">
@@ -650,7 +650,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>5.5</v>
+        <v>4.5</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -671,11 +671,11 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_4.jpg</t>
+          <t>go_stimuli\puppy_26.jpeg</t>
         </is>
       </c>
       <c r="D11" t="n">
@@ -692,11 +692,11 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_9.jpg</t>
+          <t>go_stimuli\puppy_5.jpg</t>
         </is>
       </c>
       <c r="D12" t="n">
@@ -713,11 +713,11 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_14.jpeg</t>
+          <t>go_stimuli\puppy_10.jpg</t>
         </is>
       </c>
       <c r="D13" t="n">
@@ -734,11 +734,11 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_27.jpg</t>
+          <t>go_stimuli\puppy_28.jpg</t>
         </is>
       </c>
       <c r="D14" t="n">
@@ -755,11 +755,11 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>4</v>
+        <v>6.5</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_30.jpg</t>
+          <t>go_stimuli\puppy_25.jpeg</t>
         </is>
       </c>
       <c r="D15" t="n">
@@ -776,11 +776,11 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_25.jpeg</t>
+          <t>go_stimuli\puppy_16.jpeg</t>
         </is>
       </c>
       <c r="D16" t="n">
@@ -801,7 +801,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_8.jpg</t>
+          <t>go_stimuli\puppy_17.jpeg</t>
         </is>
       </c>
       <c r="D17" t="n">
@@ -818,11 +818,11 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_17.jpeg</t>
+          <t>go_stimuli\puppy_4.jpg</t>
         </is>
       </c>
       <c r="D18" t="n">
@@ -839,11 +839,11 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>6</v>
+        <v>4.5</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_3.jpg</t>
+          <t>go_stimuli\puppy_2.jpg</t>
         </is>
       </c>
       <c r="D19" t="n">
@@ -860,11 +860,11 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>5.5</v>
+        <v>4</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_18.jpeg</t>
+          <t>go_stimuli\puppy_27.jpg</t>
         </is>
       </c>
       <c r="D20" t="n">
@@ -881,11 +881,11 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_22.jpeg</t>
+          <t>go_stimuli\puppy_9.jpg</t>
         </is>
       </c>
       <c r="D21" t="n">
@@ -938,7 +938,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -954,14 +954,14 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -970,14 +970,14 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -989,11 +989,11 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -1002,14 +1002,14 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -1018,7 +1018,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -1034,14 +1034,14 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -1050,14 +1050,14 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -1066,7 +1066,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C10" t="n">
         <v>1</v>
@@ -1082,14 +1082,14 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -1098,14 +1098,14 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -1114,7 +1114,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -1130,7 +1130,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -1146,14 +1146,14 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -1162,7 +1162,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C16" t="n">
         <v>1</v>
@@ -1178,14 +1178,14 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -1194,7 +1194,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
@@ -1210,14 +1210,14 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -1226,14 +1226,14 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -1242,7 +1242,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
@@ -1294,7 +1294,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -1310,7 +1310,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -1326,14 +1326,14 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -1342,14 +1342,14 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -1358,14 +1358,14 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -1377,11 +1377,11 @@
         <v>6</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -1390,7 +1390,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -1406,14 +1406,14 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -1425,11 +1425,11 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -1438,14 +1438,14 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -1470,7 +1470,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -1486,7 +1486,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -1502,14 +1502,14 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -1518,14 +1518,14 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -1534,14 +1534,14 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -1550,14 +1550,14 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -1566,14 +1566,14 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -1582,14 +1582,14 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -1598,14 +1598,14 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -1650,7 +1650,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -1666,7 +1666,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -1685,11 +1685,11 @@
         <v>2</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -1698,7 +1698,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -1714,14 +1714,14 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -1730,7 +1730,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -1746,14 +1746,14 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -1762,7 +1762,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
@@ -1778,7 +1778,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C10" t="n">
         <v>1</v>
@@ -1794,7 +1794,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C11" t="n">
         <v>1</v>
@@ -1810,7 +1810,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C12" t="n">
         <v>1</v>
@@ -1826,14 +1826,14 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -1842,7 +1842,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -1858,14 +1858,14 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -1874,7 +1874,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -1890,7 +1890,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C17" t="n">
         <v>1</v>
@@ -1906,7 +1906,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
@@ -1922,7 +1922,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C19" t="n">
         <v>1</v>
@@ -1938,7 +1938,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C20" t="n">
         <v>1</v>
@@ -1954,7 +1954,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
@@ -2006,7 +2006,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -2022,7 +2022,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -2038,7 +2038,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -2054,7 +2054,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -2070,7 +2070,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -2086,14 +2086,14 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -2102,7 +2102,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
@@ -2118,14 +2118,14 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -2134,14 +2134,14 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -2150,14 +2150,14 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -2169,11 +2169,11 @@
         <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -2182,14 +2182,14 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -2198,7 +2198,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -2214,7 +2214,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
@@ -2230,14 +2230,14 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -2246,14 +2246,14 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -2262,14 +2262,14 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -2278,7 +2278,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C19" t="n">
         <v>1</v>
@@ -2297,11 +2297,11 @@
         <v>7</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -2313,11 +2313,11 @@
         <v>2</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -2363,7 +2363,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>zero_move_stimuli\zero_move_6.jpg</t>
+          <t>zero_move_stimuli\zero_move_1.jpg</t>
         </is>
       </c>
       <c r="C2" t="n">
@@ -2381,7 +2381,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>zero_move_stimuli\zero_move_2.jpg</t>
+          <t>zero_move_stimuli\zero_move_4.jpg</t>
         </is>
       </c>
       <c r="C3" t="n">
@@ -2417,7 +2417,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>zero_move_stimuli\zero_move_1.jpg</t>
+          <t>zero_move_stimuli\zero_move_6.jpg</t>
         </is>
       </c>
       <c r="C5" t="n">
@@ -2435,7 +2435,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>zero_move_stimuli\zero_move_4.jpg</t>
+          <t>zero_move_stimuli\zero_move_2.jpg</t>
         </is>
       </c>
       <c r="C6" t="n">
@@ -2507,7 +2507,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>multi_move_stimuli\stim_not_two_move\stim_not_two_move_2.jpg</t>
+          <t>multi_move_stimuli\stim_not_two_move\stim_not_two_move_3.jpg</t>
         </is>
       </c>
       <c r="C2" t="n">
@@ -2525,15 +2525,15 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>multi_move_stimuli\stim_two_move\stim_two_move_3.jpg</t>
+          <t>multi_move_stimuli\stim_not_two_move\stim_not_two_move_4.jpg</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -2543,7 +2543,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>multi_move_stimuli\stim_not_two_move\stim_not_two_move_4.jpg</t>
+          <t>multi_move_stimuli\stim_not_two_move\stim_not_two_move_6.jpg</t>
         </is>
       </c>
       <c r="C4" t="n">
@@ -2561,15 +2561,15 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>multi_move_stimuli\stim_not_two_move\stim_not_two_move_3.jpg</t>
+          <t>multi_move_stimuli\stim_two_move\stim_two_move_4.jpg</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -2579,7 +2579,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>multi_move_stimuli\stim_two_move\stim_two_move_6.jpg</t>
+          <t>multi_move_stimuli\stim_two_move\stim_two_move_3.jpg</t>
         </is>
       </c>
       <c r="C6" t="n">
@@ -2597,7 +2597,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>multi_move_stimuli\stim_two_move\stim_two_move_2.jpg</t>
+          <t>multi_move_stimuli\stim_two_move\stim_two_move_5.jpg</t>
         </is>
       </c>
       <c r="C7" t="n">
@@ -2651,7 +2651,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>zero_move_stimuli\zero_move_3.jpg</t>
+          <t>zero_move_stimuli\zero_move_6.jpg</t>
         </is>
       </c>
       <c r="C2" t="n">
@@ -2687,7 +2687,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>zero_move_stimuli\zero_move_2.jpg</t>
+          <t>zero_move_stimuli\zero_move_4.jpg</t>
         </is>
       </c>
       <c r="C4" t="n">
@@ -2705,7 +2705,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>zero_move_stimuli\zero_move_4.jpg</t>
+          <t>zero_move_stimuli\zero_move_2.jpg</t>
         </is>
       </c>
       <c r="C5" t="n">
@@ -2741,7 +2741,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>zero_move_stimuli\zero_move_6.jpg</t>
+          <t>zero_move_stimuli\zero_move_3.jpg</t>
         </is>
       </c>
       <c r="C7" t="n">
@@ -2795,15 +2795,15 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>multi_move_stimuli\stim_not_two_move\stim_not_two_move_4.jpg</t>
+          <t>multi_move_stimuli\stim_two_move\stim_two_move_2.jpg</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -2813,15 +2813,15 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>multi_move_stimuli\stim_two_move\stim_two_move_1.jpg</t>
+          <t>multi_move_stimuli\stim_not_two_move\stim_not_two_move_2.jpg</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -2831,7 +2831,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>multi_move_stimuli\stim_not_two_move\stim_not_two_move_5.jpg</t>
+          <t>multi_move_stimuli\stim_not_two_move\stim_not_two_move_6.jpg</t>
         </is>
       </c>
       <c r="C4" t="n">
@@ -2849,7 +2849,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>multi_move_stimuli\stim_not_two_move\stim_not_two_move_6.jpg</t>
+          <t>multi_move_stimuli\stim_not_two_move\stim_not_two_move_3.jpg</t>
         </is>
       </c>
       <c r="C5" t="n">
@@ -2867,7 +2867,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>multi_move_stimuli\stim_two_move\stim_two_move_5.jpg</t>
+          <t>multi_move_stimuli\stim_two_move\stim_two_move_1.jpg</t>
         </is>
       </c>
       <c r="C6" t="n">
@@ -2885,7 +2885,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>multi_move_stimuli\stim_two_move\stim_two_move_4.jpg</t>
+          <t>multi_move_stimuli\stim_two_move\stim_two_move_5.jpg</t>
         </is>
       </c>
       <c r="C7" t="n">
@@ -2939,7 +2939,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>zero_move_stimuli\zero_move_3.jpg</t>
+          <t>zero_move_stimuli\zero_move_4.jpg</t>
         </is>
       </c>
       <c r="C2" t="n">
@@ -2957,7 +2957,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>zero_move_stimuli\zero_move_2.jpg</t>
+          <t>zero_move_stimuli\zero_move_1.jpg</t>
         </is>
       </c>
       <c r="C3" t="n">
@@ -2975,7 +2975,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>zero_move_stimuli\zero_move_5.jpg</t>
+          <t>zero_move_stimuli\zero_move_6.jpg</t>
         </is>
       </c>
       <c r="C4" t="n">
@@ -2993,7 +2993,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>zero_move_stimuli\zero_move_1.jpg</t>
+          <t>zero_move_stimuli\zero_move_5.jpg</t>
         </is>
       </c>
       <c r="C5" t="n">
@@ -3011,7 +3011,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>zero_move_stimuli\zero_move_6.jpg</t>
+          <t>zero_move_stimuli\zero_move_2.jpg</t>
         </is>
       </c>
       <c r="C6" t="n">
@@ -3029,7 +3029,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>zero_move_stimuli\zero_move_4.jpg</t>
+          <t>zero_move_stimuli\zero_move_3.jpg</t>
         </is>
       </c>
       <c r="C7" t="n">
@@ -3083,7 +3083,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>multi_move_stimuli\stim_two_move\stim_two_move_4.jpg</t>
+          <t>multi_move_stimuli\stim_two_move\stim_two_move_5.jpg</t>
         </is>
       </c>
       <c r="C2" t="n">
@@ -3101,7 +3101,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>multi_move_stimuli\stim_not_two_move\stim_not_two_move_4.jpg</t>
+          <t>multi_move_stimuli\stim_not_two_move\stim_not_two_move_1.jpg</t>
         </is>
       </c>
       <c r="C3" t="n">
@@ -3119,7 +3119,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>multi_move_stimuli\stim_two_move\stim_two_move_2.jpg</t>
+          <t>multi_move_stimuli\stim_two_move\stim_two_move_1.jpg</t>
         </is>
       </c>
       <c r="C4" t="n">
@@ -3137,15 +3137,15 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>multi_move_stimuli\stim_not_two_move\stim_not_two_move_5.jpg</t>
+          <t>multi_move_stimuli\stim_two_move\stim_two_move_6.jpg</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -3155,7 +3155,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>multi_move_stimuli\stim_not_two_move\stim_not_two_move_1.jpg</t>
+          <t>multi_move_stimuli\stim_not_two_move\stim_not_two_move_6.jpg</t>
         </is>
       </c>
       <c r="C6" t="n">
@@ -3173,15 +3173,15 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>multi_move_stimuli\stim_two_move\stim_two_move_1.jpg</t>
+          <t>multi_move_stimuli\stim_not_two_move\stim_not_two_move_4.jpg</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -3235,7 +3235,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_27.jpg</t>
+          <t>go_stimuli\puppy_3.jpg</t>
         </is>
       </c>
       <c r="D2" t="n">
@@ -3252,19 +3252,19 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_2.jpg</t>
+          <t>no_go_stimuli\spider_26.jpg</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>space</t>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -3273,19 +3273,19 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>5.5</v>
+        <v>6.5</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_12.jpeg</t>
+          <t>no_go_stimuli\spider_20.jpg</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>space</t>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -3294,11 +3294,11 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>6.5</v>
+        <v>5.5</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>no_go_stimuli\spider_24.jpeg</t>
+          <t>no_go_stimuli\spider_25.jpg</t>
         </is>
       </c>
       <c r="D5" t="n">
@@ -3319,7 +3319,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>no_go_stimuli\spider_25.jpg</t>
+          <t>no_go_stimuli\spider_16.jpeg</t>
         </is>
       </c>
       <c r="D6" t="n">
@@ -3336,7 +3336,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>4</v>
+        <v>5.5</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -3357,19 +3357,19 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>6.5</v>
+        <v>5.5</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_5.jpg</t>
+          <t>no_go_stimuli\spider_13.jpeg</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>space</t>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -3378,11 +3378,11 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>4.5</v>
+        <v>5.5</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>no_go_stimuli\spider_20.jpg</t>
+          <t>no_go_stimuli\spider_30.jpg</t>
         </is>
       </c>
       <c r="D9" t="n">
@@ -3399,19 +3399,19 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>5.5</v>
+        <v>6.5</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>no_go_stimuli\spider_22.jpg</t>
+          <t>go_stimuli\puppy_23.jpeg</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>space</t>
         </is>
       </c>
     </row>
@@ -3420,19 +3420,19 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>no_go_stimuli\spider_29.jpg</t>
+          <t>go_stimuli\puppy_20.jpeg</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>space</t>
         </is>
       </c>
     </row>
@@ -3441,19 +3441,19 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>4.5</v>
+        <v>6</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>no_go_stimuli\spider_1.jpeg</t>
+          <t>go_stimuli\puppy_28.jpg</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>space</t>
         </is>
       </c>
     </row>
@@ -3462,11 +3462,11 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_15.jpeg</t>
+          <t>go_stimuli\puppy_21.jpeg</t>
         </is>
       </c>
       <c r="D13" t="n">
@@ -3483,19 +3483,19 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_18.jpeg</t>
+          <t>no_go_stimuli\spider_24.jpeg</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>space</t>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -3504,11 +3504,11 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>4</v>
+        <v>6.5</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_24.jpeg</t>
+          <t>go_stimuli\puppy_19.jpeg</t>
         </is>
       </c>
       <c r="D15" t="n">
@@ -3525,19 +3525,19 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>6.5</v>
+        <v>5.5</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_29.jpg</t>
+          <t>no_go_stimuli\spider_29.jpg</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>space</t>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -3546,19 +3546,19 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>4</v>
+        <v>6.5</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>no_go_stimuli\spider_26.jpg</t>
+          <t>go_stimuli\puppy_12.jpeg</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>space</t>
         </is>
       </c>
     </row>
@@ -3567,11 +3567,11 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_13.jpg</t>
+          <t>go_stimuli\puppy_7.jpg</t>
         </is>
       </c>
       <c r="D18" t="n">
@@ -3588,11 +3588,11 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>6</v>
+        <v>4.5</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>no_go_stimuli\spider_30.jpg</t>
+          <t>no_go_stimuli\spider_1.jpeg</t>
         </is>
       </c>
       <c r="D19" t="n">
@@ -3613,7 +3613,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_25.jpeg</t>
+          <t>go_stimuli\puppy_18.jpeg</t>
         </is>
       </c>
       <c r="D20" t="n">
@@ -3630,19 +3630,19 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>6.5</v>
+        <v>5.5</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>no_go_stimuli\spider_21.jpg</t>
+          <t>go_stimuli\puppy_2.jpg</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>space</t>
         </is>
       </c>
     </row>
@@ -3727,10 +3727,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0.029</v>
+        <v>0.017</v>
       </c>
       <c r="C3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -3755,7 +3755,7 @@
         <v>0.017</v>
       </c>
       <c r="C4" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -3780,7 +3780,7 @@
         <v>0.05</v>
       </c>
       <c r="C5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -3827,7 +3827,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>0.017</v>
+        <v>0.05</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -3839,11 +3839,11 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -3852,7 +3852,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>0.029</v>
+        <v>0.017</v>
       </c>
       <c r="C8" t="n">
         <v>2</v>
@@ -3864,11 +3864,11 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -3877,10 +3877,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>0.029</v>
+        <v>0.017</v>
       </c>
       <c r="C9" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
@@ -3889,11 +3889,11 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -3902,7 +3902,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>0.029</v>
+        <v>0.017</v>
       </c>
       <c r="C10" t="n">
         <v>1</v>
@@ -3914,11 +3914,11 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -3930,7 +3930,7 @@
         <v>0.017</v>
       </c>
       <c r="C11" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -3952,7 +3952,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>0.017</v>
+        <v>0.029</v>
       </c>
       <c r="C12" t="n">
         <v>1</v>
@@ -3964,11 +3964,11 @@
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -3977,10 +3977,10 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>0.05</v>
+        <v>0.029</v>
       </c>
       <c r="C13" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -4027,10 +4027,10 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>0.05</v>
+        <v>0.017</v>
       </c>
       <c r="C15" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
@@ -4052,10 +4052,10 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>0.017</v>
+        <v>0.05</v>
       </c>
       <c r="C16" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -4077,10 +4077,10 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>0.017</v>
+        <v>0.05</v>
       </c>
       <c r="C17" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -4102,10 +4102,10 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>0.017</v>
+        <v>0.029</v>
       </c>
       <c r="C18" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D18" t="n">
         <v>0</v>
@@ -4130,7 +4130,7 @@
         <v>0.05</v>
       </c>
       <c r="C19" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -4152,7 +4152,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>0.05</v>
+        <v>0.017</v>
       </c>
       <c r="C20" t="n">
         <v>1</v>
@@ -4180,7 +4180,7 @@
         <v>0.017</v>
       </c>
       <c r="C21" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
@@ -4202,10 +4202,10 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>0.05</v>
+        <v>0.029</v>
       </c>
       <c r="C22" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -4227,7 +4227,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>0.05</v>
+        <v>0.029</v>
       </c>
       <c r="C23" t="n">
         <v>3</v>
@@ -4239,11 +4239,11 @@
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -4255,7 +4255,7 @@
         <v>0.029</v>
       </c>
       <c r="C24" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D24" t="n">
         <v>0</v>
@@ -4277,10 +4277,10 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>0.029</v>
+        <v>0.05</v>
       </c>
       <c r="C25" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -4302,7 +4302,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>0.017</v>
+        <v>0.05</v>
       </c>
       <c r="C26" t="n">
         <v>3</v>
@@ -4314,11 +4314,11 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -4327,7 +4327,7 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>0.017</v>
+        <v>0.05</v>
       </c>
       <c r="C27" t="n">
         <v>1</v>
@@ -4339,11 +4339,11 @@
         <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -4352,7 +4352,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>0.029</v>
+        <v>0.017</v>
       </c>
       <c r="C28" t="n">
         <v>2</v>
@@ -4364,11 +4364,11 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -4377,10 +4377,10 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>0.05</v>
+        <v>0.017</v>
       </c>
       <c r="C29" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
@@ -4389,11 +4389,11 @@
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -4405,7 +4405,7 @@
         <v>0.017</v>
       </c>
       <c r="C30" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D30" t="n">
         <v>0</v>
@@ -4414,11 +4414,11 @@
         <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -4430,7 +4430,7 @@
         <v>0.029</v>
       </c>
       <c r="C31" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -4506,7 +4506,7 @@
         <v>0.05</v>
       </c>
       <c r="C2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -4515,11 +4515,11 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -4528,7 +4528,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0.029</v>
+        <v>0.05</v>
       </c>
       <c r="C3" t="n">
         <v>2</v>
@@ -4553,10 +4553,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>0.05</v>
+        <v>0.029</v>
       </c>
       <c r="C4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -4565,11 +4565,11 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -4578,10 +4578,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>0.029</v>
+        <v>0.017</v>
       </c>
       <c r="C5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -4603,7 +4603,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>0.05</v>
+        <v>0.017</v>
       </c>
       <c r="C6" t="n">
         <v>2</v>
@@ -4615,11 +4615,11 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -4631,7 +4631,7 @@
         <v>0.029</v>
       </c>
       <c r="C7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -4640,11 +4640,11 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -4656,7 +4656,7 @@
         <v>0.017</v>
       </c>
       <c r="C8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -4678,10 +4678,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>0.05</v>
+        <v>0.017</v>
       </c>
       <c r="C9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
@@ -4690,11 +4690,11 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -4703,10 +4703,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>0.017</v>
+        <v>0.05</v>
       </c>
       <c r="C10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -4728,10 +4728,10 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>0.017</v>
+        <v>0.05</v>
       </c>
       <c r="C11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -4740,11 +4740,11 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -4753,10 +4753,10 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>0.017</v>
+        <v>0.05</v>
       </c>
       <c r="C12" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
@@ -4765,11 +4765,11 @@
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -4781,7 +4781,7 @@
         <v>0.05</v>
       </c>
       <c r="C13" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -4803,7 +4803,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>0.017</v>
+        <v>0.05</v>
       </c>
       <c r="C14" t="n">
         <v>1</v>
@@ -4828,10 +4828,10 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>0.029</v>
+        <v>0.05</v>
       </c>
       <c r="C15" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
@@ -4853,10 +4853,10 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>0.029</v>
+        <v>0.05</v>
       </c>
       <c r="C16" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -4865,11 +4865,11 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -4881,7 +4881,7 @@
         <v>0.017</v>
       </c>
       <c r="C17" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -4906,7 +4906,7 @@
         <v>0.05</v>
       </c>
       <c r="C18" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D18" t="n">
         <v>0</v>
@@ -4928,7 +4928,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>0.029</v>
+        <v>0.05</v>
       </c>
       <c r="C19" t="n">
         <v>2</v>
@@ -4940,11 +4940,11 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -4953,7 +4953,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>0.05</v>
+        <v>0.029</v>
       </c>
       <c r="C20" t="n">
         <v>3</v>
@@ -4965,11 +4965,11 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -4978,10 +4978,10 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>0.029</v>
+        <v>0.017</v>
       </c>
       <c r="C21" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
@@ -5031,7 +5031,7 @@
         <v>0.017</v>
       </c>
       <c r="C23" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
@@ -5040,11 +5040,11 @@
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -5078,10 +5078,10 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>0.017</v>
+        <v>0.029</v>
       </c>
       <c r="C25" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -5090,11 +5090,11 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -5103,10 +5103,10 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>0.029</v>
+        <v>0.05</v>
       </c>
       <c r="C26" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -5115,11 +5115,11 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -5128,7 +5128,7 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>0.029</v>
+        <v>0.05</v>
       </c>
       <c r="C27" t="n">
         <v>2</v>
@@ -5140,11 +5140,11 @@
         <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -5153,10 +5153,10 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>0.05</v>
+        <v>0.029</v>
       </c>
       <c r="C28" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -5178,10 +5178,10 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>0.029</v>
+        <v>0.05</v>
       </c>
       <c r="C29" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
@@ -5203,7 +5203,7 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>0.05</v>
+        <v>0.029</v>
       </c>
       <c r="C30" t="n">
         <v>2</v>
@@ -5228,10 +5228,10 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>0.029</v>
+        <v>0.017</v>
       </c>
       <c r="C31" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -5307,7 +5307,7 @@
         <v>0.05</v>
       </c>
       <c r="C2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -5329,16 +5329,16 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0.017</v>
+        <v>0.05</v>
       </c>
       <c r="C3" t="n">
         <v>2</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -5357,10 +5357,10 @@
         <v>0.029</v>
       </c>
       <c r="C4" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D4" t="n">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="E4" t="n">
         <v>-0.25</v>
@@ -5382,20 +5382,20 @@
         <v>0.05</v>
       </c>
       <c r="C5" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D5" t="n">
+        <v>-0.25</v>
+      </c>
+      <c r="E5" t="n">
         <v>0.25</v>
       </c>
-      <c r="E5" t="n">
-        <v>-0.25</v>
-      </c>
       <c r="F5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -5407,13 +5407,13 @@
         <v>0.029</v>
       </c>
       <c r="C6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D6" t="n">
         <v>-0.25</v>
       </c>
       <c r="E6" t="n">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -5432,20 +5432,20 @@
         <v>0.017</v>
       </c>
       <c r="C7" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D7" t="n">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="E7" t="n">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="F7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -5454,23 +5454,23 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>0.05</v>
+        <v>0.017</v>
       </c>
       <c r="C8" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D8" t="n">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -5482,10 +5482,10 @@
         <v>0.029</v>
       </c>
       <c r="C9" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D9" t="n">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="E9" t="n">
         <v>-0.25</v>
@@ -5504,23 +5504,23 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>0.017</v>
+        <v>0.029</v>
       </c>
       <c r="C10" t="n">
         <v>3</v>
       </c>
       <c r="D10" t="n">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="E10" t="n">
         <v>0.25</v>
       </c>
       <c r="F10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -5532,20 +5532,20 @@
         <v>0.029</v>
       </c>
       <c r="C11" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="F11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -5557,7 +5557,7 @@
         <v>0.05</v>
       </c>
       <c r="C12" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D12" t="n">
         <v>0.25</v>
@@ -5579,16 +5579,16 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>0.017</v>
+        <v>0.029</v>
       </c>
       <c r="C13" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D13" t="n">
         <v>0.25</v>
       </c>
       <c r="E13" t="n">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -5607,13 +5607,13 @@
         <v>0.017</v>
       </c>
       <c r="C14" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D14" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="E14" t="n">
         <v>-0.25</v>
-      </c>
-      <c r="E14" t="n">
-        <v>0.25</v>
       </c>
       <c r="F14" t="n">
         <v>1</v>
@@ -5629,16 +5629,16 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>0.017</v>
+        <v>0.029</v>
       </c>
       <c r="C15" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D15" t="n">
         <v>-0.25</v>
       </c>
       <c r="E15" t="n">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="F15" t="n">
         <v>0</v>
@@ -5657,20 +5657,20 @@
         <v>0.05</v>
       </c>
       <c r="C16" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D16" t="n">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="E16" t="n">
         <v>-0.25</v>
       </c>
       <c r="F16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -5688,14 +5688,14 @@
         <v>-0.25</v>
       </c>
       <c r="E17" t="n">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -5704,23 +5704,23 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>0.05</v>
+        <v>0.017</v>
       </c>
       <c r="C18" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="F18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -5732,13 +5732,13 @@
         <v>0.05</v>
       </c>
       <c r="C19" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D19" t="n">
         <v>-0.25</v>
       </c>
       <c r="E19" t="n">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="F19" t="n">
         <v>1</v>
@@ -5760,17 +5760,17 @@
         <v>2</v>
       </c>
       <c r="D20" t="n">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -5785,10 +5785,10 @@
         <v>1</v>
       </c>
       <c r="D21" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
         <v>1</v>
@@ -5804,16 +5804,16 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>0.05</v>
+        <v>0.017</v>
       </c>
       <c r="C22" t="n">
         <v>3</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -5829,16 +5829,16 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>0.017</v>
+        <v>0.029</v>
       </c>
       <c r="C23" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D23" t="n">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="E23" t="n">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
@@ -5854,13 +5854,13 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>0.029</v>
+        <v>0.05</v>
       </c>
       <c r="C24" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D24" t="n">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="E24" t="n">
         <v>-0.25</v>
@@ -5879,7 +5879,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>0.029</v>
+        <v>0.05</v>
       </c>
       <c r="C25" t="n">
         <v>1</v>
@@ -5888,7 +5888,7 @@
         <v>-0.25</v>
       </c>
       <c r="E25" t="n">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -5910,10 +5910,10 @@
         <v>1</v>
       </c>
       <c r="D26" t="n">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="E26" t="n">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
@@ -5929,10 +5929,10 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>0.05</v>
+        <v>0.029</v>
       </c>
       <c r="C27" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D27" t="n">
         <v>0</v>
@@ -5957,7 +5957,7 @@
         <v>0.05</v>
       </c>
       <c r="C28" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D28" t="n">
         <v>-0.25</v>
@@ -5966,11 +5966,11 @@
         <v>0.25</v>
       </c>
       <c r="F28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -5988,7 +5988,7 @@
         <v>-0.25</v>
       </c>
       <c r="E29" t="n">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="F29" t="n">
         <v>1</v>
@@ -6007,13 +6007,13 @@
         <v>0.029</v>
       </c>
       <c r="C30" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D30" t="n">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
         <v>0</v>
@@ -6032,20 +6032,20 @@
         <v>0.017</v>
       </c>
       <c r="C31" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D31" t="n">
         <v>-0.25</v>
       </c>
       <c r="E31" t="n">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="F31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -6108,7 +6108,7 @@
         <v>0.029</v>
       </c>
       <c r="C2" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D2" t="n">
         <v>0.25</v>
@@ -6130,23 +6130,23 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0.017</v>
+        <v>0.05</v>
       </c>
       <c r="C3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -6158,13 +6158,13 @@
         <v>0.017</v>
       </c>
       <c r="C4" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D4" t="n">
         <v>-0.25</v>
       </c>
       <c r="E4" t="n">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -6189,14 +6189,14 @@
         <v>0.25</v>
       </c>
       <c r="E5" t="n">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -6208,20 +6208,20 @@
         <v>0.029</v>
       </c>
       <c r="C6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -6233,20 +6233,20 @@
         <v>0.029</v>
       </c>
       <c r="C7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D7" t="n">
         <v>-0.25</v>
       </c>
       <c r="E7" t="n">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -6261,17 +6261,17 @@
         <v>1</v>
       </c>
       <c r="D8" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -6280,10 +6280,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>0.017</v>
+        <v>0.029</v>
       </c>
       <c r="C9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D9" t="n">
         <v>0.25</v>
@@ -6308,20 +6308,20 @@
         <v>0.05</v>
       </c>
       <c r="C10" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D10" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -6330,23 +6330,23 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>0.017</v>
+        <v>0.05</v>
       </c>
       <c r="C11" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="F11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -6355,16 +6355,16 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>0.017</v>
+        <v>0.05</v>
       </c>
       <c r="C12" t="n">
         <v>3</v>
       </c>
       <c r="D12" t="n">
+        <v>-0.25</v>
+      </c>
+      <c r="E12" t="n">
         <v>0.25</v>
-      </c>
-      <c r="E12" t="n">
-        <v>-0.25</v>
       </c>
       <c r="F12" t="n">
         <v>1</v>
@@ -6380,10 +6380,10 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>0.029</v>
+        <v>0.017</v>
       </c>
       <c r="C13" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D13" t="n">
         <v>-0.25</v>
@@ -6405,16 +6405,16 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>0.029</v>
+        <v>0.05</v>
       </c>
       <c r="C14" t="n">
         <v>1</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="F14" t="n">
         <v>1</v>
@@ -6430,23 +6430,23 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>0.017</v>
+        <v>0.05</v>
       </c>
       <c r="C15" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D15" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -6455,16 +6455,16 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>0.029</v>
+        <v>0.017</v>
       </c>
       <c r="C16" t="n">
         <v>3</v>
       </c>
       <c r="D16" t="n">
+        <v>-0.25</v>
+      </c>
+      <c r="E16" t="n">
         <v>0.25</v>
-      </c>
-      <c r="E16" t="n">
-        <v>-0.25</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -6480,23 +6480,23 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>0.017</v>
+        <v>0.05</v>
       </c>
       <c r="C17" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D17" t="n">
         <v>-0.25</v>
       </c>
       <c r="E17" t="n">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="F17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -6505,23 +6505,23 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>0.029</v>
+        <v>0.017</v>
       </c>
       <c r="C18" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D18" t="n">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="E18" t="n">
         <v>-0.25</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -6530,16 +6530,16 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>0.05</v>
+        <v>0.029</v>
       </c>
       <c r="C19" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D19" t="n">
         <v>-0.25</v>
       </c>
       <c r="E19" t="n">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -6561,10 +6561,10 @@
         <v>3</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
@@ -6580,23 +6580,23 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>0.017</v>
+        <v>0.05</v>
       </c>
       <c r="C21" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D21" t="n">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="E21" t="n">
         <v>0.25</v>
       </c>
       <c r="F21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -6605,16 +6605,16 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>0.029</v>
+        <v>0.05</v>
       </c>
       <c r="C22" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D22" t="n">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -6630,13 +6630,13 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>0.029</v>
+        <v>0.017</v>
       </c>
       <c r="C23" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D23" t="n">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="E23" t="n">
         <v>-0.25</v>
@@ -6655,23 +6655,23 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>0.017</v>
+        <v>0.029</v>
       </c>
       <c r="C24" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D24" t="n">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="E24" t="n">
         <v>0.25</v>
       </c>
       <c r="F24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -6680,16 +6680,16 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>0.017</v>
+        <v>0.029</v>
       </c>
       <c r="C25" t="n">
         <v>1</v>
       </c>
       <c r="D25" t="n">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="E25" t="n">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -6711,17 +6711,17 @@
         <v>3</v>
       </c>
       <c r="D26" t="n">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="E26" t="n">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -6733,13 +6733,13 @@
         <v>0.017</v>
       </c>
       <c r="C27" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D27" t="n">
         <v>0.25</v>
       </c>
       <c r="E27" t="n">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="F27" t="n">
         <v>0</v>
@@ -6755,16 +6755,16 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>0.029</v>
+        <v>0.017</v>
       </c>
       <c r="C28" t="n">
         <v>1</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="F28" t="n">
         <v>1</v>
@@ -6780,16 +6780,16 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>0.029</v>
+        <v>0.017</v>
       </c>
       <c r="C29" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D29" t="n">
         <v>-0.25</v>
       </c>
       <c r="E29" t="n">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="F29" t="n">
         <v>1</v>
@@ -6805,7 +6805,7 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>0.017</v>
+        <v>0.029</v>
       </c>
       <c r="C30" t="n">
         <v>3</v>
@@ -6817,11 +6817,11 @@
         <v>0.25</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -6833,13 +6833,13 @@
         <v>0.05</v>
       </c>
       <c r="C31" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D31" t="n">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="E31" t="n">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="F31" t="n">
         <v>1</v>
@@ -6896,11 +6896,11 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>5</v>
+        <v>6.5</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_24.jpeg</t>
+          <t>go_stimuli\puppy_20.jpeg</t>
         </is>
       </c>
       <c r="D2" t="n">
@@ -6917,11 +6917,11 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>4.5</v>
+        <v>5.5</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_20.jpeg</t>
+          <t>go_stimuli\puppy_17.jpeg</t>
         </is>
       </c>
       <c r="D3" t="n">
@@ -6938,11 +6938,11 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>4.5</v>
+        <v>6</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_30.jpg</t>
+          <t>go_stimuli\puppy_29.jpg</t>
         </is>
       </c>
       <c r="D4" t="n">
@@ -6959,11 +6959,11 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>6</v>
+        <v>4.5</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_25.jpeg</t>
+          <t>go_stimuli\puppy_27.jpg</t>
         </is>
       </c>
       <c r="D5" t="n">
@@ -6980,11 +6980,11 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_15.jpeg</t>
+          <t>go_stimuli\puppy_6.jpg</t>
         </is>
       </c>
       <c r="D6" t="n">
@@ -7001,11 +7001,11 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>6.5</v>
+        <v>5.5</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_14.jpeg</t>
+          <t>go_stimuli\puppy_7.jpg</t>
         </is>
       </c>
       <c r="D7" t="n">
@@ -7022,11 +7022,11 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_28.jpg</t>
+          <t>go_stimuli\puppy_18.jpeg</t>
         </is>
       </c>
       <c r="D8" t="n">
@@ -7043,11 +7043,11 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>6.5</v>
+        <v>5</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_11.jpeg</t>
+          <t>go_stimuli\puppy_21.jpeg</t>
         </is>
       </c>
       <c r="D9" t="n">
@@ -7064,11 +7064,11 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>5.5</v>
+        <v>4</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_29.jpg</t>
+          <t>go_stimuli\puppy_4.jpg</t>
         </is>
       </c>
       <c r="D10" t="n">
@@ -7085,11 +7085,11 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_4.jpg</t>
+          <t>go_stimuli\puppy_12.jpeg</t>
         </is>
       </c>
       <c r="D11" t="n">
@@ -7106,11 +7106,11 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_2.jpg</t>
+          <t>go_stimuli\puppy_15.jpeg</t>
         </is>
       </c>
       <c r="D12" t="n">
@@ -7127,11 +7127,11 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_21.jpeg</t>
+          <t>go_stimuli\puppy_28.jpg</t>
         </is>
       </c>
       <c r="D13" t="n">
@@ -7148,11 +7148,11 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_23.jpeg</t>
+          <t>go_stimuli\puppy_16.jpeg</t>
         </is>
       </c>
       <c r="D14" t="n">
@@ -7169,11 +7169,11 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_7.jpg</t>
+          <t>go_stimuli\puppy_5.jpg</t>
         </is>
       </c>
       <c r="D15" t="n">
@@ -7190,11 +7190,11 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>4.5</v>
+        <v>5.5</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_17.jpeg</t>
+          <t>go_stimuli\puppy_26.jpeg</t>
         </is>
       </c>
       <c r="D16" t="n">
@@ -7211,11 +7211,11 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>4</v>
+        <v>5.5</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_3.jpg</t>
+          <t>go_stimuli\puppy_22.jpeg</t>
         </is>
       </c>
       <c r="D17" t="n">
@@ -7232,11 +7232,11 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_18.jpeg</t>
+          <t>go_stimuli\puppy_2.jpg</t>
         </is>
       </c>
       <c r="D18" t="n">
@@ -7253,11 +7253,11 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_22.jpeg</t>
+          <t>go_stimuli\puppy_19.jpeg</t>
         </is>
       </c>
       <c r="D19" t="n">
@@ -7274,11 +7274,11 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_27.jpg</t>
+          <t>go_stimuli\puppy_9.jpg</t>
         </is>
       </c>
       <c r="D20" t="n">
@@ -7295,11 +7295,11 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_6.jpg</t>
+          <t>go_stimuli\puppy_8.jpg</t>
         </is>
       </c>
       <c r="D21" t="n">
@@ -7357,11 +7357,11 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>no_go_stimuli\spider_29.jpg</t>
+          <t>no_go_stimuli\spider_28.jpg</t>
         </is>
       </c>
       <c r="D2" t="n">
@@ -7378,11 +7378,11 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>6.5</v>
+        <v>4</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_12.jpeg</t>
+          <t>go_stimuli\puppy_7.jpg</t>
         </is>
       </c>
       <c r="D3" t="n">
@@ -7399,11 +7399,11 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>6.5</v>
+        <v>5.5</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>no_go_stimuli\spider_20.jpg</t>
+          <t>no_go_stimuli\spider_25.jpg</t>
         </is>
       </c>
       <c r="D4" t="n">
@@ -7420,19 +7420,19 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_3.jpg</t>
+          <t>no_go_stimuli\spider_24.jpeg</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>space</t>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -7445,15 +7445,15 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_13.jpg</t>
+          <t>no_go_stimuli\spider_10.jpeg</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>space</t>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -7462,19 +7462,19 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>5</v>
+        <v>6.5</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_4.jpg</t>
+          <t>no_go_stimuli\spider_9.jpeg</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>space</t>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -7483,19 +7483,19 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>no_go_stimuli\spider_9.jpeg</t>
+          <t>go_stimuli\puppy_17.jpeg</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>space</t>
         </is>
       </c>
     </row>
@@ -7504,11 +7504,11 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>no_go_stimuli\spider_19.jpg</t>
+          <t>no_go_stimuli\spider_30.jpg</t>
         </is>
       </c>
       <c r="D9" t="n">
@@ -7525,19 +7525,19 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>no_go_stimuli\spider_4.jpeg</t>
+          <t>go_stimuli\puppy_4.jpg</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>space</t>
         </is>
       </c>
     </row>
@@ -7550,7 +7550,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>no_go_stimuli\spider_6.jpeg</t>
+          <t>no_go_stimuli\spider_2.jpeg</t>
         </is>
       </c>
       <c r="D11" t="n">
@@ -7567,11 +7567,11 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_7.jpg</t>
+          <t>go_stimuli\puppy_1.jpg</t>
         </is>
       </c>
       <c r="D12" t="n">
@@ -7592,15 +7592,15 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>no_go_stimuli\spider_15.jpeg</t>
+          <t>go_stimuli\puppy_16.jpeg</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>space</t>
         </is>
       </c>
     </row>
@@ -7609,11 +7609,11 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>4</v>
+        <v>5.5</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_21.jpeg</t>
+          <t>go_stimuli\puppy_9.jpg</t>
         </is>
       </c>
       <c r="D14" t="n">
@@ -7630,19 +7630,19 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_5.jpg</t>
+          <t>no_go_stimuli\spider_19.jpg</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>space</t>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -7651,11 +7651,11 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_18.jpeg</t>
+          <t>go_stimuli\puppy_29.jpg</t>
         </is>
       </c>
       <c r="D16" t="n">
@@ -7672,11 +7672,11 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>4.5</v>
+        <v>5.5</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_25.jpeg</t>
+          <t>go_stimuli\puppy_10.jpg</t>
         </is>
       </c>
       <c r="D17" t="n">
@@ -7693,11 +7693,11 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>5</v>
+        <v>6.5</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>no_go_stimuli\spider_8.jpeg</t>
+          <t>no_go_stimuli\spider_6.jpeg</t>
         </is>
       </c>
       <c r="D18" t="n">
@@ -7714,19 +7714,19 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>4.5</v>
+        <v>6.5</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>no_go_stimuli\spider_23.jpg</t>
+          <t>go_stimuli\puppy_5.jpg</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>space</t>
         </is>
       </c>
     </row>
@@ -7735,19 +7735,19 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>6.5</v>
+        <v>5</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_20.jpeg</t>
+          <t>no_go_stimuli\spider_15.jpeg</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>space</t>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -7756,19 +7756,19 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>4.5</v>
+        <v>6</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>no_go_stimuli\spider_18.jpg</t>
+          <t>go_stimuli\puppy_14.jpeg</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>space</t>
         </is>
       </c>
     </row>
@@ -7818,17 +7818,17 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C2" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="D2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -7837,17 +7837,17 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="C3" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="D3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -7856,10 +7856,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C4" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -7875,10 +7875,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C5" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -7894,10 +7894,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C6" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="D6" t="n">
         <v>1</v>
@@ -7913,17 +7913,17 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="C7" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="D7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -7932,17 +7932,17 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C8" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -7951,10 +7951,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
+        <v>2</v>
+      </c>
+      <c r="C9" t="n">
         <v>8</v>
-      </c>
-      <c r="C9" t="n">
-        <v>3</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
@@ -7970,10 +7970,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C10" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="D10" t="n">
         <v>1</v>
@@ -7992,14 +7992,14 @@
         <v>8</v>
       </c>
       <c r="C11" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -8008,17 +8008,17 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C12" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -8027,10 +8027,10 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C13" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="D13" t="n">
         <v>1</v>
@@ -8046,10 +8046,10 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
+        <v>6</v>
+      </c>
+      <c r="C14" t="n">
         <v>8</v>
-      </c>
-      <c r="C14" t="n">
-        <v>3</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -8068,7 +8068,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
@@ -8084,17 +8084,17 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C16" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -8103,10 +8103,10 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C17" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -8122,10 +8122,10 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C18" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="D18" t="n">
         <v>0</v>
@@ -8141,10 +8141,10 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C19" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="D19" t="n">
         <v>1</v>
@@ -8160,17 +8160,17 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C20" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -8179,17 +8179,17 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="C21" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="D21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -8239,10 +8239,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C2" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -8258,10 +8258,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C3" t="n">
         <v>3</v>
-      </c>
-      <c r="C3" t="n">
-        <v>7</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -8277,10 +8277,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C4" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -8296,17 +8296,17 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="C5" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -8315,10 +8315,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -8334,10 +8334,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C7" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -8353,10 +8353,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C8" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D8" t="n">
         <v>1</v>
@@ -8372,10 +8372,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D9" t="n">
         <v>1</v>
@@ -8394,14 +8394,14 @@
         <v>7</v>
       </c>
       <c r="C10" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -8410,10 +8410,10 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C11" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -8429,17 +8429,17 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C12" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -8448,17 +8448,17 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C13" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -8467,17 +8467,17 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C14" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -8486,10 +8486,10 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C15" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D15" t="n">
         <v>1</v>
@@ -8505,17 +8505,17 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C16" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -8524,17 +8524,17 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C17" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -8543,17 +8543,17 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -8562,17 +8562,17 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C19" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -8581,17 +8581,17 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C20" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -8600,10 +8600,10 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
@@ -8660,10 +8660,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D2" t="n">
         <v>1</v>
@@ -8679,10 +8679,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D3" t="n">
         <v>1</v>
@@ -8698,10 +8698,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C4" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -8717,17 +8717,17 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -8736,17 +8736,17 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -8755,17 +8755,17 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C7" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -8774,17 +8774,17 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C8" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -8793,17 +8793,17 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -8812,17 +8812,17 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -8831,10 +8831,10 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C11" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -8850,17 +8850,17 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -8869,17 +8869,17 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C13" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -8888,10 +8888,10 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C14" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -8907,10 +8907,10 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C15" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
@@ -8929,14 +8929,14 @@
         <v>7</v>
       </c>
       <c r="C16" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -8945,17 +8945,17 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -8964,10 +8964,10 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C18" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D18" t="n">
         <v>0</v>
@@ -8986,7 +8986,7 @@
         <v>8</v>
       </c>
       <c r="C19" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -9002,10 +9002,10 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C20" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D20" t="n">
         <v>1</v>
@@ -9021,10 +9021,10 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C21" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D21" t="n">
         <v>1</v>
@@ -9076,7 +9076,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -9092,14 +9092,14 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -9108,14 +9108,14 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -9140,7 +9140,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -9156,14 +9156,14 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -9172,7 +9172,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -9268,14 +9268,14 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -9284,14 +9284,14 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -9300,14 +9300,14 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -9316,14 +9316,14 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -9332,14 +9332,14 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -9348,14 +9348,14 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -9364,14 +9364,14 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -9380,14 +9380,14 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -9432,7 +9432,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -9448,14 +9448,14 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -9464,7 +9464,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -9480,14 +9480,14 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -9496,7 +9496,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -9512,7 +9512,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -9528,14 +9528,14 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -9544,14 +9544,14 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -9560,14 +9560,14 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -9576,14 +9576,14 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -9592,14 +9592,14 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -9608,7 +9608,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C13" t="n">
         <v>1</v>
@@ -9624,14 +9624,14 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -9640,7 +9640,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
@@ -9656,14 +9656,14 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -9672,14 +9672,14 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -9688,7 +9688,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
@@ -9707,11 +9707,11 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -9720,14 +9720,14 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -9736,14 +9736,14 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>

--- a/participants/participant_21/participant_21_conditions.xlsx
+++ b/participants/participant_21/participant_21_conditions.xlsx
@@ -7,29 +7,29 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="go_stims-16511687133874135" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="GNG_stims-16511687134102376" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="go_stims-16511687134123068" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="GNG_stims-16511687134272408" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="ZB-match_8-16511687135532124" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="ZB-match_3-1651168714017146" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="ZB-match_1-16511687140644267" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="OB-16511687142113855" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="OB-1651168714242898" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet name="OB-16511687145394976" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet name="TB-16511687148053193" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet name="TB-16511687154333007" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet name="TB-16511687157588246" sheetId="13" state="visible" r:id="rId13"/>
-    <sheet name="ZM_stims-16511687157862463" sheetId="14" state="visible" r:id="rId14"/>
-    <sheet name="MM_stims-16511687157998545" sheetId="15" state="visible" r:id="rId15"/>
-    <sheet name="ZM_stims-16511687157998545" sheetId="16" state="visible" r:id="rId16"/>
-    <sheet name="MM_stims-16511687158154333" sheetId="17" state="visible" r:id="rId17"/>
-    <sheet name="ZM_stims-16511687158154333" sheetId="18" state="visible" r:id="rId18"/>
-    <sheet name="MM_stims-16511687158305962" sheetId="19" state="visible" r:id="rId19"/>
-    <sheet name="SAT_stims-1651168715834595" sheetId="20" state="visible" r:id="rId20"/>
-    <sheet name="SAT_stims-16511687158514347" sheetId="21" state="visible" r:id="rId21"/>
-    <sheet name="vSAT_stims-1651168715867472" sheetId="22" state="visible" r:id="rId22"/>
-    <sheet name="vSAT_stims-1651168715898432" sheetId="23" state="visible" r:id="rId23"/>
+    <sheet name="go_stims-16512555378162155" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="GNG_stims-16512555378362148" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="go_stims-16512555378382144" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="GNG_stims-16512555378522124" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="ZB-match_4-16512555381126966" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="ZB-match_6-16512555381956995" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="ZB-match_3-16512555383156946" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="OB-16512555383436956" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="OB-16512555385876927" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="OB-1651255539184693" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet name="TB-16512555396584706" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet name="TB-16512555399544728" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet name="TB-16512555402334714" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet name="ZM_stims-16512555402574785" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet name="MM_stims-16512555402694707" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet name="ZM_stims-16512555402704742" sheetId="16" state="visible" r:id="rId16"/>
+    <sheet name="MM_stims-16512555402854736" sheetId="17" state="visible" r:id="rId17"/>
+    <sheet name="ZM_stims-16512555402864735" sheetId="18" state="visible" r:id="rId18"/>
+    <sheet name="MM_stims-16512555403004737" sheetId="19" state="visible" r:id="rId19"/>
+    <sheet name="SAT_stims-1651255540307475" sheetId="20" state="visible" r:id="rId20"/>
+    <sheet name="SAT_stims-16512555403334792" sheetId="21" state="visible" r:id="rId21"/>
+    <sheet name="vSAT_stims-16512555403484719" sheetId="22" state="visible" r:id="rId22"/>
+    <sheet name="vSAT_stims-16512555403644712" sheetId="23" state="visible" r:id="rId23"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -482,11 +482,11 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>6.5</v>
+        <v>5</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_19.jpeg</t>
+          <t>go_stimuli\puppy_17.jpeg</t>
         </is>
       </c>
       <c r="D2" t="n">
@@ -503,11 +503,11 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_29.jpg</t>
+          <t>go_stimuli\puppy_30.jpg</t>
         </is>
       </c>
       <c r="D3" t="n">
@@ -524,7 +524,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>5.5</v>
+        <v>4.5</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -549,7 +549,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_20.jpeg</t>
+          <t>go_stimuli\puppy_22.jpeg</t>
         </is>
       </c>
       <c r="D5" t="n">
@@ -566,11 +566,11 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_13.jpg</t>
+          <t>go_stimuli\puppy_24.jpeg</t>
         </is>
       </c>
       <c r="D6" t="n">
@@ -587,11 +587,11 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_22.jpeg</t>
+          <t>go_stimuli\puppy_3.jpg</t>
         </is>
       </c>
       <c r="D7" t="n">
@@ -608,11 +608,11 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>6.5</v>
+        <v>5.5</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_8.jpg</t>
+          <t>go_stimuli\puppy_9.jpg</t>
         </is>
       </c>
       <c r="D8" t="n">
@@ -629,11 +629,11 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_12.jpeg</t>
+          <t>go_stimuli\puppy_19.jpeg</t>
         </is>
       </c>
       <c r="D9" t="n">
@@ -650,11 +650,11 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_1.jpg</t>
+          <t>go_stimuli\puppy_6.jpg</t>
         </is>
       </c>
       <c r="D10" t="n">
@@ -671,11 +671,11 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_26.jpeg</t>
+          <t>go_stimuli\puppy_4.jpg</t>
         </is>
       </c>
       <c r="D11" t="n">
@@ -696,7 +696,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_5.jpg</t>
+          <t>go_stimuli\puppy_15.jpeg</t>
         </is>
       </c>
       <c r="D12" t="n">
@@ -713,11 +713,11 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_10.jpg</t>
+          <t>go_stimuli\puppy_28.jpg</t>
         </is>
       </c>
       <c r="D13" t="n">
@@ -734,11 +734,11 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>6</v>
+        <v>4.5</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_28.jpg</t>
+          <t>go_stimuli\puppy_5.jpg</t>
         </is>
       </c>
       <c r="D14" t="n">
@@ -755,11 +755,11 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>6.5</v>
+        <v>5</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_25.jpeg</t>
+          <t>go_stimuli\puppy_18.jpeg</t>
         </is>
       </c>
       <c r="D15" t="n">
@@ -776,11 +776,11 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_16.jpeg</t>
+          <t>go_stimuli\puppy_10.jpg</t>
         </is>
       </c>
       <c r="D16" t="n">
@@ -797,11 +797,11 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_17.jpeg</t>
+          <t>go_stimuli\puppy_26.jpeg</t>
         </is>
       </c>
       <c r="D17" t="n">
@@ -818,11 +818,11 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_4.jpg</t>
+          <t>go_stimuli\puppy_1.jpg</t>
         </is>
       </c>
       <c r="D18" t="n">
@@ -839,11 +839,11 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>4.5</v>
+        <v>6.5</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_2.jpg</t>
+          <t>go_stimuli\puppy_25.jpeg</t>
         </is>
       </c>
       <c r="D19" t="n">
@@ -860,11 +860,11 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>4</v>
+        <v>5.5</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_27.jpg</t>
+          <t>go_stimuli\puppy_16.jpeg</t>
         </is>
       </c>
       <c r="D20" t="n">
@@ -881,11 +881,11 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_9.jpg</t>
+          <t>go_stimuli\puppy_29.jpg</t>
         </is>
       </c>
       <c r="D21" t="n">
@@ -938,7 +938,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -954,14 +954,14 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -970,14 +970,14 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -989,11 +989,11 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -1002,7 +1002,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -1018,7 +1018,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -1034,14 +1034,14 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -1050,7 +1050,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
@@ -1066,14 +1066,14 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -1085,11 +1085,11 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -1114,7 +1114,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -1130,7 +1130,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -1146,7 +1146,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C15" t="n">
         <v>1</v>
@@ -1162,14 +1162,14 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -1178,7 +1178,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -1194,14 +1194,14 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -1210,7 +1210,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C19" t="n">
         <v>1</v>
@@ -1226,7 +1226,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C20" t="n">
         <v>1</v>
@@ -1242,7 +1242,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
@@ -1294,7 +1294,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -1310,7 +1310,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -1326,7 +1326,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -1342,7 +1342,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -1358,7 +1358,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -1374,7 +1374,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -1390,7 +1390,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -1406,14 +1406,14 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -1422,14 +1422,14 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -1438,14 +1438,14 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -1454,7 +1454,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C12" t="n">
         <v>1</v>
@@ -1470,7 +1470,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -1486,14 +1486,14 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -1502,7 +1502,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
@@ -1534,7 +1534,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C17" t="n">
         <v>1</v>
@@ -1550,14 +1550,14 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -1566,7 +1566,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C19" t="n">
         <v>1</v>
@@ -1582,14 +1582,14 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -1598,14 +1598,14 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -1650,7 +1650,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -1666,7 +1666,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -1682,14 +1682,14 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -1698,7 +1698,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -1714,7 +1714,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -1730,14 +1730,14 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -1746,7 +1746,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -1778,7 +1778,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C10" t="n">
         <v>1</v>
@@ -1810,7 +1810,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C12" t="n">
         <v>1</v>
@@ -1826,14 +1826,14 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -1842,7 +1842,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -1858,14 +1858,14 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -1874,14 +1874,14 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -1890,14 +1890,14 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -1909,11 +1909,11 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -1922,14 +1922,14 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -1938,14 +1938,14 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -1954,7 +1954,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
@@ -2006,7 +2006,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -2022,7 +2022,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -2038,7 +2038,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -2054,14 +2054,14 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -2070,7 +2070,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -2102,14 +2102,14 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -2118,7 +2118,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
@@ -2134,14 +2134,14 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -2150,14 +2150,14 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="C11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -2166,14 +2166,14 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -2182,7 +2182,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="C13" t="n">
         <v>1</v>
@@ -2198,14 +2198,14 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -2214,14 +2214,14 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -2230,14 +2230,14 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -2246,7 +2246,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -2262,14 +2262,14 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -2278,14 +2278,14 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -2294,14 +2294,14 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -2310,7 +2310,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C21" t="n">
         <v>1</v>
@@ -2363,7 +2363,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>zero_move_stimuli\zero_move_1.jpg</t>
+          <t>zero_move_stimuli\zero_move_6.jpg</t>
         </is>
       </c>
       <c r="C2" t="n">
@@ -2399,7 +2399,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>zero_move_stimuli\zero_move_3.jpg</t>
+          <t>zero_move_stimuli\zero_move_5.jpg</t>
         </is>
       </c>
       <c r="C4" t="n">
@@ -2417,7 +2417,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>zero_move_stimuli\zero_move_6.jpg</t>
+          <t>zero_move_stimuli\zero_move_2.jpg</t>
         </is>
       </c>
       <c r="C5" t="n">
@@ -2435,7 +2435,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>zero_move_stimuli\zero_move_2.jpg</t>
+          <t>zero_move_stimuli\zero_move_3.jpg</t>
         </is>
       </c>
       <c r="C6" t="n">
@@ -2453,7 +2453,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>zero_move_stimuli\zero_move_5.jpg</t>
+          <t>zero_move_stimuli\zero_move_1.jpg</t>
         </is>
       </c>
       <c r="C7" t="n">
@@ -2525,15 +2525,15 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>multi_move_stimuli\stim_not_two_move\stim_not_two_move_4.jpg</t>
+          <t>multi_move_stimuli\stim_two_move\stim_two_move_4.jpg</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -2543,15 +2543,15 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>multi_move_stimuli\stim_not_two_move\stim_not_two_move_6.jpg</t>
+          <t>multi_move_stimuli\stim_two_move\stim_two_move_2.jpg</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -2561,15 +2561,15 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>multi_move_stimuli\stim_two_move\stim_two_move_4.jpg</t>
+          <t>multi_move_stimuli\stim_not_two_move\stim_not_two_move_1.jpg</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -2579,15 +2579,15 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>multi_move_stimuli\stim_two_move\stim_two_move_3.jpg</t>
+          <t>multi_move_stimuli\stim_not_two_move\stim_not_two_move_6.jpg</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -2597,7 +2597,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>multi_move_stimuli\stim_two_move\stim_two_move_5.jpg</t>
+          <t>multi_move_stimuli\stim_two_move\stim_two_move_3.jpg</t>
         </is>
       </c>
       <c r="C7" t="n">
@@ -2651,7 +2651,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>zero_move_stimuli\zero_move_6.jpg</t>
+          <t>zero_move_stimuli\zero_move_3.jpg</t>
         </is>
       </c>
       <c r="C2" t="n">
@@ -2687,7 +2687,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>zero_move_stimuli\zero_move_4.jpg</t>
+          <t>zero_move_stimuli\zero_move_2.jpg</t>
         </is>
       </c>
       <c r="C4" t="n">
@@ -2705,7 +2705,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>zero_move_stimuli\zero_move_2.jpg</t>
+          <t>zero_move_stimuli\zero_move_6.jpg</t>
         </is>
       </c>
       <c r="C5" t="n">
@@ -2723,7 +2723,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>zero_move_stimuli\zero_move_1.jpg</t>
+          <t>zero_move_stimuli\zero_move_4.jpg</t>
         </is>
       </c>
       <c r="C6" t="n">
@@ -2741,7 +2741,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>zero_move_stimuli\zero_move_3.jpg</t>
+          <t>zero_move_stimuli\zero_move_1.jpg</t>
         </is>
       </c>
       <c r="C7" t="n">
@@ -2795,15 +2795,15 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>multi_move_stimuli\stim_two_move\stim_two_move_2.jpg</t>
+          <t>multi_move_stimuli\stim_not_two_move\stim_not_two_move_4.jpg</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -2813,15 +2813,15 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>multi_move_stimuli\stim_not_two_move\stim_not_two_move_2.jpg</t>
+          <t>multi_move_stimuli\stim_two_move\stim_two_move_6.jpg</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -2831,15 +2831,15 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>multi_move_stimuli\stim_not_two_move\stim_not_two_move_6.jpg</t>
+          <t>multi_move_stimuli\stim_two_move\stim_two_move_1.jpg</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -2849,15 +2849,15 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>multi_move_stimuli\stim_not_two_move\stim_not_two_move_3.jpg</t>
+          <t>multi_move_stimuli\stim_two_move\stim_two_move_5.jpg</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -2867,15 +2867,15 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>multi_move_stimuli\stim_two_move\stim_two_move_1.jpg</t>
+          <t>multi_move_stimuli\stim_not_two_move\stim_not_two_move_5.jpg</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -2885,15 +2885,15 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>multi_move_stimuli\stim_two_move\stim_two_move_5.jpg</t>
+          <t>multi_move_stimuli\stim_not_two_move\stim_not_two_move_6.jpg</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -2939,7 +2939,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>zero_move_stimuli\zero_move_4.jpg</t>
+          <t>zero_move_stimuli\zero_move_6.jpg</t>
         </is>
       </c>
       <c r="C2" t="n">
@@ -2957,7 +2957,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>zero_move_stimuli\zero_move_1.jpg</t>
+          <t>zero_move_stimuli\zero_move_2.jpg</t>
         </is>
       </c>
       <c r="C3" t="n">
@@ -2975,7 +2975,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>zero_move_stimuli\zero_move_6.jpg</t>
+          <t>zero_move_stimuli\zero_move_1.jpg</t>
         </is>
       </c>
       <c r="C4" t="n">
@@ -3011,7 +3011,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>zero_move_stimuli\zero_move_2.jpg</t>
+          <t>zero_move_stimuli\zero_move_3.jpg</t>
         </is>
       </c>
       <c r="C6" t="n">
@@ -3029,7 +3029,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>zero_move_stimuli\zero_move_3.jpg</t>
+          <t>zero_move_stimuli\zero_move_4.jpg</t>
         </is>
       </c>
       <c r="C7" t="n">
@@ -3083,15 +3083,15 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>multi_move_stimuli\stim_two_move\stim_two_move_5.jpg</t>
+          <t>multi_move_stimuli\stim_not_two_move\stim_not_two_move_4.jpg</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -3101,7 +3101,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>multi_move_stimuli\stim_not_two_move\stim_not_two_move_1.jpg</t>
+          <t>multi_move_stimuli\stim_not_two_move\stim_not_two_move_2.jpg</t>
         </is>
       </c>
       <c r="C3" t="n">
@@ -3119,7 +3119,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>multi_move_stimuli\stim_two_move\stim_two_move_1.jpg</t>
+          <t>multi_move_stimuli\stim_two_move\stim_two_move_5.jpg</t>
         </is>
       </c>
       <c r="C4" t="n">
@@ -3137,7 +3137,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>multi_move_stimuli\stim_two_move\stim_two_move_6.jpg</t>
+          <t>multi_move_stimuli\stim_two_move\stim_two_move_1.jpg</t>
         </is>
       </c>
       <c r="C5" t="n">
@@ -3155,7 +3155,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>multi_move_stimuli\stim_not_two_move\stim_not_two_move_6.jpg</t>
+          <t>multi_move_stimuli\stim_not_two_move\stim_not_two_move_3.jpg</t>
         </is>
       </c>
       <c r="C6" t="n">
@@ -3173,15 +3173,15 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>multi_move_stimuli\stim_not_two_move\stim_not_two_move_4.jpg</t>
+          <t>multi_move_stimuli\stim_two_move\stim_two_move_3.jpg</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -3231,19 +3231,19 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_3.jpg</t>
+          <t>no_go_stimuli\spider_6.jpeg</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>space</t>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -3252,19 +3252,19 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>no_go_stimuli\spider_26.jpg</t>
+          <t>go_stimuli\puppy_19.jpeg</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>space</t>
         </is>
       </c>
     </row>
@@ -3273,11 +3273,11 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>6.5</v>
+        <v>4</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>no_go_stimuli\spider_20.jpg</t>
+          <t>no_go_stimuli\spider_30.jpg</t>
         </is>
       </c>
       <c r="D4" t="n">
@@ -3294,19 +3294,19 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>5.5</v>
+        <v>6.5</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>no_go_stimuli\spider_25.jpg</t>
+          <t>go_stimuli\puppy_16.jpeg</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>space</t>
         </is>
       </c>
     </row>
@@ -3315,11 +3315,11 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>no_go_stimuli\spider_16.jpeg</t>
+          <t>no_go_stimuli\spider_13.jpeg</t>
         </is>
       </c>
       <c r="D6" t="n">
@@ -3336,11 +3336,11 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>5.5</v>
+        <v>6.5</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>no_go_stimuli\spider_23.jpg</t>
+          <t>no_go_stimuli\spider_4.jpeg</t>
         </is>
       </c>
       <c r="D7" t="n">
@@ -3361,15 +3361,15 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>no_go_stimuli\spider_13.jpeg</t>
+          <t>go_stimuli\puppy_13.jpg</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>space</t>
         </is>
       </c>
     </row>
@@ -3378,19 +3378,19 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>5.5</v>
+        <v>4</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>no_go_stimuli\spider_30.jpg</t>
+          <t>go_stimuli\puppy_18.jpeg</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>space</t>
         </is>
       </c>
     </row>
@@ -3399,19 +3399,19 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>6.5</v>
+        <v>5.5</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_23.jpeg</t>
+          <t>no_go_stimuli\spider_12.jpeg</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>space</t>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -3424,15 +3424,15 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_20.jpeg</t>
+          <t>no_go_stimuli\spider_3.jpeg</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>space</t>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -3441,11 +3441,11 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_28.jpg</t>
+          <t>go_stimuli\puppy_22.jpeg</t>
         </is>
       </c>
       <c r="D12" t="n">
@@ -3462,19 +3462,19 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>4</v>
+        <v>5.5</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_21.jpeg</t>
+          <t>no_go_stimuli\spider_2.jpeg</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>space</t>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -3483,19 +3483,19 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>no_go_stimuli\spider_24.jpeg</t>
+          <t>go_stimuli\puppy_28.jpg</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>space</t>
         </is>
       </c>
     </row>
@@ -3504,11 +3504,11 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_19.jpeg</t>
+          <t>go_stimuli\puppy_17.jpeg</t>
         </is>
       </c>
       <c r="D15" t="n">
@@ -3525,11 +3525,11 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>5.5</v>
+        <v>6.5</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>no_go_stimuli\spider_29.jpg</t>
+          <t>no_go_stimuli\spider_22.jpg</t>
         </is>
       </c>
       <c r="D16" t="n">
@@ -3546,11 +3546,11 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>6.5</v>
+        <v>5.5</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_12.jpeg</t>
+          <t>go_stimuli\puppy_9.jpg</t>
         </is>
       </c>
       <c r="D17" t="n">
@@ -3567,19 +3567,19 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_7.jpg</t>
+          <t>no_go_stimuli\spider_27.jpeg</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>space</t>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -3588,7 +3588,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -3609,11 +3609,11 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>4.5</v>
+        <v>5.5</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_18.jpeg</t>
+          <t>go_stimuli\puppy_21.jpeg</t>
         </is>
       </c>
       <c r="D20" t="n">
@@ -3630,11 +3630,11 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>5.5</v>
+        <v>6.5</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_2.jpg</t>
+          <t>go_stimuli\puppy_15.jpeg</t>
         </is>
       </c>
       <c r="D21" t="n">
@@ -3730,7 +3730,7 @@
         <v>0.017</v>
       </c>
       <c r="C3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -3739,11 +3739,11 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -3752,10 +3752,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>0.017</v>
+        <v>0.029</v>
       </c>
       <c r="C4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -3777,7 +3777,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>0.05</v>
+        <v>0.029</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -3827,10 +3827,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>0.05</v>
+        <v>0.029</v>
       </c>
       <c r="C7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -3852,10 +3852,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>0.017</v>
+        <v>0.029</v>
       </c>
       <c r="C8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -3864,11 +3864,11 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -3877,10 +3877,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>0.017</v>
+        <v>0.05</v>
       </c>
       <c r="C9" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
@@ -3889,11 +3889,11 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -3914,11 +3914,11 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -3927,10 +3927,10 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>0.017</v>
+        <v>0.029</v>
       </c>
       <c r="C11" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -3939,11 +3939,11 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -3952,10 +3952,10 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>0.029</v>
+        <v>0.017</v>
       </c>
       <c r="C12" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
@@ -3977,10 +3977,10 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>0.029</v>
+        <v>0.05</v>
       </c>
       <c r="C13" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -3989,11 +3989,11 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -4014,11 +4014,11 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -4027,10 +4027,10 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>0.017</v>
+        <v>0.029</v>
       </c>
       <c r="C15" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
@@ -4052,10 +4052,10 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>0.05</v>
+        <v>0.017</v>
       </c>
       <c r="C16" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -4064,11 +4064,11 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -4077,10 +4077,10 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>0.05</v>
+        <v>0.029</v>
       </c>
       <c r="C17" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -4102,10 +4102,10 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>0.029</v>
+        <v>0.017</v>
       </c>
       <c r="C18" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D18" t="n">
         <v>0</v>
@@ -4127,10 +4127,10 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>0.05</v>
+        <v>0.029</v>
       </c>
       <c r="C19" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -4164,11 +4164,11 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -4177,10 +4177,10 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>0.017</v>
+        <v>0.05</v>
       </c>
       <c r="C21" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
@@ -4214,11 +4214,11 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -4227,7 +4227,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>0.029</v>
+        <v>0.017</v>
       </c>
       <c r="C23" t="n">
         <v>3</v>
@@ -4264,11 +4264,11 @@
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -4277,7 +4277,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>0.05</v>
+        <v>0.017</v>
       </c>
       <c r="C25" t="n">
         <v>3</v>
@@ -4289,11 +4289,11 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -4302,10 +4302,10 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>0.05</v>
+        <v>0.029</v>
       </c>
       <c r="C26" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -4327,10 +4327,10 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>0.05</v>
+        <v>0.017</v>
       </c>
       <c r="C27" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D27" t="n">
         <v>0</v>
@@ -4352,10 +4352,10 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>0.017</v>
+        <v>0.029</v>
       </c>
       <c r="C28" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -4364,11 +4364,11 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -4377,10 +4377,10 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>0.017</v>
+        <v>0.029</v>
       </c>
       <c r="C29" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
@@ -4402,7 +4402,7 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>0.017</v>
+        <v>0.05</v>
       </c>
       <c r="C30" t="n">
         <v>2</v>
@@ -4427,10 +4427,10 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>0.029</v>
+        <v>0.017</v>
       </c>
       <c r="C31" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -4439,11 +4439,11 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -4503,10 +4503,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.05</v>
+        <v>0.029</v>
       </c>
       <c r="C2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -4515,11 +4515,11 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -4540,11 +4540,11 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -4553,7 +4553,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>0.029</v>
+        <v>0.05</v>
       </c>
       <c r="C4" t="n">
         <v>2</v>
@@ -4581,7 +4581,7 @@
         <v>0.017</v>
       </c>
       <c r="C5" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -4590,11 +4590,11 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -4603,10 +4603,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>0.017</v>
+        <v>0.029</v>
       </c>
       <c r="C6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -4628,7 +4628,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>0.029</v>
+        <v>0.05</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -4640,11 +4640,11 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -4653,10 +4653,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>0.017</v>
+        <v>0.029</v>
       </c>
       <c r="C8" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -4665,11 +4665,11 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -4681,7 +4681,7 @@
         <v>0.017</v>
       </c>
       <c r="C9" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
@@ -4690,11 +4690,11 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -4703,10 +4703,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>0.05</v>
+        <v>0.017</v>
       </c>
       <c r="C10" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -4728,10 +4728,10 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>0.05</v>
+        <v>0.017</v>
       </c>
       <c r="C11" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -4740,11 +4740,11 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -4778,7 +4778,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>0.05</v>
+        <v>0.029</v>
       </c>
       <c r="C13" t="n">
         <v>1</v>
@@ -4803,10 +4803,10 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>0.05</v>
+        <v>0.017</v>
       </c>
       <c r="C14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -4853,10 +4853,10 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>0.05</v>
+        <v>0.017</v>
       </c>
       <c r="C16" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -4878,10 +4878,10 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>0.017</v>
+        <v>0.05</v>
       </c>
       <c r="C17" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -4931,7 +4931,7 @@
         <v>0.05</v>
       </c>
       <c r="C19" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -4940,11 +4940,11 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -4953,10 +4953,10 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>0.029</v>
+        <v>0.05</v>
       </c>
       <c r="C20" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -4965,11 +4965,11 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -4978,10 +4978,10 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>0.017</v>
+        <v>0.029</v>
       </c>
       <c r="C21" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
@@ -4990,11 +4990,11 @@
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -5003,10 +5003,10 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>0.029</v>
+        <v>0.05</v>
       </c>
       <c r="C22" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -5028,10 +5028,10 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>0.017</v>
+        <v>0.05</v>
       </c>
       <c r="C23" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
@@ -5053,7 +5053,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>0.05</v>
+        <v>0.017</v>
       </c>
       <c r="C24" t="n">
         <v>3</v>
@@ -5081,7 +5081,7 @@
         <v>0.029</v>
       </c>
       <c r="C25" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -5103,10 +5103,10 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>0.05</v>
+        <v>0.017</v>
       </c>
       <c r="C26" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -5115,11 +5115,11 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -5128,10 +5128,10 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>0.05</v>
+        <v>0.017</v>
       </c>
       <c r="C27" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D27" t="n">
         <v>0</v>
@@ -5153,10 +5153,10 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>0.029</v>
+        <v>0.017</v>
       </c>
       <c r="C28" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -5178,10 +5178,10 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>0.05</v>
+        <v>0.029</v>
       </c>
       <c r="C29" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
@@ -5203,10 +5203,10 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>0.029</v>
+        <v>0.05</v>
       </c>
       <c r="C30" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D30" t="n">
         <v>0</v>
@@ -5215,11 +5215,11 @@
         <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -5228,10 +5228,10 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>0.017</v>
+        <v>0.05</v>
       </c>
       <c r="C31" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -5304,10 +5304,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.05</v>
+        <v>0.017</v>
       </c>
       <c r="C2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -5332,20 +5332,20 @@
         <v>0.05</v>
       </c>
       <c r="C3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D3" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -5354,7 +5354,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>0.029</v>
+        <v>0.05</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -5363,7 +5363,7 @@
         <v>0.25</v>
       </c>
       <c r="E4" t="n">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="F4" t="n">
         <v>1</v>
@@ -5379,23 +5379,23 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>0.05</v>
+        <v>0.017</v>
       </c>
       <c r="C5" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D5" t="n">
         <v>-0.25</v>
       </c>
       <c r="E5" t="n">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -5407,20 +5407,20 @@
         <v>0.029</v>
       </c>
       <c r="C6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="E6" t="n">
         <v>0.25</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -5429,13 +5429,13 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>0.017</v>
+        <v>0.029</v>
       </c>
       <c r="C7" t="n">
         <v>2</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="E7" t="n">
         <v>-0.25</v>
@@ -5454,16 +5454,16 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>0.017</v>
+        <v>0.05</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -5479,23 +5479,23 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>0.029</v>
+        <v>0.05</v>
       </c>
       <c r="C9" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D9" t="n">
         <v>-0.25</v>
       </c>
       <c r="E9" t="n">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -5504,13 +5504,13 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>0.029</v>
+        <v>0.017</v>
       </c>
       <c r="C10" t="n">
         <v>3</v>
       </c>
       <c r="D10" t="n">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="E10" t="n">
         <v>0.25</v>
@@ -5529,10 +5529,10 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>0.029</v>
+        <v>0.017</v>
       </c>
       <c r="C11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D11" t="n">
         <v>0.25</v>
@@ -5554,13 +5554,13 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>0.05</v>
+        <v>0.017</v>
       </c>
       <c r="C12" t="n">
         <v>1</v>
       </c>
       <c r="D12" t="n">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="E12" t="n">
         <v>-0.25</v>
@@ -5585,7 +5585,7 @@
         <v>1</v>
       </c>
       <c r="D13" t="n">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="E13" t="n">
         <v>-0.25</v>
@@ -5607,13 +5607,13 @@
         <v>0.017</v>
       </c>
       <c r="C14" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D14" t="n">
         <v>0.25</v>
       </c>
       <c r="E14" t="n">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="F14" t="n">
         <v>1</v>
@@ -5632,20 +5632,20 @@
         <v>0.029</v>
       </c>
       <c r="C15" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D15" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="E15" t="n">
         <v>-0.25</v>
       </c>
-      <c r="E15" t="n">
-        <v>0.25</v>
-      </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -5654,16 +5654,16 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>0.05</v>
+        <v>0.029</v>
       </c>
       <c r="C16" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D16" t="n">
         <v>0.25</v>
       </c>
       <c r="E16" t="n">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -5679,23 +5679,23 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>0.029</v>
+        <v>0.05</v>
       </c>
       <c r="C17" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D17" t="n">
         <v>-0.25</v>
       </c>
       <c r="E17" t="n">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="F17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -5713,14 +5713,14 @@
         <v>-0.25</v>
       </c>
       <c r="E18" t="n">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -5735,17 +5735,17 @@
         <v>1</v>
       </c>
       <c r="D19" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="E19" t="n">
         <v>-0.25</v>
       </c>
-      <c r="E19" t="n">
-        <v>0.25</v>
-      </c>
       <c r="F19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -5754,16 +5754,16 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>0.017</v>
+        <v>0.029</v>
       </c>
       <c r="C20" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="F20" t="n">
         <v>1</v>
@@ -5785,10 +5785,10 @@
         <v>1</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="F21" t="n">
         <v>1</v>
@@ -5804,10 +5804,10 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>0.017</v>
+        <v>0.029</v>
       </c>
       <c r="C22" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D22" t="n">
         <v>0.25</v>
@@ -5816,11 +5816,11 @@
         <v>0.25</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -5841,11 +5841,11 @@
         <v>0.25</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -5854,10 +5854,10 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>0.05</v>
+        <v>0.017</v>
       </c>
       <c r="C24" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D24" t="n">
         <v>-0.25</v>
@@ -5866,11 +5866,11 @@
         <v>-0.25</v>
       </c>
       <c r="F24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -5879,16 +5879,16 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>0.05</v>
+        <v>0.029</v>
       </c>
       <c r="C25" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D25" t="n">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="E25" t="n">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -5907,7 +5907,7 @@
         <v>0.017</v>
       </c>
       <c r="C26" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D26" t="n">
         <v>-0.25</v>
@@ -5916,11 +5916,11 @@
         <v>-0.25</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -5929,16 +5929,16 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>0.029</v>
+        <v>0.05</v>
       </c>
       <c r="C27" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="F27" t="n">
         <v>0</v>
@@ -5957,20 +5957,20 @@
         <v>0.05</v>
       </c>
       <c r="C28" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D28" t="n">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -5979,16 +5979,16 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>0.029</v>
+        <v>0.017</v>
       </c>
       <c r="C29" t="n">
         <v>1</v>
       </c>
       <c r="D29" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="E29" t="n">
         <v>-0.25</v>
-      </c>
-      <c r="E29" t="n">
-        <v>0.25</v>
       </c>
       <c r="F29" t="n">
         <v>1</v>
@@ -6004,23 +6004,23 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>0.029</v>
+        <v>0.017</v>
       </c>
       <c r="C30" t="n">
         <v>2</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -6032,20 +6032,20 @@
         <v>0.017</v>
       </c>
       <c r="C31" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D31" t="n">
         <v>-0.25</v>
       </c>
       <c r="E31" t="n">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -6105,13 +6105,13 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.029</v>
+        <v>0.05</v>
       </c>
       <c r="C2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D2" t="n">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="E2" t="n">
         <v>0.25</v>
@@ -6136,17 +6136,17 @@
         <v>2</v>
       </c>
       <c r="D3" t="n">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="E3" t="n">
         <v>-0.25</v>
       </c>
       <c r="F3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -6155,16 +6155,16 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>0.017</v>
+        <v>0.029</v>
       </c>
       <c r="C4" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D4" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="E4" t="n">
         <v>-0.25</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0.25</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -6180,16 +6180,16 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>0.017</v>
+        <v>0.05</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
       </c>
       <c r="D5" t="n">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="E5" t="n">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="F5" t="n">
         <v>1</v>
@@ -6205,7 +6205,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>0.029</v>
+        <v>0.05</v>
       </c>
       <c r="C6" t="n">
         <v>2</v>
@@ -6230,10 +6230,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>0.029</v>
+        <v>0.05</v>
       </c>
       <c r="C7" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D7" t="n">
         <v>-0.25</v>
@@ -6258,20 +6258,20 @@
         <v>0.029</v>
       </c>
       <c r="C8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="F8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -6280,23 +6280,23 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>0.029</v>
+        <v>0.017</v>
       </c>
       <c r="C9" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D9" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -6311,10 +6311,10 @@
         <v>3</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -6330,10 +6330,10 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>0.05</v>
+        <v>0.029</v>
       </c>
       <c r="C11" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D11" t="n">
         <v>0.25</v>
@@ -6355,7 +6355,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>0.05</v>
+        <v>0.017</v>
       </c>
       <c r="C12" t="n">
         <v>3</v>
@@ -6367,11 +6367,11 @@
         <v>0.25</v>
       </c>
       <c r="F12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -6380,16 +6380,16 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>0.017</v>
+        <v>0.05</v>
       </c>
       <c r="C13" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D13" t="n">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -6405,23 +6405,23 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>0.05</v>
+        <v>0.017</v>
       </c>
       <c r="C14" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D14" t="n">
         <v>-0.25</v>
       </c>
       <c r="E14" t="n">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="F14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -6436,17 +6436,17 @@
         <v>3</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -6455,7 +6455,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>0.017</v>
+        <v>0.05</v>
       </c>
       <c r="C16" t="n">
         <v>3</v>
@@ -6480,7 +6480,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>0.05</v>
+        <v>0.017</v>
       </c>
       <c r="C17" t="n">
         <v>1</v>
@@ -6489,7 +6489,7 @@
         <v>-0.25</v>
       </c>
       <c r="E17" t="n">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -6505,23 +6505,23 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>0.017</v>
+        <v>0.05</v>
       </c>
       <c r="C18" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D18" t="n">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -6530,16 +6530,16 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>0.029</v>
+        <v>0.05</v>
       </c>
       <c r="C19" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D19" t="n">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="E19" t="n">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -6555,7 +6555,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>0.017</v>
+        <v>0.05</v>
       </c>
       <c r="C20" t="n">
         <v>3</v>
@@ -6567,11 +6567,11 @@
         <v>-0.25</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -6580,16 +6580,16 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>0.05</v>
+        <v>0.029</v>
       </c>
       <c r="C21" t="n">
         <v>3</v>
       </c>
       <c r="D21" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="E21" t="n">
         <v>-0.25</v>
-      </c>
-      <c r="E21" t="n">
-        <v>0.25</v>
       </c>
       <c r="F21" t="n">
         <v>0</v>
@@ -6605,23 +6605,23 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>0.05</v>
+        <v>0.029</v>
       </c>
       <c r="C22" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -6636,10 +6636,10 @@
         <v>1</v>
       </c>
       <c r="D23" t="n">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="E23" t="n">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
@@ -6655,13 +6655,13 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>0.029</v>
+        <v>0.05</v>
       </c>
       <c r="C24" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D24" t="n">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="E24" t="n">
         <v>0.25</v>
@@ -6683,13 +6683,13 @@
         <v>0.029</v>
       </c>
       <c r="C25" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D25" t="n">
         <v>-0.25</v>
       </c>
       <c r="E25" t="n">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -6705,16 +6705,16 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>0.029</v>
+        <v>0.05</v>
       </c>
       <c r="C26" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D26" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
         <v>1</v>
@@ -6730,23 +6730,23 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>0.017</v>
+        <v>0.029</v>
       </c>
       <c r="C27" t="n">
         <v>2</v>
       </c>
       <c r="D27" t="n">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="E27" t="n">
         <v>-0.25</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -6755,10 +6755,10 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>0.017</v>
+        <v>0.029</v>
       </c>
       <c r="C28" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D28" t="n">
         <v>-0.25</v>
@@ -6767,11 +6767,11 @@
         <v>0.25</v>
       </c>
       <c r="F28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -6780,23 +6780,23 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>0.017</v>
+        <v>0.029</v>
       </c>
       <c r="C29" t="n">
         <v>2</v>
       </c>
       <c r="D29" t="n">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -6805,13 +6805,13 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>0.029</v>
+        <v>0.017</v>
       </c>
       <c r="C30" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D30" t="n">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="E30" t="n">
         <v>0.25</v>
@@ -6830,10 +6830,10 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>0.05</v>
+        <v>0.029</v>
       </c>
       <c r="C31" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D31" t="n">
         <v>0.25</v>
@@ -6842,11 +6842,11 @@
         <v>0.25</v>
       </c>
       <c r="F31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -6900,7 +6900,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_20.jpeg</t>
+          <t>go_stimuli\puppy_14.jpeg</t>
         </is>
       </c>
       <c r="D2" t="n">
@@ -6921,7 +6921,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_17.jpeg</t>
+          <t>go_stimuli\puppy_6.jpg</t>
         </is>
       </c>
       <c r="D3" t="n">
@@ -6938,11 +6938,11 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_29.jpg</t>
+          <t>go_stimuli\puppy_23.jpeg</t>
         </is>
       </c>
       <c r="D4" t="n">
@@ -6959,11 +6959,11 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_27.jpg</t>
+          <t>go_stimuli\puppy_21.jpeg</t>
         </is>
       </c>
       <c r="D5" t="n">
@@ -6980,11 +6980,11 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>5</v>
+        <v>6.5</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_6.jpg</t>
+          <t>go_stimuli\puppy_12.jpeg</t>
         </is>
       </c>
       <c r="D6" t="n">
@@ -7001,11 +7001,11 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_7.jpg</t>
+          <t>go_stimuli\puppy_27.jpg</t>
         </is>
       </c>
       <c r="D7" t="n">
@@ -7026,7 +7026,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_18.jpeg</t>
+          <t>go_stimuli\puppy_15.jpeg</t>
         </is>
       </c>
       <c r="D8" t="n">
@@ -7043,11 +7043,11 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_21.jpeg</t>
+          <t>go_stimuli\puppy_18.jpeg</t>
         </is>
       </c>
       <c r="D9" t="n">
@@ -7085,11 +7085,11 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_12.jpeg</t>
+          <t>go_stimuli\puppy_3.jpg</t>
         </is>
       </c>
       <c r="D11" t="n">
@@ -7106,11 +7106,11 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>6</v>
+        <v>4.5</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_15.jpeg</t>
+          <t>go_stimuli\puppy_13.jpg</t>
         </is>
       </c>
       <c r="D12" t="n">
@@ -7127,11 +7127,11 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_28.jpg</t>
+          <t>go_stimuli\puppy_9.jpg</t>
         </is>
       </c>
       <c r="D13" t="n">
@@ -7148,11 +7148,11 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>5</v>
+        <v>6.5</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_16.jpeg</t>
+          <t>go_stimuli\puppy_10.jpg</t>
         </is>
       </c>
       <c r="D14" t="n">
@@ -7169,11 +7169,11 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>5</v>
+        <v>6.5</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_5.jpg</t>
+          <t>go_stimuli\puppy_22.jpeg</t>
         </is>
       </c>
       <c r="D15" t="n">
@@ -7190,7 +7190,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>5.5</v>
+        <v>4.5</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -7211,11 +7211,11 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_22.jpeg</t>
+          <t>go_stimuli\puppy_1.jpg</t>
         </is>
       </c>
       <c r="D17" t="n">
@@ -7232,11 +7232,11 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_2.jpg</t>
+          <t>go_stimuli\puppy_7.jpg</t>
         </is>
       </c>
       <c r="D18" t="n">
@@ -7253,11 +7253,11 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_19.jpeg</t>
+          <t>go_stimuli\puppy_28.jpg</t>
         </is>
       </c>
       <c r="D19" t="n">
@@ -7278,7 +7278,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_9.jpg</t>
+          <t>go_stimuli\puppy_19.jpeg</t>
         </is>
       </c>
       <c r="D20" t="n">
@@ -7295,11 +7295,11 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_8.jpg</t>
+          <t>go_stimuli\puppy_29.jpg</t>
         </is>
       </c>
       <c r="D21" t="n">
@@ -7357,11 +7357,11 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>no_go_stimuli\spider_28.jpg</t>
+          <t>no_go_stimuli\spider_1.jpeg</t>
         </is>
       </c>
       <c r="D2" t="n">
@@ -7378,19 +7378,19 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>4</v>
+        <v>6.5</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_7.jpg</t>
+          <t>no_go_stimuli\spider_13.jpeg</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>space</t>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -7399,11 +7399,11 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>5.5</v>
+        <v>6.5</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>no_go_stimuli\spider_25.jpg</t>
+          <t>no_go_stimuli\spider_30.jpg</t>
         </is>
       </c>
       <c r="D4" t="n">
@@ -7420,11 +7420,11 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>no_go_stimuli\spider_24.jpeg</t>
+          <t>no_go_stimuli\spider_21.jpg</t>
         </is>
       </c>
       <c r="D5" t="n">
@@ -7441,11 +7441,11 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>4.5</v>
+        <v>6</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>no_go_stimuli\spider_10.jpeg</t>
+          <t>no_go_stimuli\spider_15.jpeg</t>
         </is>
       </c>
       <c r="D6" t="n">
@@ -7462,11 +7462,11 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>6.5</v>
+        <v>4.5</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>no_go_stimuli\spider_9.jpeg</t>
+          <t>no_go_stimuli\spider_11.jpeg</t>
         </is>
       </c>
       <c r="D7" t="n">
@@ -7483,11 +7483,11 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_17.jpeg</t>
+          <t>go_stimuli\puppy_26.jpeg</t>
         </is>
       </c>
       <c r="D8" t="n">
@@ -7508,15 +7508,15 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>no_go_stimuli\spider_30.jpg</t>
+          <t>go_stimuli\puppy_21.jpeg</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>space</t>
         </is>
       </c>
     </row>
@@ -7525,11 +7525,11 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>4.5</v>
+        <v>5.5</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_4.jpg</t>
+          <t>go_stimuli\puppy_25.jpeg</t>
         </is>
       </c>
       <c r="D10" t="n">
@@ -7546,19 +7546,19 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>no_go_stimuli\spider_2.jpeg</t>
+          <t>go_stimuli\puppy_29.jpg</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>space</t>
         </is>
       </c>
     </row>
@@ -7567,11 +7567,11 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_1.jpg</t>
+          <t>go_stimuli\puppy_27.jpg</t>
         </is>
       </c>
       <c r="D12" t="n">
@@ -7588,19 +7588,19 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>6.5</v>
+        <v>4</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_16.jpeg</t>
+          <t>no_go_stimuli\spider_25.jpg</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>space</t>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -7609,11 +7609,11 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_9.jpg</t>
+          <t>go_stimuli\puppy_10.jpg</t>
         </is>
       </c>
       <c r="D14" t="n">
@@ -7630,11 +7630,11 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>6.5</v>
+        <v>4</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>no_go_stimuli\spider_19.jpg</t>
+          <t>no_go_stimuli\spider_26.jpg</t>
         </is>
       </c>
       <c r="D15" t="n">
@@ -7651,11 +7651,11 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_29.jpg</t>
+          <t>go_stimuli\puppy_30.jpg</t>
         </is>
       </c>
       <c r="D16" t="n">
@@ -7672,11 +7672,11 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>5.5</v>
+        <v>4</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_10.jpg</t>
+          <t>go_stimuli\puppy_1.jpg</t>
         </is>
       </c>
       <c r="D17" t="n">
@@ -7693,19 +7693,19 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>6.5</v>
+        <v>4</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>no_go_stimuli\spider_6.jpeg</t>
+          <t>go_stimuli\puppy_15.jpeg</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>space</t>
         </is>
       </c>
     </row>
@@ -7718,15 +7718,15 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_5.jpg</t>
+          <t>no_go_stimuli\spider_23.jpg</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>space</t>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -7739,15 +7739,15 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>no_go_stimuli\spider_15.jpeg</t>
+          <t>go_stimuli\puppy_22.jpeg</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>space</t>
         </is>
       </c>
     </row>
@@ -7756,19 +7756,19 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_14.jpeg</t>
+          <t>no_go_stimuli\spider_28.jpg</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>space</t>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -7821,7 +7821,7 @@
         <v>7</v>
       </c>
       <c r="C2" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -7837,10 +7837,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -7856,10 +7856,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -7875,10 +7875,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C5" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -7894,10 +7894,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C6" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D6" t="n">
         <v>1</v>
@@ -7913,17 +7913,17 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C7" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -7932,17 +7932,17 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C8" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -7951,17 +7951,17 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C9" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -7970,17 +7970,17 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C10" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -7989,17 +7989,17 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C11" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -8008,10 +8008,10 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C12" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D12" t="n">
         <v>1</v>
@@ -8027,17 +8027,17 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C13" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -8046,10 +8046,10 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -8068,14 +8068,14 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -8084,17 +8084,17 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C16" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -8103,17 +8103,17 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C17" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -8122,17 +8122,17 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C18" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -8141,10 +8141,10 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C19" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D19" t="n">
         <v>1</v>
@@ -8160,10 +8160,10 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D20" t="n">
         <v>1</v>
@@ -8179,10 +8179,10 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C21" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
@@ -8239,10 +8239,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C2" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -8258,10 +8258,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C3" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -8277,10 +8277,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" t="n">
         <v>6</v>
-      </c>
-      <c r="C4" t="n">
-        <v>3</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -8296,10 +8296,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C5" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D5" t="n">
         <v>1</v>
@@ -8315,10 +8315,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C6" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -8334,10 +8334,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C7" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -8353,10 +8353,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C8" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D8" t="n">
         <v>1</v>
@@ -8372,17 +8372,17 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C9" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -8391,17 +8391,17 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C10" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -8410,17 +8410,17 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C11" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -8429,17 +8429,17 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C12" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -8448,10 +8448,10 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C13" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D13" t="n">
         <v>1</v>
@@ -8467,10 +8467,10 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -8486,17 +8486,17 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C15" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -8505,10 +8505,10 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -8524,10 +8524,10 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C17" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D17" t="n">
         <v>1</v>
@@ -8543,17 +8543,17 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C18" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -8562,17 +8562,17 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C19" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -8581,17 +8581,17 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C20" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -8600,10 +8600,10 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C21" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
@@ -8660,17 +8660,17 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -8679,10 +8679,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C3" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D3" t="n">
         <v>1</v>
@@ -8698,10 +8698,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C4" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -8717,10 +8717,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C5" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D5" t="n">
         <v>1</v>
@@ -8736,17 +8736,17 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C6" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -8755,10 +8755,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C7" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -8774,10 +8774,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C8" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -8793,17 +8793,17 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -8812,17 +8812,17 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C10" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -8831,10 +8831,10 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C11" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -8850,10 +8850,10 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C12" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D12" t="n">
         <v>1</v>
@@ -8869,17 +8869,17 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C13" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -8888,17 +8888,17 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -8907,10 +8907,10 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C15" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
@@ -8929,7 +8929,7 @@
         <v>7</v>
       </c>
       <c r="C16" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -8945,10 +8945,10 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C17" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D17" t="n">
         <v>1</v>
@@ -8964,17 +8964,17 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C18" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -8983,10 +8983,10 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C19" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -9002,17 +9002,17 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -9021,17 +9021,17 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C21" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -9076,7 +9076,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -9092,7 +9092,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -9108,7 +9108,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -9127,11 +9127,11 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -9140,7 +9140,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -9156,14 +9156,14 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -9172,14 +9172,14 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -9188,14 +9188,14 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -9204,7 +9204,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -9220,7 +9220,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C11" t="n">
         <v>1</v>
@@ -9236,14 +9236,14 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -9252,14 +9252,14 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -9268,7 +9268,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -9284,14 +9284,14 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -9300,14 +9300,14 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -9316,14 +9316,14 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -9332,14 +9332,14 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -9348,7 +9348,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -9364,14 +9364,14 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -9380,14 +9380,14 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -9432,7 +9432,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -9451,11 +9451,11 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -9480,7 +9480,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -9512,14 +9512,14 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -9528,14 +9528,14 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -9544,14 +9544,14 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -9560,14 +9560,14 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -9576,14 +9576,14 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -9592,7 +9592,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
@@ -9608,14 +9608,14 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -9624,7 +9624,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C14" t="n">
         <v>1</v>
@@ -9640,7 +9640,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
@@ -9656,14 +9656,14 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -9672,14 +9672,14 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -9688,14 +9688,14 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -9704,14 +9704,14 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -9720,14 +9720,14 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -9736,7 +9736,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C21" t="n">
         <v>1</v>

--- a/participants/participant_21/participant_21_conditions.xlsx
+++ b/participants/participant_21/participant_21_conditions.xlsx
@@ -7,29 +7,29 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="go_stims-16512555378162155" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="GNG_stims-16512555378362148" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="go_stims-16512555378382144" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="GNG_stims-16512555378522124" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="ZB-match_4-16512555381126966" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="ZB-match_6-16512555381956995" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="ZB-match_3-16512555383156946" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="OB-16512555383436956" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="OB-16512555385876927" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet name="OB-1651255539184693" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet name="TB-16512555396584706" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet name="TB-16512555399544728" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet name="TB-16512555402334714" sheetId="13" state="visible" r:id="rId13"/>
-    <sheet name="ZM_stims-16512555402574785" sheetId="14" state="visible" r:id="rId14"/>
-    <sheet name="MM_stims-16512555402694707" sheetId="15" state="visible" r:id="rId15"/>
-    <sheet name="ZM_stims-16512555402704742" sheetId="16" state="visible" r:id="rId16"/>
-    <sheet name="MM_stims-16512555402854736" sheetId="17" state="visible" r:id="rId17"/>
-    <sheet name="ZM_stims-16512555402864735" sheetId="18" state="visible" r:id="rId18"/>
-    <sheet name="MM_stims-16512555403004737" sheetId="19" state="visible" r:id="rId19"/>
-    <sheet name="SAT_stims-1651255540307475" sheetId="20" state="visible" r:id="rId20"/>
-    <sheet name="SAT_stims-16512555403334792" sheetId="21" state="visible" r:id="rId21"/>
-    <sheet name="vSAT_stims-16512555403484719" sheetId="22" state="visible" r:id="rId22"/>
-    <sheet name="vSAT_stims-16512555403644712" sheetId="23" state="visible" r:id="rId23"/>
+    <sheet name="go_stims-16515889704266326" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="GNG_stims-1651588970443203" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="go_stims-16515889704441674" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="GNG_stims-16515889704688404" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="ZM_stims-1651588970476392" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="MM_stims-16515889705006914" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="ZM_stims-16515889705026975" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="MM_stims-16515889705156953" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="ZM_stims-16515889705166957" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="MM_stims-16515889705316956" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet name="ZB-match_2-16515889705668998" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet name="ZB-match_4-1651588970669989" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet name="ZB-match_7-165158897074455" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet name="OB-1651588970959285" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet name="OB-16515889712966251" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet name="OB-16515889727378304" sheetId="16" state="visible" r:id="rId16"/>
+    <sheet name="TB-16515889731488318" sheetId="17" state="visible" r:id="rId17"/>
+    <sheet name="TB-16515889734258292" sheetId="18" state="visible" r:id="rId18"/>
+    <sheet name="TB-16515889734938266" sheetId="19" state="visible" r:id="rId19"/>
+    <sheet name="SAT_stims-165158897351383" sheetId="20" state="visible" r:id="rId20"/>
+    <sheet name="SAT_stims-16515889735378273" sheetId="21" state="visible" r:id="rId21"/>
+    <sheet name="vSAT_stims-16515889735538316" sheetId="22" state="visible" r:id="rId22"/>
+    <sheet name="vSAT_stims-16515889735698276" sheetId="23" state="visible" r:id="rId23"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -486,7 +486,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_17.jpeg</t>
+          <t>go_stimuli\puppy_11.jpeg</t>
         </is>
       </c>
       <c r="D2" t="n">
@@ -507,7 +507,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_30.jpg</t>
+          <t>go_stimuli\puppy_3.jpg</t>
         </is>
       </c>
       <c r="D3" t="n">
@@ -528,7 +528,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_21.jpeg</t>
+          <t>go_stimuli\puppy_7.jpg</t>
         </is>
       </c>
       <c r="D4" t="n">
@@ -545,11 +545,11 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_22.jpeg</t>
+          <t>go_stimuli\puppy_21.jpeg</t>
         </is>
       </c>
       <c r="D5" t="n">
@@ -566,11 +566,11 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>6.5</v>
+        <v>4</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_24.jpeg</t>
+          <t>go_stimuli\puppy_29.jpg</t>
         </is>
       </c>
       <c r="D6" t="n">
@@ -591,7 +591,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_3.jpg</t>
+          <t>go_stimuli\puppy_26.jpeg</t>
         </is>
       </c>
       <c r="D7" t="n">
@@ -608,11 +608,11 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_9.jpg</t>
+          <t>go_stimuli\puppy_8.jpg</t>
         </is>
       </c>
       <c r="D8" t="n">
@@ -629,11 +629,11 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>6.5</v>
+        <v>4</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_19.jpeg</t>
+          <t>go_stimuli\puppy_6.jpg</t>
         </is>
       </c>
       <c r="D9" t="n">
@@ -650,11 +650,11 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_6.jpg</t>
+          <t>go_stimuli\puppy_18.jpeg</t>
         </is>
       </c>
       <c r="D10" t="n">
@@ -671,11 +671,11 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_4.jpg</t>
+          <t>go_stimuli\puppy_9.jpg</t>
         </is>
       </c>
       <c r="D11" t="n">
@@ -692,11 +692,11 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>4</v>
+        <v>5.5</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_15.jpeg</t>
+          <t>go_stimuli\puppy_25.jpeg</t>
         </is>
       </c>
       <c r="D12" t="n">
@@ -713,11 +713,11 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>5.5</v>
+        <v>4.5</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_28.jpg</t>
+          <t>go_stimuli\puppy_16.jpeg</t>
         </is>
       </c>
       <c r="D13" t="n">
@@ -755,11 +755,11 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_18.jpeg</t>
+          <t>go_stimuli\puppy_17.jpeg</t>
         </is>
       </c>
       <c r="D15" t="n">
@@ -776,11 +776,11 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>4.5</v>
+        <v>6</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_10.jpg</t>
+          <t>go_stimuli\puppy_4.jpg</t>
         </is>
       </c>
       <c r="D16" t="n">
@@ -797,11 +797,11 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>5.5</v>
+        <v>4</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_26.jpeg</t>
+          <t>go_stimuli\puppy_30.jpg</t>
         </is>
       </c>
       <c r="D17" t="n">
@@ -818,7 +818,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -839,11 +839,11 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>6.5</v>
+        <v>4.5</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_25.jpeg</t>
+          <t>go_stimuli\puppy_28.jpg</t>
         </is>
       </c>
       <c r="D19" t="n">
@@ -860,11 +860,11 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_16.jpeg</t>
+          <t>go_stimuli\puppy_24.jpeg</t>
         </is>
       </c>
       <c r="D20" t="n">
@@ -881,11 +881,11 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_29.jpg</t>
+          <t>go_stimuli\puppy_2.jpg</t>
         </is>
       </c>
       <c r="D21" t="n">
@@ -903,6 +903,1413 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>image_stim</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>match</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>corr_key</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>multi_move_stimuli\stim_two_move\stim_two_move_5.jpg</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>right</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>multi_move_stimuli\stim_two_move\stim_two_move_3.jpg</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>right</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>multi_move_stimuli\stim_not_two_move\stim_not_two_move_6.jpg</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>left</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>multi_move_stimuli\stim_not_two_move\stim_not_two_move_4.jpg</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>left</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>multi_move_stimuli\stim_two_move\stim_two_move_6.jpg</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>1</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>right</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>multi_move_stimuli\stim_not_two_move\stim_not_two_move_5.jpg</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>0</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>left</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>num_stim</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>match_num</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>match</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>corr_key</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>3</v>
+      </c>
+      <c r="C2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>left</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>5</v>
+      </c>
+      <c r="C3" t="n">
+        <v>2</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>left</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1</v>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>right</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>2</v>
+      </c>
+      <c r="C5" t="n">
+        <v>2</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1</v>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>right</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>2</v>
+      </c>
+      <c r="C6" t="n">
+        <v>2</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1</v>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>right</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>1</v>
+      </c>
+      <c r="C7" t="n">
+        <v>2</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>left</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>2</v>
+      </c>
+      <c r="C8" t="n">
+        <v>2</v>
+      </c>
+      <c r="D8" t="n">
+        <v>1</v>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>right</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>8</v>
+      </c>
+      <c r="C9" t="n">
+        <v>2</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>left</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>0</v>
+      </c>
+      <c r="C10" t="n">
+        <v>2</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>left</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>2</v>
+      </c>
+      <c r="C11" t="n">
+        <v>2</v>
+      </c>
+      <c r="D11" t="n">
+        <v>1</v>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>right</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="n">
+        <v>1</v>
+      </c>
+      <c r="C12" t="n">
+        <v>2</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0</v>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>left</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="n">
+        <v>5</v>
+      </c>
+      <c r="C13" t="n">
+        <v>2</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0</v>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>left</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="n">
+        <v>2</v>
+      </c>
+      <c r="C14" t="n">
+        <v>2</v>
+      </c>
+      <c r="D14" t="n">
+        <v>1</v>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>right</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="n">
+        <v>3</v>
+      </c>
+      <c r="C15" t="n">
+        <v>2</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0</v>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>left</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="n">
+        <v>1</v>
+      </c>
+      <c r="C16" t="n">
+        <v>2</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0</v>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>left</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="n">
+        <v>2</v>
+      </c>
+      <c r="C17" t="n">
+        <v>2</v>
+      </c>
+      <c r="D17" t="n">
+        <v>1</v>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>right</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="n">
+        <v>3</v>
+      </c>
+      <c r="C18" t="n">
+        <v>2</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0</v>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>left</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="n">
+        <v>2</v>
+      </c>
+      <c r="C19" t="n">
+        <v>2</v>
+      </c>
+      <c r="D19" t="n">
+        <v>1</v>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>right</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="n">
+        <v>4</v>
+      </c>
+      <c r="C20" t="n">
+        <v>2</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0</v>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>left</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="n">
+        <v>3</v>
+      </c>
+      <c r="C21" t="n">
+        <v>2</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0</v>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>left</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>num_stim</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>match_num</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>match</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>corr_key</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>4</v>
+      </c>
+      <c r="C2" t="n">
+        <v>4</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>right</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>8</v>
+      </c>
+      <c r="C3" t="n">
+        <v>4</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>left</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>4</v>
+      </c>
+      <c r="C4" t="n">
+        <v>4</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1</v>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>right</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>1</v>
+      </c>
+      <c r="C5" t="n">
+        <v>4</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>left</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>6</v>
+      </c>
+      <c r="C6" t="n">
+        <v>4</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>left</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>4</v>
+      </c>
+      <c r="C7" t="n">
+        <v>4</v>
+      </c>
+      <c r="D7" t="n">
+        <v>1</v>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>right</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>4</v>
+      </c>
+      <c r="C8" t="n">
+        <v>4</v>
+      </c>
+      <c r="D8" t="n">
+        <v>1</v>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>right</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>9</v>
+      </c>
+      <c r="C9" t="n">
+        <v>4</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>left</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>2</v>
+      </c>
+      <c r="C10" t="n">
+        <v>4</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>left</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>6</v>
+      </c>
+      <c r="C11" t="n">
+        <v>4</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>left</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="n">
+        <v>4</v>
+      </c>
+      <c r="C12" t="n">
+        <v>4</v>
+      </c>
+      <c r="D12" t="n">
+        <v>1</v>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>right</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="n">
+        <v>9</v>
+      </c>
+      <c r="C13" t="n">
+        <v>4</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0</v>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>left</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="n">
+        <v>4</v>
+      </c>
+      <c r="C14" t="n">
+        <v>4</v>
+      </c>
+      <c r="D14" t="n">
+        <v>1</v>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>right</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="n">
+        <v>3</v>
+      </c>
+      <c r="C15" t="n">
+        <v>4</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0</v>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>left</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="n">
+        <v>2</v>
+      </c>
+      <c r="C16" t="n">
+        <v>4</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0</v>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>left</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="n">
+        <v>6</v>
+      </c>
+      <c r="C17" t="n">
+        <v>4</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0</v>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>left</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="n">
+        <v>4</v>
+      </c>
+      <c r="C18" t="n">
+        <v>4</v>
+      </c>
+      <c r="D18" t="n">
+        <v>1</v>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>right</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="n">
+        <v>8</v>
+      </c>
+      <c r="C19" t="n">
+        <v>4</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0</v>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>left</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="n">
+        <v>4</v>
+      </c>
+      <c r="C20" t="n">
+        <v>4</v>
+      </c>
+      <c r="D20" t="n">
+        <v>1</v>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>right</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="n">
+        <v>3</v>
+      </c>
+      <c r="C21" t="n">
+        <v>4</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0</v>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>left</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>num_stim</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>match_num</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>match</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>corr_key</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C2" t="n">
+        <v>7</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>left</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>7</v>
+      </c>
+      <c r="C3" t="n">
+        <v>7</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1</v>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>right</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>4</v>
+      </c>
+      <c r="C4" t="n">
+        <v>7</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>left</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>4</v>
+      </c>
+      <c r="C5" t="n">
+        <v>7</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>left</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>1</v>
+      </c>
+      <c r="C6" t="n">
+        <v>7</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>left</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>2</v>
+      </c>
+      <c r="C7" t="n">
+        <v>7</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>left</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>7</v>
+      </c>
+      <c r="C8" t="n">
+        <v>7</v>
+      </c>
+      <c r="D8" t="n">
+        <v>1</v>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>right</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>7</v>
+      </c>
+      <c r="C9" t="n">
+        <v>7</v>
+      </c>
+      <c r="D9" t="n">
+        <v>1</v>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>right</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>7</v>
+      </c>
+      <c r="C10" t="n">
+        <v>7</v>
+      </c>
+      <c r="D10" t="n">
+        <v>1</v>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>right</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>7</v>
+      </c>
+      <c r="C11" t="n">
+        <v>7</v>
+      </c>
+      <c r="D11" t="n">
+        <v>1</v>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>right</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="n">
+        <v>7</v>
+      </c>
+      <c r="C12" t="n">
+        <v>7</v>
+      </c>
+      <c r="D12" t="n">
+        <v>1</v>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>right</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="n">
+        <v>7</v>
+      </c>
+      <c r="C13" t="n">
+        <v>7</v>
+      </c>
+      <c r="D13" t="n">
+        <v>1</v>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>right</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="n">
+        <v>6</v>
+      </c>
+      <c r="C14" t="n">
+        <v>7</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0</v>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>left</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="n">
+        <v>4</v>
+      </c>
+      <c r="C15" t="n">
+        <v>7</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0</v>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>left</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="n">
+        <v>2</v>
+      </c>
+      <c r="C16" t="n">
+        <v>7</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0</v>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>left</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="n">
+        <v>9</v>
+      </c>
+      <c r="C17" t="n">
+        <v>7</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0</v>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>left</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="n">
+        <v>9</v>
+      </c>
+      <c r="C18" t="n">
+        <v>7</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0</v>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>left</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="n">
+        <v>8</v>
+      </c>
+      <c r="C19" t="n">
+        <v>7</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0</v>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>left</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="n">
+        <v>7</v>
+      </c>
+      <c r="C20" t="n">
+        <v>7</v>
+      </c>
+      <c r="D20" t="n">
+        <v>1</v>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>right</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="n">
+        <v>7</v>
+      </c>
+      <c r="C21" t="n">
+        <v>7</v>
+      </c>
+      <c r="D21" t="n">
+        <v>1</v>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>right</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -938,7 +2345,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -954,14 +2361,14 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -970,7 +2377,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -986,7 +2393,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -1002,14 +2409,14 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -1018,7 +2425,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -1034,7 +2441,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -1050,7 +2457,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
@@ -1066,14 +2473,14 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -1082,14 +2489,14 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -1098,7 +2505,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C12" t="n">
         <v>1</v>
@@ -1114,7 +2521,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -1130,14 +2537,14 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -1146,14 +2553,14 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -1165,11 +2572,11 @@
         <v>2</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -1178,7 +2585,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -1194,14 +2601,14 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -1210,14 +2617,14 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -1226,14 +2633,14 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -1242,14 +2649,14 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -1258,7 +2665,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1294,7 +2701,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -1310,7 +2717,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -1329,11 +2736,11 @@
         <v>9</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -1342,14 +2749,14 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -1358,14 +2765,14 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -1374,14 +2781,14 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -1390,7 +2797,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -1406,14 +2813,14 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -1422,14 +2829,14 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -1438,14 +2845,14 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -1454,14 +2861,14 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -1470,14 +2877,14 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -1486,14 +2893,14 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -1502,14 +2909,14 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -1518,14 +2925,14 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -1534,14 +2941,14 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -1550,14 +2957,14 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -1566,14 +2973,14 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -1582,14 +2989,14 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -1598,14 +3005,14 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -1614,7 +3021,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1650,7 +3057,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -1666,14 +3073,14 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -1682,7 +3089,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -1698,14 +3105,14 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -1714,14 +3121,14 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -1730,14 +3137,14 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -1746,14 +3153,14 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -1762,14 +3169,14 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -1778,14 +3185,14 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -1810,14 +3217,14 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -1826,14 +3233,14 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -1842,7 +3249,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -1858,7 +3265,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
@@ -1874,14 +3281,14 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -1890,7 +3297,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -1906,14 +3313,14 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -1922,14 +3329,14 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -1938,14 +3345,14 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -1954,14 +3361,14 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -1970,7 +3377,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2006,7 +3413,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -2022,7 +3429,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -2041,11 +3448,11 @@
         <v>4</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -2054,14 +3461,14 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -2070,14 +3477,14 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -2086,14 +3493,14 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -2102,14 +3509,14 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -2118,14 +3525,14 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -2134,7 +3541,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -2150,14 +3557,14 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -2166,14 +3573,14 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -2182,7 +3589,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C13" t="n">
         <v>1</v>
@@ -2198,14 +3605,14 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -2214,14 +3621,14 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -2230,14 +3637,14 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -2246,14 +3653,14 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -2262,7 +3669,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
@@ -2281,11 +3688,11 @@
         <v>1</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -2294,7 +3701,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -2310,588 +3717,12 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D21" t="inlineStr">
-        <is>
-          <t>right</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:D7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>image_stim</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>match</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>corr_key</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>zero_move_stimuli\zero_move_6.jpg</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>left</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>zero_move_stimuli\zero_move_4.jpg</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>0</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>left</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>zero_move_stimuli\zero_move_5.jpg</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>0</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>left</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>zero_move_stimuli\zero_move_2.jpg</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>0</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>left</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>zero_move_stimuli\zero_move_3.jpg</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>0</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>left</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>zero_move_stimuli\zero_move_1.jpg</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>0</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>left</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:D7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>image_stim</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>match</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>corr_key</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>multi_move_stimuli\stim_not_two_move\stim_not_two_move_3.jpg</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>left</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>multi_move_stimuli\stim_two_move\stim_two_move_4.jpg</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>1</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>right</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>multi_move_stimuli\stim_two_move\stim_two_move_2.jpg</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>1</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>right</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>multi_move_stimuli\stim_not_two_move\stim_not_two_move_1.jpg</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>0</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>left</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>multi_move_stimuli\stim_not_two_move\stim_not_two_move_6.jpg</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>0</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>left</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>multi_move_stimuli\stim_two_move\stim_two_move_3.jpg</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>1</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>right</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:D7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>image_stim</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>match</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>corr_key</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>zero_move_stimuli\zero_move_3.jpg</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>left</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>zero_move_stimuli\zero_move_5.jpg</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>0</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>left</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>zero_move_stimuli\zero_move_2.jpg</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>0</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>left</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>zero_move_stimuli\zero_move_6.jpg</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>0</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>left</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>zero_move_stimuli\zero_move_4.jpg</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>0</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>left</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>zero_move_stimuli\zero_move_1.jpg</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>0</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>left</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:D7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>image_stim</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>match</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>corr_key</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>multi_move_stimuli\stim_not_two_move\stim_not_two_move_4.jpg</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>left</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>multi_move_stimuli\stim_two_move\stim_two_move_6.jpg</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>1</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>right</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>multi_move_stimuli\stim_two_move\stim_two_move_1.jpg</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>1</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>right</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>multi_move_stimuli\stim_two_move\stim_two_move_5.jpg</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>1</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>right</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>multi_move_stimuli\stim_not_two_move\stim_not_two_move_5.jpg</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>0</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>left</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>multi_move_stimuli\stim_not_two_move\stim_not_two_move_6.jpg</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>0</v>
-      </c>
-      <c r="D7" t="inlineStr">
         <is>
           <t>left</t>
         </is>
@@ -2908,7 +3739,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2919,7 +3750,7 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>image_stim</t>
+          <t>num_stim</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
@@ -2937,10 +3768,8 @@
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>zero_move_stimuli\zero_move_6.jpg</t>
-        </is>
+      <c r="B2" t="n">
+        <v>3</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -2955,10 +3784,8 @@
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>zero_move_stimuli\zero_move_2.jpg</t>
-        </is>
+      <c r="B3" t="n">
+        <v>9</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -2973,10 +3800,8 @@
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>zero_move_stimuli\zero_move_1.jpg</t>
-        </is>
+      <c r="B4" t="n">
+        <v>2</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -2991,10 +3816,8 @@
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>zero_move_stimuli\zero_move_5.jpg</t>
-        </is>
+      <c r="B5" t="n">
+        <v>1</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -3009,17 +3832,15 @@
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>zero_move_stimuli\zero_move_3.jpg</t>
-        </is>
+      <c r="B6" t="n">
+        <v>2</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -3027,10 +3848,8 @@
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>zero_move_stimuli\zero_move_4.jpg</t>
-        </is>
+      <c r="B7" t="n">
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -3038,6 +3857,230 @@
       <c r="D7" t="inlineStr">
         <is>
           <t>left</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>7</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>left</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>1</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>left</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>7</v>
+      </c>
+      <c r="C10" t="n">
+        <v>1</v>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>right</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>4</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0</v>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>left</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="n">
+        <v>3</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0</v>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>left</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="n">
+        <v>4</v>
+      </c>
+      <c r="C13" t="n">
+        <v>1</v>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>right</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="n">
+        <v>7</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0</v>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>left</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="n">
+        <v>4</v>
+      </c>
+      <c r="C15" t="n">
+        <v>1</v>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>right</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="n">
+        <v>2</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0</v>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>left</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="n">
+        <v>4</v>
+      </c>
+      <c r="C17" t="n">
+        <v>1</v>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>right</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="n">
+        <v>2</v>
+      </c>
+      <c r="C18" t="n">
+        <v>1</v>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>right</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="n">
+        <v>9</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0</v>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>left</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="n">
+        <v>2</v>
+      </c>
+      <c r="C20" t="n">
+        <v>1</v>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>right</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="n">
+        <v>9</v>
+      </c>
+      <c r="C21" t="n">
+        <v>1</v>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -3052,7 +4095,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3063,7 +4106,7 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>image_stim</t>
+          <t>num_stim</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
@@ -3081,10 +4124,8 @@
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>multi_move_stimuli\stim_not_two_move\stim_not_two_move_4.jpg</t>
-        </is>
+      <c r="B2" t="n">
+        <v>7</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -3099,10 +4140,8 @@
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>multi_move_stimuli\stim_not_two_move\stim_not_two_move_2.jpg</t>
-        </is>
+      <c r="B3" t="n">
+        <v>3</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -3117,17 +4156,15 @@
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>multi_move_stimuli\stim_two_move\stim_two_move_5.jpg</t>
-        </is>
+      <c r="B4" t="n">
+        <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -3135,10 +4172,8 @@
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>multi_move_stimuli\stim_two_move\stim_two_move_1.jpg</t>
-        </is>
+      <c r="B5" t="n">
+        <v>3</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -3153,10 +4188,8 @@
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>multi_move_stimuli\stim_not_two_move\stim_not_two_move_3.jpg</t>
-        </is>
+      <c r="B6" t="n">
+        <v>1</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -3171,15 +4204,237 @@
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>multi_move_stimuli\stim_two_move\stim_two_move_3.jpg</t>
-        </is>
+      <c r="B7" t="n">
+        <v>5</v>
       </c>
       <c r="C7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D7" t="inlineStr">
+        <is>
+          <t>left</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>left</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>3</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>left</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>1</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0</v>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>left</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>3</v>
+      </c>
+      <c r="C11" t="n">
+        <v>1</v>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>right</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="n">
+        <v>1</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1</v>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>right</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="n">
+        <v>4</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0</v>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>left</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="n">
+        <v>1</v>
+      </c>
+      <c r="C14" t="n">
+        <v>1</v>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>right</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="n">
+        <v>4</v>
+      </c>
+      <c r="C15" t="n">
+        <v>1</v>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>right</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="n">
+        <v>8</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0</v>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>left</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="n">
+        <v>4</v>
+      </c>
+      <c r="C17" t="n">
+        <v>1</v>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>right</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="n">
+        <v>8</v>
+      </c>
+      <c r="C18" t="n">
+        <v>1</v>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>right</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="n">
+        <v>1</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0</v>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>left</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="n">
+        <v>7</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0</v>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>left</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="n">
+        <v>1</v>
+      </c>
+      <c r="C21" t="n">
+        <v>1</v>
+      </c>
+      <c r="D21" t="inlineStr">
         <is>
           <t>right</t>
         </is>
@@ -3235,7 +4490,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>no_go_stimuli\spider_6.jpeg</t>
+          <t>no_go_stimuli\spider_23.jpg</t>
         </is>
       </c>
       <c r="D2" t="n">
@@ -3252,19 +4507,19 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_19.jpeg</t>
+          <t>no_go_stimuli\spider_11.jpeg</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>space</t>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -3273,11 +4528,11 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>no_go_stimuli\spider_30.jpg</t>
+          <t>no_go_stimuli\spider_20.jpg</t>
         </is>
       </c>
       <c r="D4" t="n">
@@ -3294,11 +4549,11 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>6.5</v>
+        <v>5</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_16.jpeg</t>
+          <t>go_stimuli\puppy_20.jpeg</t>
         </is>
       </c>
       <c r="D5" t="n">
@@ -3315,11 +4570,11 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>no_go_stimuli\spider_13.jpeg</t>
+          <t>no_go_stimuli\spider_12.jpeg</t>
         </is>
       </c>
       <c r="D6" t="n">
@@ -3340,15 +4595,15 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>no_go_stimuli\spider_4.jpeg</t>
+          <t>go_stimuli\puppy_12.jpeg</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>space</t>
         </is>
       </c>
     </row>
@@ -3357,11 +4612,11 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>5.5</v>
+        <v>4.5</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_13.jpg</t>
+          <t>go_stimuli\puppy_2.jpg</t>
         </is>
       </c>
       <c r="D8" t="n">
@@ -3378,19 +4633,19 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_18.jpeg</t>
+          <t>no_go_stimuli\spider_28.jpg</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>space</t>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -3399,11 +4654,11 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>no_go_stimuli\spider_12.jpeg</t>
+          <t>no_go_stimuli\spider_30.jpg</t>
         </is>
       </c>
       <c r="D10" t="n">
@@ -3424,15 +4679,15 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>no_go_stimuli\spider_3.jpeg</t>
+          <t>go_stimuli\puppy_10.jpg</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>space</t>
         </is>
       </c>
     </row>
@@ -3441,19 +4696,19 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>5.5</v>
+        <v>4</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_22.jpeg</t>
+          <t>no_go_stimuli\spider_8.jpeg</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>space</t>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -3462,19 +4717,19 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>5.5</v>
+        <v>4.5</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>no_go_stimuli\spider_2.jpeg</t>
+          <t>go_stimuli\puppy_21.jpeg</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>space</t>
         </is>
       </c>
     </row>
@@ -3483,11 +4738,11 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>4</v>
+        <v>5.5</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_28.jpg</t>
+          <t>go_stimuli\puppy_29.jpg</t>
         </is>
       </c>
       <c r="D14" t="n">
@@ -3504,11 +4759,11 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_17.jpeg</t>
+          <t>go_stimuli\puppy_11.jpeg</t>
         </is>
       </c>
       <c r="D15" t="n">
@@ -3525,19 +4780,19 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>6.5</v>
+        <v>5.5</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>no_go_stimuli\spider_22.jpg</t>
+          <t>go_stimuli\puppy_1.jpg</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>space</t>
         </is>
       </c>
     </row>
@@ -3546,19 +4801,19 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_9.jpg</t>
+          <t>no_go_stimuli\spider_15.jpeg</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>space</t>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -3567,11 +4822,11 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>5.5</v>
+        <v>4</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>no_go_stimuli\spider_27.jpeg</t>
+          <t>no_go_stimuli\spider_7.jpeg</t>
         </is>
       </c>
       <c r="D18" t="n">
@@ -3588,19 +4843,19 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>no_go_stimuli\spider_1.jpeg</t>
+          <t>go_stimuli\puppy_19.jpeg</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>space</t>
         </is>
       </c>
     </row>
@@ -3609,19 +4864,19 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>5.5</v>
+        <v>4.5</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_21.jpeg</t>
+          <t>no_go_stimuli\spider_17.jpeg</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>space</t>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -3630,11 +4885,11 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>6.5</v>
+        <v>4.5</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_15.jpeg</t>
+          <t>go_stimuli\puppy_24.jpeg</t>
         </is>
       </c>
       <c r="D21" t="n">
@@ -3705,7 +4960,7 @@
         <v>0.05</v>
       </c>
       <c r="C2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -3714,11 +4969,11 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -3730,7 +4985,7 @@
         <v>0.017</v>
       </c>
       <c r="C3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -3755,7 +5010,7 @@
         <v>0.029</v>
       </c>
       <c r="C4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -3777,7 +5032,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>0.029</v>
+        <v>0.05</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -3802,10 +5057,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>0.05</v>
+        <v>0.017</v>
       </c>
       <c r="C6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -3814,11 +5069,11 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -3827,7 +5082,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>0.029</v>
+        <v>0.05</v>
       </c>
       <c r="C7" t="n">
         <v>2</v>
@@ -3839,11 +5094,11 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -3852,7 +5107,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>0.029</v>
+        <v>0.017</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
@@ -3877,10 +5132,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>0.05</v>
+        <v>0.017</v>
       </c>
       <c r="C9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
@@ -3902,10 +5157,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>0.017</v>
+        <v>0.029</v>
       </c>
       <c r="C10" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -3914,11 +5169,11 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -3927,7 +5182,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>0.029</v>
+        <v>0.017</v>
       </c>
       <c r="C11" t="n">
         <v>2</v>
@@ -3952,7 +5207,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>0.017</v>
+        <v>0.05</v>
       </c>
       <c r="C12" t="n">
         <v>2</v>
@@ -3977,10 +5232,10 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>0.05</v>
+        <v>0.017</v>
       </c>
       <c r="C13" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -3989,11 +5244,11 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -4002,10 +5257,10 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>0.05</v>
+        <v>0.017</v>
       </c>
       <c r="C14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -4014,11 +5269,11 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -4030,7 +5285,7 @@
         <v>0.029</v>
       </c>
       <c r="C15" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
@@ -4039,11 +5294,11 @@
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -4052,10 +5307,10 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>0.017</v>
+        <v>0.05</v>
       </c>
       <c r="C16" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -4080,7 +5335,7 @@
         <v>0.029</v>
       </c>
       <c r="C17" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -4089,11 +5344,11 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -4102,7 +5357,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>0.017</v>
+        <v>0.029</v>
       </c>
       <c r="C18" t="n">
         <v>3</v>
@@ -4114,11 +5369,11 @@
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -4127,10 +5382,10 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>0.029</v>
+        <v>0.05</v>
       </c>
       <c r="C19" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -4152,10 +5407,10 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>0.017</v>
+        <v>0.029</v>
       </c>
       <c r="C20" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -4164,11 +5419,11 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -4177,10 +5432,10 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>0.05</v>
+        <v>0.017</v>
       </c>
       <c r="C21" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
@@ -4202,7 +5457,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>0.029</v>
+        <v>0.05</v>
       </c>
       <c r="C22" t="n">
         <v>1</v>
@@ -4214,11 +5469,11 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -4227,7 +5482,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>0.017</v>
+        <v>0.05</v>
       </c>
       <c r="C23" t="n">
         <v>3</v>
@@ -4239,11 +5494,11 @@
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -4252,7 +5507,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>0.029</v>
+        <v>0.017</v>
       </c>
       <c r="C24" t="n">
         <v>1</v>
@@ -4277,7 +5532,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>0.017</v>
+        <v>0.05</v>
       </c>
       <c r="C25" t="n">
         <v>3</v>
@@ -4302,10 +5557,10 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>0.029</v>
+        <v>0.017</v>
       </c>
       <c r="C26" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -4327,10 +5582,10 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>0.017</v>
+        <v>0.029</v>
       </c>
       <c r="C27" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D27" t="n">
         <v>0</v>
@@ -4339,11 +5594,11 @@
         <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -4352,10 +5607,10 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>0.029</v>
+        <v>0.017</v>
       </c>
       <c r="C28" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -4364,11 +5619,11 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -4377,10 +5632,10 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>0.029</v>
+        <v>0.017</v>
       </c>
       <c r="C29" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
@@ -4389,11 +5644,11 @@
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -4402,10 +5657,10 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>0.05</v>
+        <v>0.017</v>
       </c>
       <c r="C30" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D30" t="n">
         <v>0</v>
@@ -4414,11 +5669,11 @@
         <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -4430,7 +5685,7 @@
         <v>0.017</v>
       </c>
       <c r="C31" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -4439,11 +5694,11 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -4503,10 +5758,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.029</v>
+        <v>0.05</v>
       </c>
       <c r="C2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -4515,11 +5770,11 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -4528,7 +5783,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0.05</v>
+        <v>0.017</v>
       </c>
       <c r="C3" t="n">
         <v>2</v>
@@ -4540,11 +5795,11 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -4553,10 +5808,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>0.05</v>
+        <v>0.029</v>
       </c>
       <c r="C4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -4603,10 +5858,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>0.029</v>
+        <v>0.017</v>
       </c>
       <c r="C6" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -4628,7 +5883,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>0.05</v>
+        <v>0.017</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -4640,11 +5895,11 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -4653,10 +5908,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>0.029</v>
+        <v>0.05</v>
       </c>
       <c r="C8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -4665,11 +5920,11 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -4681,7 +5936,7 @@
         <v>0.017</v>
       </c>
       <c r="C9" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
@@ -4690,11 +5945,11 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -4715,11 +5970,11 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -4728,10 +5983,10 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>0.017</v>
+        <v>0.029</v>
       </c>
       <c r="C11" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -4753,10 +6008,10 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>0.05</v>
+        <v>0.029</v>
       </c>
       <c r="C12" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
@@ -4781,7 +6036,7 @@
         <v>0.029</v>
       </c>
       <c r="C13" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -4803,10 +6058,10 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>0.017</v>
+        <v>0.029</v>
       </c>
       <c r="C14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -4828,7 +6083,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>0.05</v>
+        <v>0.029</v>
       </c>
       <c r="C15" t="n">
         <v>2</v>
@@ -4853,7 +6108,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>0.017</v>
+        <v>0.05</v>
       </c>
       <c r="C16" t="n">
         <v>1</v>
@@ -4865,11 +6120,11 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -4878,10 +6133,10 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>0.05</v>
+        <v>0.017</v>
       </c>
       <c r="C17" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -4915,11 +6170,11 @@
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -4928,7 +6183,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>0.05</v>
+        <v>0.029</v>
       </c>
       <c r="C19" t="n">
         <v>1</v>
@@ -4953,10 +6208,10 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>0.05</v>
+        <v>0.017</v>
       </c>
       <c r="C20" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -4978,7 +6233,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>0.029</v>
+        <v>0.05</v>
       </c>
       <c r="C21" t="n">
         <v>3</v>
@@ -5003,10 +6258,10 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>0.05</v>
+        <v>0.017</v>
       </c>
       <c r="C22" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -5028,7 +6283,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>0.05</v>
+        <v>0.029</v>
       </c>
       <c r="C23" t="n">
         <v>1</v>
@@ -5053,7 +6308,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>0.017</v>
+        <v>0.029</v>
       </c>
       <c r="C24" t="n">
         <v>3</v>
@@ -5103,10 +6358,10 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>0.017</v>
+        <v>0.029</v>
       </c>
       <c r="C26" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -5115,11 +6370,11 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -5128,7 +6383,7 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>0.017</v>
+        <v>0.05</v>
       </c>
       <c r="C27" t="n">
         <v>1</v>
@@ -5165,11 +6420,11 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -5178,10 +6433,10 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>0.029</v>
+        <v>0.05</v>
       </c>
       <c r="C29" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
@@ -5203,10 +6458,10 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>0.05</v>
+        <v>0.029</v>
       </c>
       <c r="C30" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D30" t="n">
         <v>0</v>
@@ -5215,11 +6470,11 @@
         <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -5231,7 +6486,7 @@
         <v>0.05</v>
       </c>
       <c r="C31" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -5304,16 +6559,16 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.017</v>
+        <v>0.029</v>
       </c>
       <c r="C2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="F2" t="n">
         <v>1</v>
@@ -5332,13 +6587,13 @@
         <v>0.05</v>
       </c>
       <c r="C3" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="F3" t="n">
         <v>1</v>
@@ -5354,23 +6609,23 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>0.05</v>
+        <v>0.017</v>
       </c>
       <c r="C4" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D4" t="n">
         <v>0.25</v>
       </c>
       <c r="E4" t="n">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="F4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -5382,7 +6637,7 @@
         <v>0.017</v>
       </c>
       <c r="C5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D5" t="n">
         <v>-0.25</v>
@@ -5404,23 +6659,23 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>0.029</v>
+        <v>0.05</v>
       </c>
       <c r="C6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D6" t="n">
         <v>0.25</v>
       </c>
       <c r="E6" t="n">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="F6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -5429,23 +6684,23 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>0.029</v>
+        <v>0.017</v>
       </c>
       <c r="C7" t="n">
         <v>2</v>
       </c>
       <c r="D7" t="n">
+        <v>-0.25</v>
+      </c>
+      <c r="E7" t="n">
         <v>0.25</v>
       </c>
-      <c r="E7" t="n">
-        <v>-0.25</v>
-      </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -5454,10 +6709,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>0.05</v>
+        <v>0.017</v>
       </c>
       <c r="C8" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D8" t="n">
         <v>-0.25</v>
@@ -5488,7 +6743,7 @@
         <v>-0.25</v>
       </c>
       <c r="E9" t="n">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="F9" t="n">
         <v>1</v>
@@ -5504,23 +6759,23 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>0.017</v>
+        <v>0.05</v>
       </c>
       <c r="C10" t="n">
         <v>3</v>
       </c>
       <c r="D10" t="n">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="E10" t="n">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -5532,13 +6787,13 @@
         <v>0.017</v>
       </c>
       <c r="C11" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D11" t="n">
         <v>0.25</v>
       </c>
       <c r="E11" t="n">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -5554,7 +6809,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>0.017</v>
+        <v>0.029</v>
       </c>
       <c r="C12" t="n">
         <v>1</v>
@@ -5566,11 +6821,11 @@
         <v>-0.25</v>
       </c>
       <c r="F12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -5579,23 +6834,23 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>0.029</v>
+        <v>0.05</v>
       </c>
       <c r="C13" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D13" t="n">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -5604,23 +6859,23 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>0.017</v>
+        <v>0.029</v>
       </c>
       <c r="C14" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D14" t="n">
         <v>0.25</v>
       </c>
       <c r="E14" t="n">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="F14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -5629,23 +6884,23 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>0.029</v>
+        <v>0.017</v>
       </c>
       <c r="C15" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D15" t="n">
         <v>0.25</v>
       </c>
       <c r="E15" t="n">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="F15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -5660,17 +6915,17 @@
         <v>3</v>
       </c>
       <c r="D16" t="n">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="E16" t="n">
         <v>0.25</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -5679,16 +6934,16 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>0.05</v>
+        <v>0.029</v>
       </c>
       <c r="C17" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D17" t="n">
         <v>-0.25</v>
       </c>
       <c r="E17" t="n">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -5704,23 +6959,23 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>0.017</v>
+        <v>0.029</v>
       </c>
       <c r="C18" t="n">
         <v>2</v>
       </c>
       <c r="D18" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="E18" t="n">
         <v>-0.25</v>
       </c>
-      <c r="E18" t="n">
-        <v>0.25</v>
-      </c>
       <c r="F18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -5729,23 +6984,23 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>0.05</v>
+        <v>0.017</v>
       </c>
       <c r="C19" t="n">
         <v>1</v>
       </c>
       <c r="D19" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -5754,10 +7009,10 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>0.029</v>
+        <v>0.05</v>
       </c>
       <c r="C20" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D20" t="n">
         <v>0.25</v>
@@ -5766,11 +7021,11 @@
         <v>0.25</v>
       </c>
       <c r="F20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -5782,20 +7037,20 @@
         <v>0.05</v>
       </c>
       <c r="C21" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D21" t="n">
         <v>0.25</v>
       </c>
       <c r="E21" t="n">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="F21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -5804,7 +7059,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>0.029</v>
+        <v>0.017</v>
       </c>
       <c r="C22" t="n">
         <v>1</v>
@@ -5813,7 +7068,7 @@
         <v>0.25</v>
       </c>
       <c r="E22" t="n">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="F22" t="n">
         <v>1</v>
@@ -5829,23 +7084,23 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>0.029</v>
+        <v>0.05</v>
       </c>
       <c r="C23" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D23" t="n">
         <v>0.25</v>
       </c>
       <c r="E23" t="n">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="F23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -5854,13 +7109,13 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>0.017</v>
+        <v>0.029</v>
       </c>
       <c r="C24" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D24" t="n">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="E24" t="n">
         <v>-0.25</v>
@@ -5879,23 +7134,23 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>0.029</v>
+        <v>0.017</v>
       </c>
       <c r="C25" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D25" t="n">
         <v>0.25</v>
       </c>
       <c r="E25" t="n">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -5904,23 +7159,23 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>0.017</v>
+        <v>0.05</v>
       </c>
       <c r="C26" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D26" t="n">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="E26" t="n">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="F26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -5929,23 +7184,23 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>0.05</v>
+        <v>0.029</v>
       </c>
       <c r="C27" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D27" t="n">
+        <v>-0.25</v>
+      </c>
+      <c r="E27" t="n">
         <v>0.25</v>
       </c>
-      <c r="E27" t="n">
-        <v>-0.25</v>
-      </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -5954,23 +7209,23 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>0.05</v>
+        <v>0.029</v>
       </c>
       <c r="C28" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="F28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -5979,16 +7234,16 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>0.017</v>
+        <v>0.05</v>
       </c>
       <c r="C29" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D29" t="n">
+        <v>-0.25</v>
+      </c>
+      <c r="E29" t="n">
         <v>0.25</v>
-      </c>
-      <c r="E29" t="n">
-        <v>-0.25</v>
       </c>
       <c r="F29" t="n">
         <v>1</v>
@@ -6004,7 +7259,7 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>0.017</v>
+        <v>0.029</v>
       </c>
       <c r="C30" t="n">
         <v>2</v>
@@ -6013,14 +7268,14 @@
         <v>-0.25</v>
       </c>
       <c r="E30" t="n">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="F30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -6029,16 +7284,16 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>0.017</v>
+        <v>0.05</v>
       </c>
       <c r="C31" t="n">
         <v>2</v>
       </c>
       <c r="D31" t="n">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>1</v>
@@ -6105,10 +7360,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.05</v>
+        <v>0.029</v>
       </c>
       <c r="C2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D2" t="n">
         <v>-0.25</v>
@@ -6130,13 +7385,13 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0.05</v>
+        <v>0.017</v>
       </c>
       <c r="C3" t="n">
         <v>2</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="E3" t="n">
         <v>-0.25</v>
@@ -6158,13 +7413,13 @@
         <v>0.029</v>
       </c>
       <c r="C4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D4" t="n">
+        <v>-0.25</v>
+      </c>
+      <c r="E4" t="n">
         <v>0.25</v>
-      </c>
-      <c r="E4" t="n">
-        <v>-0.25</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -6180,16 +7435,16 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>0.05</v>
+        <v>0.029</v>
       </c>
       <c r="C5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D5" t="n">
         <v>-0.25</v>
       </c>
       <c r="E5" t="n">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="F5" t="n">
         <v>1</v>
@@ -6208,20 +7463,20 @@
         <v>0.05</v>
       </c>
       <c r="C6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -6236,10 +7491,10 @@
         <v>3</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="E7" t="n">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="F7" t="n">
         <v>1</v>
@@ -6255,16 +7510,16 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>0.029</v>
+        <v>0.05</v>
       </c>
       <c r="C8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D8" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -6280,23 +7535,23 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>0.017</v>
+        <v>0.029</v>
       </c>
       <c r="C9" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="F9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -6305,16 +7560,16 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>0.05</v>
+        <v>0.017</v>
       </c>
       <c r="C10" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D10" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -6330,16 +7585,16 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>0.029</v>
+        <v>0.05</v>
       </c>
       <c r="C11" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D11" t="n">
         <v>0.25</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -6358,13 +7613,13 @@
         <v>0.017</v>
       </c>
       <c r="C12" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D12" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="E12" t="n">
         <v>-0.25</v>
-      </c>
-      <c r="E12" t="n">
-        <v>0.25</v>
       </c>
       <c r="F12" t="n">
         <v>0</v>
@@ -6380,23 +7635,23 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>0.05</v>
+        <v>0.029</v>
       </c>
       <c r="C13" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -6405,10 +7660,10 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>0.017</v>
+        <v>0.05</v>
       </c>
       <c r="C14" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D14" t="n">
         <v>-0.25</v>
@@ -6417,11 +7672,11 @@
         <v>0.25</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -6430,16 +7685,16 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>0.05</v>
+        <v>0.017</v>
       </c>
       <c r="C15" t="n">
         <v>3</v>
       </c>
       <c r="D15" t="n">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="E15" t="n">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="F15" t="n">
         <v>1</v>
@@ -6455,23 +7710,23 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>0.05</v>
+        <v>0.017</v>
       </c>
       <c r="C16" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D16" t="n">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -6480,16 +7735,16 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>0.017</v>
+        <v>0.029</v>
       </c>
       <c r="C17" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D17" t="n">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="E17" t="n">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -6508,20 +7763,20 @@
         <v>0.05</v>
       </c>
       <c r="C18" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -6530,16 +7785,16 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>0.05</v>
+        <v>0.029</v>
       </c>
       <c r="C19" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D19" t="n">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="E19" t="n">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -6555,16 +7810,16 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>0.05</v>
+        <v>0.029</v>
       </c>
       <c r="C20" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D20" t="n">
         <v>0.25</v>
       </c>
       <c r="E20" t="n">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="F20" t="n">
         <v>1</v>
@@ -6580,23 +7835,23 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>0.029</v>
+        <v>0.017</v>
       </c>
       <c r="C21" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D21" t="n">
         <v>0.25</v>
       </c>
       <c r="E21" t="n">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -6605,10 +7860,10 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>0.029</v>
+        <v>0.05</v>
       </c>
       <c r="C22" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D22" t="n">
         <v>0.25</v>
@@ -6633,7 +7888,7 @@
         <v>0.017</v>
       </c>
       <c r="C23" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D23" t="n">
         <v>0.25</v>
@@ -6655,23 +7910,23 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>0.05</v>
+        <v>0.017</v>
       </c>
       <c r="C24" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D24" t="n">
         <v>-0.25</v>
       </c>
       <c r="E24" t="n">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -6680,16 +7935,16 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>0.029</v>
+        <v>0.05</v>
       </c>
       <c r="C25" t="n">
         <v>3</v>
       </c>
       <c r="D25" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="E25" t="n">
         <v>-0.25</v>
-      </c>
-      <c r="E25" t="n">
-        <v>0.25</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -6717,11 +7972,11 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -6730,23 +7985,23 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>0.029</v>
+        <v>0.017</v>
       </c>
       <c r="C27" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D27" t="n">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -6755,23 +8010,23 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>0.029</v>
+        <v>0.017</v>
       </c>
       <c r="C28" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D28" t="n">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="E28" t="n">
         <v>0.25</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -6780,23 +8035,23 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>0.029</v>
+        <v>0.05</v>
       </c>
       <c r="C29" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -6805,10 +8060,10 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>0.017</v>
+        <v>0.05</v>
       </c>
       <c r="C30" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D30" t="n">
         <v>0.25</v>
@@ -6817,11 +8072,11 @@
         <v>0.25</v>
       </c>
       <c r="F30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -6830,23 +8085,23 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>0.029</v>
+        <v>0.05</v>
       </c>
       <c r="C31" t="n">
         <v>1</v>
       </c>
       <c r="D31" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -6896,11 +8151,11 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>6.5</v>
+        <v>5</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_14.jpeg</t>
+          <t>go_stimuli\puppy_12.jpeg</t>
         </is>
       </c>
       <c r="D2" t="n">
@@ -6921,7 +8176,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_6.jpg</t>
+          <t>go_stimuli\puppy_25.jpeg</t>
         </is>
       </c>
       <c r="D3" t="n">
@@ -6938,11 +8193,11 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_23.jpeg</t>
+          <t>go_stimuli\puppy_11.jpeg</t>
         </is>
       </c>
       <c r="D4" t="n">
@@ -6959,11 +8214,11 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_21.jpeg</t>
+          <t>go_stimuli\puppy_28.jpg</t>
         </is>
       </c>
       <c r="D5" t="n">
@@ -6980,11 +8235,11 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>6.5</v>
+        <v>4</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_12.jpeg</t>
+          <t>go_stimuli\puppy_10.jpg</t>
         </is>
       </c>
       <c r="D6" t="n">
@@ -7001,11 +8256,11 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_27.jpg</t>
+          <t>go_stimuli\puppy_14.jpeg</t>
         </is>
       </c>
       <c r="D7" t="n">
@@ -7022,11 +8277,11 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_15.jpeg</t>
+          <t>go_stimuli\puppy_2.jpg</t>
         </is>
       </c>
       <c r="D8" t="n">
@@ -7043,11 +8298,11 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_18.jpeg</t>
+          <t>go_stimuli\puppy_5.jpg</t>
         </is>
       </c>
       <c r="D9" t="n">
@@ -7064,11 +8319,11 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_4.jpg</t>
+          <t>go_stimuli\puppy_7.jpg</t>
         </is>
       </c>
       <c r="D10" t="n">
@@ -7089,7 +8344,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_3.jpg</t>
+          <t>go_stimuli\puppy_20.jpeg</t>
         </is>
       </c>
       <c r="D11" t="n">
@@ -7106,11 +8361,11 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>4.5</v>
+        <v>5.5</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_13.jpg</t>
+          <t>go_stimuli\puppy_18.jpeg</t>
         </is>
       </c>
       <c r="D12" t="n">
@@ -7127,11 +8382,11 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_9.jpg</t>
+          <t>go_stimuli\puppy_23.jpeg</t>
         </is>
       </c>
       <c r="D13" t="n">
@@ -7148,11 +8403,11 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>6.5</v>
+        <v>4</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_10.jpg</t>
+          <t>go_stimuli\puppy_19.jpeg</t>
         </is>
       </c>
       <c r="D14" t="n">
@@ -7169,11 +8424,11 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>6.5</v>
+        <v>5.5</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_22.jpeg</t>
+          <t>go_stimuli\puppy_1.jpg</t>
         </is>
       </c>
       <c r="D15" t="n">
@@ -7190,11 +8445,11 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_26.jpeg</t>
+          <t>go_stimuli\puppy_13.jpg</t>
         </is>
       </c>
       <c r="D16" t="n">
@@ -7211,11 +8466,11 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_1.jpg</t>
+          <t>go_stimuli\puppy_17.jpeg</t>
         </is>
       </c>
       <c r="D17" t="n">
@@ -7232,11 +8487,11 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_7.jpg</t>
+          <t>go_stimuli\puppy_22.jpeg</t>
         </is>
       </c>
       <c r="D18" t="n">
@@ -7253,11 +8508,11 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_28.jpg</t>
+          <t>go_stimuli\puppy_21.jpeg</t>
         </is>
       </c>
       <c r="D19" t="n">
@@ -7274,11 +8529,11 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>6</v>
+        <v>4.5</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_19.jpeg</t>
+          <t>go_stimuli\puppy_8.jpg</t>
         </is>
       </c>
       <c r="D20" t="n">
@@ -7295,11 +8550,11 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_29.jpg</t>
+          <t>go_stimuli\puppy_27.jpg</t>
         </is>
       </c>
       <c r="D21" t="n">
@@ -7361,7 +8616,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>no_go_stimuli\spider_1.jpeg</t>
+          <t>no_go_stimuli\spider_3.jpeg</t>
         </is>
       </c>
       <c r="D2" t="n">
@@ -7378,19 +8633,19 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>6.5</v>
+        <v>4.5</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>no_go_stimuli\spider_13.jpeg</t>
+          <t>go_stimuli\puppy_15.jpeg</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>space</t>
         </is>
       </c>
     </row>
@@ -7403,7 +8658,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>no_go_stimuli\spider_30.jpg</t>
+          <t>no_go_stimuli\spider_22.jpg</t>
         </is>
       </c>
       <c r="D4" t="n">
@@ -7424,15 +8679,15 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>no_go_stimuli\spider_21.jpg</t>
+          <t>go_stimuli\puppy_18.jpeg</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>space</t>
         </is>
       </c>
     </row>
@@ -7441,11 +8696,11 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>no_go_stimuli\spider_15.jpeg</t>
+          <t>no_go_stimuli\spider_5.jpeg</t>
         </is>
       </c>
       <c r="D6" t="n">
@@ -7462,19 +8717,19 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>no_go_stimuli\spider_11.jpeg</t>
+          <t>go_stimuli\puppy_13.jpg</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>space</t>
         </is>
       </c>
     </row>
@@ -7483,19 +8738,19 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>5</v>
+        <v>6.5</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_26.jpeg</t>
+          <t>no_go_stimuli\spider_10.jpeg</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>space</t>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -7504,11 +8759,11 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_21.jpeg</t>
+          <t>go_stimuli\puppy_20.jpeg</t>
         </is>
       </c>
       <c r="D9" t="n">
@@ -7525,19 +8780,19 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_25.jpeg</t>
+          <t>no_go_stimuli\spider_28.jpg</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>space</t>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -7546,11 +8801,11 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>4.5</v>
+        <v>6.5</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_29.jpg</t>
+          <t>go_stimuli\puppy_16.jpeg</t>
         </is>
       </c>
       <c r="D11" t="n">
@@ -7567,11 +8822,11 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_27.jpg</t>
+          <t>go_stimuli\puppy_14.jpeg</t>
         </is>
       </c>
       <c r="D12" t="n">
@@ -7588,11 +8843,11 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>no_go_stimuli\spider_25.jpg</t>
+          <t>no_go_stimuli\spider_8.jpeg</t>
         </is>
       </c>
       <c r="D13" t="n">
@@ -7609,19 +8864,19 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>5</v>
+        <v>6.5</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_10.jpg</t>
+          <t>no_go_stimuli\spider_16.jpeg</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>space</t>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -7630,11 +8885,11 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>no_go_stimuli\spider_26.jpg</t>
+          <t>no_go_stimuli\spider_29.jpg</t>
         </is>
       </c>
       <c r="D15" t="n">
@@ -7651,11 +8906,11 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_30.jpg</t>
+          <t>go_stimuli\puppy_4.jpg</t>
         </is>
       </c>
       <c r="D16" t="n">
@@ -7672,11 +8927,11 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_1.jpg</t>
+          <t>go_stimuli\puppy_7.jpg</t>
         </is>
       </c>
       <c r="D17" t="n">
@@ -7693,19 +8948,19 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_15.jpeg</t>
+          <t>no_go_stimuli\spider_2.jpeg</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>space</t>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -7714,19 +8969,19 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>no_go_stimuli\spider_23.jpg</t>
+          <t>go_stimuli\puppy_10.jpg</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>space</t>
         </is>
       </c>
     </row>
@@ -7735,19 +8990,19 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>go_stimuli\puppy_22.jpeg</t>
+          <t>no_go_stimuli\spider_23.jpg</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>space</t>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -7756,19 +9011,19 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>4</v>
+        <v>6.5</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>no_go_stimuli\spider_28.jpg</t>
+          <t>go_stimuli\puppy_24.jpeg</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>space</t>
         </is>
       </c>
     </row>
@@ -7783,7 +9038,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E21"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7794,20 +9049,15 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>num_stim</t>
+          <t>image_stim</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>match_num</t>
+          <t>match</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>match</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>corr_key</t>
         </is>
@@ -7817,16 +9067,15 @@
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="B2" t="n">
-        <v>7</v>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>zero_move_stimuli\zero_move_5.jpg</t>
+        </is>
       </c>
       <c r="C2" t="n">
-        <v>4</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E2" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="D2" t="inlineStr">
         <is>
           <t>left</t>
         </is>
@@ -7836,16 +9085,15 @@
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B3" t="n">
-        <v>2</v>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>zero_move_stimuli\zero_move_1.jpg</t>
+        </is>
       </c>
       <c r="C3" t="n">
-        <v>4</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0</v>
-      </c>
-      <c r="E3" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="D3" t="inlineStr">
         <is>
           <t>left</t>
         </is>
@@ -7855,16 +9103,15 @@
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B4" t="n">
-        <v>3</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>zero_move_stimuli\zero_move_2.jpg</t>
+        </is>
       </c>
       <c r="C4" t="n">
-        <v>4</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0</v>
-      </c>
-      <c r="E4" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="D4" t="inlineStr">
         <is>
           <t>left</t>
         </is>
@@ -7874,16 +9121,15 @@
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B5" t="n">
-        <v>8</v>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>zero_move_stimuli\zero_move_6.jpg</t>
+        </is>
       </c>
       <c r="C5" t="n">
-        <v>4</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0</v>
-      </c>
-      <c r="E5" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="D5" t="inlineStr">
         <is>
           <t>left</t>
         </is>
@@ -7893,18 +9139,17 @@
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B6" t="n">
-        <v>4</v>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>zero_move_stimuli\zero_move_4.jpg</t>
+        </is>
       </c>
       <c r="C6" t="n">
-        <v>4</v>
-      </c>
-      <c r="D6" t="n">
-        <v>1</v>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>right</t>
+        <v>0</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -7912,282 +9157,15 @@
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="B7" t="n">
-        <v>4</v>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>zero_move_stimuli\zero_move_3.jpg</t>
+        </is>
       </c>
       <c r="C7" t="n">
-        <v>4</v>
-      </c>
-      <c r="D7" t="n">
-        <v>1</v>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>right</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="n">
-        <v>9</v>
-      </c>
-      <c r="C8" t="n">
-        <v>4</v>
-      </c>
-      <c r="D8" t="n">
-        <v>0</v>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>left</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="n">
-        <v>4</v>
-      </c>
-      <c r="C9" t="n">
-        <v>4</v>
-      </c>
-      <c r="D9" t="n">
-        <v>1</v>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>right</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="n">
-        <v>6</v>
-      </c>
-      <c r="C10" t="n">
-        <v>4</v>
-      </c>
-      <c r="D10" t="n">
-        <v>0</v>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>left</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="n">
-        <v>6</v>
-      </c>
-      <c r="C11" t="n">
-        <v>4</v>
-      </c>
-      <c r="D11" t="n">
-        <v>0</v>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>left</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="n">
-        <v>4</v>
-      </c>
-      <c r="C12" t="n">
-        <v>4</v>
-      </c>
-      <c r="D12" t="n">
-        <v>1</v>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>right</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="n">
-        <v>5</v>
-      </c>
-      <c r="C13" t="n">
-        <v>4</v>
-      </c>
-      <c r="D13" t="n">
-        <v>0</v>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>left</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="n">
-        <v>3</v>
-      </c>
-      <c r="C14" t="n">
-        <v>4</v>
-      </c>
-      <c r="D14" t="n">
-        <v>0</v>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>left</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="n">
-        <v>4</v>
-      </c>
-      <c r="C15" t="n">
-        <v>4</v>
-      </c>
-      <c r="D15" t="n">
-        <v>1</v>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>right</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="n">
-        <v>7</v>
-      </c>
-      <c r="C16" t="n">
-        <v>4</v>
-      </c>
-      <c r="D16" t="n">
-        <v>0</v>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>left</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="n">
-        <v>4</v>
-      </c>
-      <c r="C17" t="n">
-        <v>4</v>
-      </c>
-      <c r="D17" t="n">
-        <v>1</v>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>right</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="n">
-        <v>4</v>
-      </c>
-      <c r="C18" t="n">
-        <v>4</v>
-      </c>
-      <c r="D18" t="n">
-        <v>1</v>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>right</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="n">
-        <v>4</v>
-      </c>
-      <c r="C19" t="n">
-        <v>4</v>
-      </c>
-      <c r="D19" t="n">
-        <v>1</v>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>right</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="n">
-        <v>4</v>
-      </c>
-      <c r="C20" t="n">
-        <v>4</v>
-      </c>
-      <c r="D20" t="n">
-        <v>1</v>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>right</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="n">
-        <v>7</v>
-      </c>
-      <c r="C21" t="n">
-        <v>4</v>
-      </c>
-      <c r="D21" t="n">
-        <v>0</v>
-      </c>
-      <c r="E21" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="D7" t="inlineStr">
         <is>
           <t>left</t>
         </is>
@@ -8204,7 +9182,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E21"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8215,20 +9193,15 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>num_stim</t>
+          <t>image_stim</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>match_num</t>
+          <t>match</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>match</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>corr_key</t>
         </is>
@@ -8238,18 +9211,17 @@
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="B2" t="n">
-        <v>7</v>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>multi_move_stimuli\stim_two_move\stim_two_move_2.jpg</t>
+        </is>
       </c>
       <c r="C2" t="n">
-        <v>6</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>left</t>
+        <v>1</v>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -8257,18 +9229,17 @@
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B3" t="n">
-        <v>5</v>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>multi_move_stimuli\stim_two_move\stim_two_move_3.jpg</t>
+        </is>
       </c>
       <c r="C3" t="n">
-        <v>6</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0</v>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>left</t>
+        <v>1</v>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -8276,16 +9247,15 @@
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B4" t="n">
-        <v>2</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>multi_move_stimuli\stim_not_two_move\stim_not_two_move_5.jpg</t>
+        </is>
       </c>
       <c r="C4" t="n">
-        <v>6</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0</v>
-      </c>
-      <c r="E4" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="D4" t="inlineStr">
         <is>
           <t>left</t>
         </is>
@@ -8295,18 +9265,17 @@
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B5" t="n">
-        <v>6</v>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>multi_move_stimuli\stim_not_two_move\stim_not_two_move_6.jpg</t>
+        </is>
       </c>
       <c r="C5" t="n">
-        <v>6</v>
-      </c>
-      <c r="D5" t="n">
-        <v>1</v>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>right</t>
+        <v>0</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -8314,18 +9283,17 @@
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B6" t="n">
-        <v>3</v>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>multi_move_stimuli\stim_two_move\stim_two_move_4.jpg</t>
+        </is>
       </c>
       <c r="C6" t="n">
-        <v>6</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0</v>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>left</t>
+        <v>1</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -8333,282 +9301,15 @@
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="B7" t="n">
-        <v>7</v>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>multi_move_stimuli\stim_not_two_move\stim_not_two_move_4.jpg</t>
+        </is>
       </c>
       <c r="C7" t="n">
-        <v>6</v>
-      </c>
-      <c r="D7" t="n">
-        <v>0</v>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>left</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="n">
-        <v>6</v>
-      </c>
-      <c r="C8" t="n">
-        <v>6</v>
-      </c>
-      <c r="D8" t="n">
-        <v>1</v>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>right</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="n">
-        <v>7</v>
-      </c>
-      <c r="C9" t="n">
-        <v>6</v>
-      </c>
-      <c r="D9" t="n">
-        <v>0</v>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>left</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="n">
-        <v>6</v>
-      </c>
-      <c r="C10" t="n">
-        <v>6</v>
-      </c>
-      <c r="D10" t="n">
-        <v>1</v>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>right</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="n">
-        <v>6</v>
-      </c>
-      <c r="C11" t="n">
-        <v>6</v>
-      </c>
-      <c r="D11" t="n">
-        <v>1</v>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>right</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="n">
-        <v>5</v>
-      </c>
-      <c r="C12" t="n">
-        <v>6</v>
-      </c>
-      <c r="D12" t="n">
-        <v>0</v>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>left</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="n">
-        <v>6</v>
-      </c>
-      <c r="C13" t="n">
-        <v>6</v>
-      </c>
-      <c r="D13" t="n">
-        <v>1</v>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>right</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="n">
-        <v>0</v>
-      </c>
-      <c r="C14" t="n">
-        <v>6</v>
-      </c>
-      <c r="D14" t="n">
-        <v>0</v>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>left</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="n">
-        <v>7</v>
-      </c>
-      <c r="C15" t="n">
-        <v>6</v>
-      </c>
-      <c r="D15" t="n">
-        <v>0</v>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>left</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="n">
-        <v>0</v>
-      </c>
-      <c r="C16" t="n">
-        <v>6</v>
-      </c>
-      <c r="D16" t="n">
-        <v>0</v>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>left</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="n">
-        <v>6</v>
-      </c>
-      <c r="C17" t="n">
-        <v>6</v>
-      </c>
-      <c r="D17" t="n">
-        <v>1</v>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>right</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="n">
-        <v>6</v>
-      </c>
-      <c r="C18" t="n">
-        <v>6</v>
-      </c>
-      <c r="D18" t="n">
-        <v>1</v>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>right</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="n">
-        <v>6</v>
-      </c>
-      <c r="C19" t="n">
-        <v>6</v>
-      </c>
-      <c r="D19" t="n">
-        <v>1</v>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>right</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="n">
-        <v>5</v>
-      </c>
-      <c r="C20" t="n">
-        <v>6</v>
-      </c>
-      <c r="D20" t="n">
-        <v>0</v>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>left</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="n">
-        <v>9</v>
-      </c>
-      <c r="C21" t="n">
-        <v>6</v>
-      </c>
-      <c r="D21" t="n">
-        <v>0</v>
-      </c>
-      <c r="E21" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="D7" t="inlineStr">
         <is>
           <t>left</t>
         </is>
@@ -8625,7 +9326,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E21"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8636,20 +9337,15 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>num_stim</t>
+          <t>image_stim</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>match_num</t>
+          <t>match</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>match</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>corr_key</t>
         </is>
@@ -8659,16 +9355,15 @@
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="B2" t="n">
-        <v>7</v>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>zero_move_stimuli\zero_move_4.jpg</t>
+        </is>
       </c>
       <c r="C2" t="n">
-        <v>3</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E2" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="D2" t="inlineStr">
         <is>
           <t>left</t>
         </is>
@@ -8678,18 +9373,17 @@
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B3" t="n">
-        <v>3</v>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>zero_move_stimuli\zero_move_6.jpg</t>
+        </is>
       </c>
       <c r="C3" t="n">
-        <v>3</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1</v>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>right</t>
+        <v>0</v>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -8697,16 +9391,15 @@
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B4" t="n">
-        <v>2</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>zero_move_stimuli\zero_move_1.jpg</t>
+        </is>
       </c>
       <c r="C4" t="n">
-        <v>3</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0</v>
-      </c>
-      <c r="E4" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="D4" t="inlineStr">
         <is>
           <t>left</t>
         </is>
@@ -8716,18 +9409,17 @@
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B5" t="n">
-        <v>3</v>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>zero_move_stimuli\zero_move_3.jpg</t>
+        </is>
       </c>
       <c r="C5" t="n">
-        <v>3</v>
-      </c>
-      <c r="D5" t="n">
-        <v>1</v>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>right</t>
+        <v>0</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -8735,16 +9427,15 @@
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B6" t="n">
-        <v>9</v>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>zero_move_stimuli\zero_move_5.jpg</t>
+        </is>
       </c>
       <c r="C6" t="n">
-        <v>3</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0</v>
-      </c>
-      <c r="E6" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="D6" t="inlineStr">
         <is>
           <t>left</t>
         </is>
@@ -8754,282 +9445,15 @@
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="B7" t="n">
-        <v>6</v>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>zero_move_stimuli\zero_move_2.jpg</t>
+        </is>
       </c>
       <c r="C7" t="n">
-        <v>3</v>
-      </c>
-      <c r="D7" t="n">
-        <v>0</v>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>left</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="n">
-        <v>5</v>
-      </c>
-      <c r="C8" t="n">
-        <v>3</v>
-      </c>
-      <c r="D8" t="n">
-        <v>0</v>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>left</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="n">
-        <v>3</v>
-      </c>
-      <c r="C9" t="n">
-        <v>3</v>
-      </c>
-      <c r="D9" t="n">
-        <v>1</v>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>right</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="n">
-        <v>3</v>
-      </c>
-      <c r="C10" t="n">
-        <v>3</v>
-      </c>
-      <c r="D10" t="n">
-        <v>1</v>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>right</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="n">
-        <v>2</v>
-      </c>
-      <c r="C11" t="n">
-        <v>3</v>
-      </c>
-      <c r="D11" t="n">
-        <v>0</v>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>left</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="n">
-        <v>3</v>
-      </c>
-      <c r="C12" t="n">
-        <v>3</v>
-      </c>
-      <c r="D12" t="n">
-        <v>1</v>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>right</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="n">
-        <v>5</v>
-      </c>
-      <c r="C13" t="n">
-        <v>3</v>
-      </c>
-      <c r="D13" t="n">
-        <v>0</v>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>left</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="n">
-        <v>3</v>
-      </c>
-      <c r="C14" t="n">
-        <v>3</v>
-      </c>
-      <c r="D14" t="n">
-        <v>1</v>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>right</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="n">
-        <v>5</v>
-      </c>
-      <c r="C15" t="n">
-        <v>3</v>
-      </c>
-      <c r="D15" t="n">
-        <v>0</v>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>left</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="n">
-        <v>7</v>
-      </c>
-      <c r="C16" t="n">
-        <v>3</v>
-      </c>
-      <c r="D16" t="n">
-        <v>0</v>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>left</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="n">
-        <v>3</v>
-      </c>
-      <c r="C17" t="n">
-        <v>3</v>
-      </c>
-      <c r="D17" t="n">
-        <v>1</v>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>right</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="n">
-        <v>3</v>
-      </c>
-      <c r="C18" t="n">
-        <v>3</v>
-      </c>
-      <c r="D18" t="n">
-        <v>1</v>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>right</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="n">
-        <v>4</v>
-      </c>
-      <c r="C19" t="n">
-        <v>3</v>
-      </c>
-      <c r="D19" t="n">
-        <v>0</v>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>left</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="n">
-        <v>0</v>
-      </c>
-      <c r="C20" t="n">
-        <v>3</v>
-      </c>
-      <c r="D20" t="n">
-        <v>0</v>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>left</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="n">
-        <v>9</v>
-      </c>
-      <c r="C21" t="n">
-        <v>3</v>
-      </c>
-      <c r="D21" t="n">
-        <v>0</v>
-      </c>
-      <c r="E21" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="D7" t="inlineStr">
         <is>
           <t>left</t>
         </is>
@@ -9046,7 +9470,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D21"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9057,7 +9481,7 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>num_stim</t>
+          <t>image_stim</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
@@ -9075,8 +9499,10 @@
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="B2" t="n">
-        <v>5</v>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>multi_move_stimuli\stim_not_two_move\stim_not_two_move_1.jpg</t>
+        </is>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -9091,15 +9517,17 @@
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B3" t="n">
-        <v>0</v>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>multi_move_stimuli\stim_two_move\stim_two_move_6.jpg</t>
+        </is>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
     </row>
@@ -9107,8 +9535,10 @@
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>multi_move_stimuli\stim_two_move\stim_two_move_3.jpg</t>
+        </is>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -9123,15 +9553,17 @@
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B5" t="n">
-        <v>0</v>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>multi_move_stimuli\stim_not_two_move\stim_not_two_move_4.jpg</t>
+        </is>
       </c>
       <c r="C5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -9139,8 +9571,10 @@
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B6" t="n">
-        <v>3</v>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>multi_move_stimuli\stim_not_two_move\stim_not_two_move_2.jpg</t>
+        </is>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -9155,237 +9589,15 @@
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="B7" t="n">
-        <v>4</v>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>multi_move_stimuli\stim_two_move\stim_two_move_4.jpg</t>
+        </is>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D7" t="inlineStr">
-        <is>
-          <t>left</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="n">
-        <v>4</v>
-      </c>
-      <c r="C8" t="n">
-        <v>1</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>right</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="n">
-        <v>4</v>
-      </c>
-      <c r="C9" t="n">
-        <v>1</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>right</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="n">
-        <v>5</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>left</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="n">
-        <v>5</v>
-      </c>
-      <c r="C11" t="n">
-        <v>1</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>right</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="n">
-        <v>4</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>left</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="n">
-        <v>8</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>left</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="n">
-        <v>4</v>
-      </c>
-      <c r="C14" t="n">
-        <v>0</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>left</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="n">
-        <v>3</v>
-      </c>
-      <c r="C15" t="n">
-        <v>0</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>left</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="n">
-        <v>3</v>
-      </c>
-      <c r="C16" t="n">
-        <v>1</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>right</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="n">
-        <v>3</v>
-      </c>
-      <c r="C17" t="n">
-        <v>1</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>right</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="n">
-        <v>1</v>
-      </c>
-      <c r="C18" t="n">
-        <v>0</v>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>left</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="n">
-        <v>0</v>
-      </c>
-      <c r="C19" t="n">
-        <v>0</v>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>left</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="n">
-        <v>8</v>
-      </c>
-      <c r="C20" t="n">
-        <v>0</v>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>left</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="n">
-        <v>8</v>
-      </c>
-      <c r="C21" t="n">
-        <v>1</v>
-      </c>
-      <c r="D21" t="inlineStr">
         <is>
           <t>right</t>
         </is>
@@ -9402,7 +9614,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D21"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9413,7 +9625,7 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>num_stim</t>
+          <t>image_stim</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
@@ -9431,8 +9643,10 @@
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="B2" t="n">
-        <v>2</v>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>zero_move_stimuli\zero_move_2.jpg</t>
+        </is>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -9447,8 +9661,10 @@
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B3" t="n">
-        <v>1</v>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>zero_move_stimuli\zero_move_5.jpg</t>
+        </is>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -9463,15 +9679,17 @@
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B4" t="n">
-        <v>1</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>zero_move_stimuli\zero_move_6.jpg</t>
+        </is>
       </c>
       <c r="C4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
@@ -9479,8 +9697,10 @@
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B5" t="n">
-        <v>8</v>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>zero_move_stimuli\zero_move_4.jpg</t>
+        </is>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -9495,8 +9715,10 @@
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B6" t="n">
-        <v>6</v>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>zero_move_stimuli\zero_move_3.jpg</t>
+        </is>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -9511,239 +9733,17 @@
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="B7" t="n">
-        <v>6</v>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>zero_move_stimuli\zero_move_1.jpg</t>
+        </is>
       </c>
       <c r="C7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>right</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="n">
-        <v>6</v>
-      </c>
-      <c r="C8" t="n">
-        <v>1</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>right</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="n">
-        <v>9</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>left</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="n">
-        <v>3</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>left</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="n">
-        <v>0</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>left</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="n">
-        <v>3</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>left</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="n">
-        <v>6</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>left</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="n">
-        <v>6</v>
-      </c>
-      <c r="C14" t="n">
-        <v>1</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>right</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="n">
-        <v>4</v>
-      </c>
-      <c r="C15" t="n">
-        <v>0</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>left</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="n">
-        <v>5</v>
-      </c>
-      <c r="C16" t="n">
-        <v>0</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>left</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="n">
-        <v>5</v>
-      </c>
-      <c r="C17" t="n">
-        <v>1</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>right</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="n">
-        <v>5</v>
-      </c>
-      <c r="C18" t="n">
-        <v>1</v>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>right</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="n">
-        <v>5</v>
-      </c>
-      <c r="C19" t="n">
-        <v>1</v>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>right</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="n">
-        <v>5</v>
-      </c>
-      <c r="C20" t="n">
-        <v>1</v>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>right</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="n">
-        <v>5</v>
-      </c>
-      <c r="C21" t="n">
-        <v>1</v>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
     </row>
